--- a/data/ihme-gbd.xlsx
+++ b/data/ihme-gbd.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="15" windowWidth="28620" windowHeight="12915"/>
   </bookViews>
   <sheets>
-    <sheet name="IHME-GBD_2016_DATA-ff74eabe-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1860,7 +1860,7 @@
   <dimension ref="A1:D335"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C336" sqref="C336"/>
+      <selection activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/ihme-gbd.xlsx
+++ b/data/ihme-gbd.xlsx
@@ -1859,11 +1859,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="H339" sqref="H339"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="F334" sqref="F334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1995,6 +1998,9 @@
       <c r="B10">
         <v>105265.246031</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
         <v>2471218.4148499998</v>
       </c>
@@ -2048,6 +2054,9 @@
       <c r="B14">
         <v>1782.7626544100001</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
         <v>54941.9203308</v>
       </c>
@@ -2129,6 +2138,9 @@
       <c r="C20">
         <v>183.63016340600001</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2179,6 +2191,9 @@
       <c r="B24">
         <v>22752.292829000002</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24">
         <v>227892.87499899999</v>
       </c>
@@ -2218,6 +2233,9 @@
       <c r="B27">
         <v>4991.5831607800001</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
       <c r="D27">
         <v>415941.23164000001</v>
       </c>
@@ -2229,6 +2247,9 @@
       <c r="B28">
         <v>20093.885254600002</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
       <c r="D28">
         <v>79029.017135100003</v>
       </c>
@@ -2240,6 +2261,9 @@
       <c r="B29">
         <v>42846.178083600003</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
       <c r="D29">
         <v>304876.63990000001</v>
       </c>
@@ -2251,6 +2275,9 @@
       <c r="B30">
         <v>9528.5589245400006</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
       <c r="D30">
         <v>297188.50910199998</v>
       </c>
@@ -2262,6 +2289,9 @@
       <c r="B31">
         <v>44216.406187400004</v>
       </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
       <c r="D31">
         <v>218599.656644</v>
       </c>
@@ -2329,6 +2359,9 @@
       <c r="B36">
         <v>1519.02133751</v>
       </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
       <c r="D36">
         <v>52275.875178000002</v>
       </c>
@@ -2368,6 +2401,9 @@
       <c r="B39">
         <v>923.65963041199996</v>
       </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
       <c r="D39">
         <v>3931575.0691</v>
       </c>
@@ -2379,6 +2415,9 @@
       <c r="B40">
         <v>7991.6122691500004</v>
       </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
       <c r="D40">
         <v>13652403.0474</v>
       </c>
@@ -2390,6 +2429,9 @@
       <c r="B41">
         <v>16932.902374599998</v>
       </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
       <c r="D41">
         <v>211890.790404</v>
       </c>
@@ -2723,6 +2765,9 @@
       <c r="B65">
         <v>47097.420551099996</v>
       </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
       <c r="D65">
         <v>390092.07056600001</v>
       </c>
@@ -2790,6 +2835,9 @@
       <c r="B70">
         <v>156851.338674</v>
       </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
       <c r="D70">
         <v>2481004.7178000002</v>
       </c>
@@ -2871,6 +2919,9 @@
       <c r="B76">
         <v>196199.655134</v>
       </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
       <c r="D76">
         <v>1091221.1520199999</v>
       </c>
@@ -2882,6 +2933,9 @@
       <c r="B77">
         <v>68024.754032900004</v>
       </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
       <c r="D77">
         <v>1735353.1348300001</v>
       </c>
@@ -3061,6 +3115,9 @@
       <c r="B90">
         <v>23622.301947200001</v>
       </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
       <c r="D90">
         <v>249241.47640700001</v>
       </c>
@@ -3100,6 +3157,9 @@
       <c r="B93">
         <v>18639.214696700001</v>
       </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
       <c r="D93">
         <v>686461.208185</v>
       </c>
@@ -3293,6 +3353,9 @@
       <c r="B107">
         <v>496.34131995000001</v>
       </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
       <c r="D107">
         <v>80749.652567900004</v>
       </c>
@@ -3318,6 +3381,9 @@
       <c r="B109">
         <v>0</v>
       </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
       <c r="D109">
         <v>0</v>
       </c>
@@ -3357,6 +3423,9 @@
       <c r="B112">
         <v>697.85787443900006</v>
       </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
       <c r="D112">
         <v>12111.5701936</v>
       </c>
@@ -3382,6 +3451,9 @@
       <c r="B114">
         <v>10755.83755</v>
       </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
       <c r="D114">
         <v>1912936.5309599999</v>
       </c>
@@ -3407,6 +3479,9 @@
       <c r="B116">
         <v>2.39754365751</v>
       </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
       <c r="D116">
         <v>4403269.0452699997</v>
       </c>
@@ -3460,6 +3535,9 @@
       <c r="B120">
         <v>570.18698499699997</v>
       </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
       <c r="D120">
         <v>2155756.45836</v>
       </c>
@@ -3485,6 +3563,9 @@
       <c r="B122">
         <v>1588.47887393</v>
       </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
       <c r="D122">
         <v>15258.921703800001</v>
       </c>
@@ -3510,6 +3591,9 @@
       <c r="B124">
         <v>1768.87948422</v>
       </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
       <c r="D124">
         <v>57177.589740700001</v>
       </c>
@@ -3521,6 +3605,9 @@
       <c r="B125">
         <v>0</v>
       </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
       <c r="D125">
         <v>0</v>
       </c>
@@ -3700,6 +3787,9 @@
       <c r="B138">
         <v>524.00322866700003</v>
       </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
       <c r="D138">
         <v>251565.84078200001</v>
       </c>
@@ -3725,6 +3815,9 @@
       <c r="B140">
         <v>35662.7719641</v>
       </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
       <c r="D140">
         <v>956050.36865900003</v>
       </c>
@@ -3739,6 +3832,9 @@
       <c r="C141">
         <v>462.22549442299999</v>
       </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -3929,6 +4025,9 @@
       <c r="B155">
         <v>102.852550483</v>
       </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
       <c r="D155">
         <v>22437.9612892</v>
       </c>
@@ -3957,6 +4056,9 @@
       <c r="C157">
         <v>41.047632189799998</v>
       </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
@@ -3965,6 +4067,9 @@
       <c r="B158">
         <v>0</v>
       </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
       <c r="D158">
         <v>8113686.5111800004</v>
       </c>
@@ -3990,6 +4095,9 @@
       <c r="B160">
         <v>9.6255485466199993</v>
       </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
       <c r="D160">
         <v>146.42413086799999</v>
       </c>
@@ -4099,6 +4207,9 @@
       <c r="B168">
         <v>296388.20036399999</v>
       </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
       <c r="D168">
         <v>2591898.5898600002</v>
       </c>
@@ -4110,6 +4221,9 @@
       <c r="B169">
         <v>204043.94253100001</v>
       </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
       <c r="D169">
         <v>1851179.7090799999</v>
       </c>
@@ -4135,6 +4249,9 @@
       <c r="B171">
         <v>0</v>
       </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
       <c r="D171">
         <v>0</v>
       </c>
@@ -4146,6 +4263,9 @@
       <c r="B172">
         <v>1457.0786867899999</v>
       </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
       <c r="D172">
         <v>18377.519857399999</v>
       </c>
@@ -4157,6 +4277,9 @@
       <c r="B173">
         <v>172577.353187</v>
       </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
       <c r="D173">
         <v>852784.24338100001</v>
       </c>
@@ -4182,6 +4305,9 @@
       <c r="B175">
         <v>823.00630871099997</v>
       </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
       <c r="D175">
         <v>131887.99266300001</v>
       </c>
@@ -4224,6 +4350,9 @@
       <c r="C178">
         <v>0.35456875315899999</v>
       </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
@@ -4372,6 +4501,9 @@
       <c r="B189">
         <v>208980.73533200001</v>
       </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
       <c r="D189">
         <v>4841208.1883199997</v>
       </c>
@@ -4523,6 +4655,9 @@
       <c r="B200">
         <v>92344.257833299998</v>
       </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
       <c r="D200">
         <v>945326.76706400001</v>
       </c>
@@ -4688,6 +4823,9 @@
       <c r="B212">
         <v>0.89238899280600004</v>
       </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
       <c r="D212">
         <v>81.386087482999997</v>
       </c>
@@ -4741,6 +4879,9 @@
       <c r="B216">
         <v>0</v>
       </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
       <c r="D216">
         <v>0</v>
       </c>
@@ -4766,6 +4907,9 @@
       <c r="B218">
         <v>55242.597524299999</v>
       </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
       <c r="D218">
         <v>18703558.5693</v>
       </c>
@@ -4791,6 +4935,9 @@
       <c r="B220">
         <v>30253.637288499998</v>
       </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
       <c r="D220">
         <v>504130.80246500002</v>
       </c>
@@ -4847,6 +4994,9 @@
       <c r="C224">
         <v>153.41137263300001</v>
       </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
@@ -4886,6 +5036,9 @@
       <c r="C227">
         <v>437.09958906000003</v>
       </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
@@ -4967,6 +5120,9 @@
       <c r="C233">
         <v>1.6319235327899999</v>
       </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
@@ -4992,6 +5148,9 @@
       <c r="C235">
         <v>766.488387536</v>
       </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
@@ -5014,6 +5173,9 @@
       <c r="B237">
         <v>32182.808194000001</v>
       </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
       <c r="D237">
         <v>439499.08607999998</v>
       </c>
@@ -5056,6 +5218,9 @@
       <c r="C240">
         <v>5155.2865042499998</v>
       </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
@@ -5109,6 +5274,9 @@
       <c r="C244">
         <v>51.656090575599997</v>
       </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
@@ -5117,6 +5285,9 @@
       <c r="B245">
         <v>14397.0703973</v>
       </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
       <c r="D245">
         <v>493938.914284</v>
       </c>
@@ -5170,6 +5341,9 @@
       <c r="B249">
         <v>16221.6434869</v>
       </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
       <c r="D249">
         <v>544055.60395400005</v>
       </c>
@@ -5240,6 +5414,9 @@
       <c r="C254">
         <v>174.18658403500001</v>
       </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
@@ -5248,6 +5425,9 @@
       <c r="B255">
         <v>8749.6101835299996</v>
       </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
       <c r="D255">
         <v>97751.212637499993</v>
       </c>
@@ -5385,6 +5565,9 @@
       <c r="B265">
         <v>13291.0405307</v>
       </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
       <c r="D265">
         <v>2063208.7606500001</v>
       </c>
@@ -5508,6 +5691,9 @@
       <c r="B274">
         <v>15761.982949900001</v>
       </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
       <c r="D274">
         <v>1920145.52562</v>
       </c>
@@ -5547,6 +5733,9 @@
       <c r="B277">
         <v>2339.4758044700002</v>
       </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
       <c r="D277">
         <v>220601.32110299999</v>
       </c>
@@ -5558,6 +5747,9 @@
       <c r="B278">
         <v>11371.7470352</v>
       </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
       <c r="D278">
         <v>131339.04484399999</v>
       </c>
@@ -5611,6 +5803,9 @@
       <c r="B282">
         <v>74450.374849400003</v>
       </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
       <c r="D282">
         <v>4512895.6957099997</v>
       </c>
@@ -5664,6 +5859,9 @@
       <c r="B286">
         <v>12376.8386264</v>
       </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
       <c r="D286">
         <v>480435.58345199999</v>
       </c>
@@ -5689,6 +5887,9 @@
       <c r="B288">
         <v>22190.284417800001</v>
       </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
       <c r="D288">
         <v>35757.323576700001</v>
       </c>
@@ -5756,6 +5957,9 @@
       <c r="B293">
         <v>224665.33448600001</v>
       </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
       <c r="D293">
         <v>6283365.1375599997</v>
       </c>
@@ -5767,6 +5971,9 @@
       <c r="B294">
         <v>6345.4567016700003</v>
       </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
       <c r="D294">
         <v>743404.19966599997</v>
       </c>
@@ -5806,6 +6013,9 @@
       <c r="B297">
         <v>21772.7149049</v>
       </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
       <c r="D297">
         <v>6297533.3972300002</v>
       </c>
@@ -5862,6 +6072,9 @@
       <c r="C301">
         <v>690.06137702000001</v>
       </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
@@ -5884,6 +6097,9 @@
       <c r="B303">
         <v>35908.6052948</v>
       </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
       <c r="D303">
         <v>9939057.9918099996</v>
       </c>
@@ -5937,6 +6153,9 @@
       <c r="B307">
         <v>27870.0799606</v>
       </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
       <c r="D307">
         <v>1953683.4747599999</v>
       </c>
@@ -5976,6 +6195,9 @@
       <c r="B310">
         <v>1636.1384490600001</v>
       </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
       <c r="D310">
         <v>20518.5747539</v>
       </c>
@@ -6001,6 +6223,9 @@
       <c r="B312">
         <v>450.00782958500002</v>
       </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
       <c r="D312">
         <v>421022.590172</v>
       </c>
@@ -6012,6 +6237,9 @@
       <c r="B313">
         <v>435.02049890500001</v>
       </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
       <c r="D313">
         <v>3165531.4245699998</v>
       </c>
@@ -6037,6 +6265,9 @@
       <c r="B315">
         <v>422.93184582599997</v>
       </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
       <c r="D315">
         <v>25909.021775500001</v>
       </c>
@@ -6160,6 +6391,9 @@
       <c r="B324">
         <v>23391.9572611</v>
       </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
       <c r="D324">
         <v>388004.78066500003</v>
       </c>
@@ -6241,6 +6475,9 @@
       <c r="B330">
         <v>31184.543493699999</v>
       </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
       <c r="D330">
         <v>1018593.8787999999</v>
       </c>
@@ -6265,6 +6502,9 @@
       </c>
       <c r="B332">
         <v>3442.15360659</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
       </c>
       <c r="D332">
         <v>14404825.082599999</v>

--- a/data/ihme-gbd.xlsx
+++ b/data/ihme-gbd.xlsx
@@ -1859,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="F334" sqref="F334"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,6 +1889,9 @@
       <c r="B2">
         <v>71538.760351200006</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
         <v>2793436.6702200002</v>
       </c>
@@ -2123,6 +2126,9 @@
       </c>
       <c r="B19">
         <v>141942.952854</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19">
         <v>1481594.17652</v>

--- a/data/ihme-gbd.xlsx
+++ b/data/ihme-gbd.xlsx
@@ -1042,12 +1042,6 @@
     <t>thislevel</t>
   </si>
   <si>
-    <t>fullcause</t>
-  </si>
-  <si>
-    <t>shortcause</t>
-  </si>
-  <si>
     <t>HIV/AIDS &amp; tuberculosis</t>
   </si>
   <si>
@@ -1055,6 +1049,12 @@
   </si>
   <si>
     <t>TEMP</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
 </sst>
 </file>
@@ -1887,8 +1887,8 @@
   <dimension ref="A1:J335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G324" sqref="G324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,10 +1914,10 @@
         <v>341</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>336</v>
@@ -3793,16 +3793,16 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B135" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E135">
         <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G135" t="s">
         <v>226</v>

--- a/data/ihme-gbd.xlsx
+++ b/data/ihme-gbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <si>
     <t>HIV/AIDS resulting in other diseases</t>
   </si>
@@ -1055,6 +1055,9 @@
   </si>
   <si>
     <t>short</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
 </sst>
 </file>
@@ -1884,4742 +1887,5747 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J335"/>
+  <dimension ref="A1:K335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G324" sqref="G324"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>329</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>71538.760351200006</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>2793436.6702200002</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>120</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>335.91991891100002</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6.5741268745700001</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>280.46185164799999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>56</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1299.25991565</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>14.2001515817</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>35470.346914000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>59</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3205.5234945399998</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>50.305726756200002</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2554.83243752</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>190</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>14612.7412169</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>223.28393227000001</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>808.62363191899999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>192</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8555.1406746800003</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>157.59405691500001</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>298.95829052900001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>99</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>56447.234338900002</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1053.12831351</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>10508.8539621</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>313</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>105265.246031</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>2471218.4148499998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
         <v>257</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>22578.174648799999</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>138.52625955900001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>169526.474972</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
         <v>214</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2341.4109419199999</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>71.621924203800006</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>664.10162930700005</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
         <v>224</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>18559913.783799998</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>303811.85109399998</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>32881049.194499999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>330</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1782.7626544100001</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>54941.9203308</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>250</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>48654.350705500001</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2903.0183889800001</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>65639.100505800001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
         <v>261</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>654.84159577200001</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>6.8728596576800003</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2276.2798704800002</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
         <v>100</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>15821.108124</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>157.04206430799999</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>172996.01371</v>
       </c>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
         <v>264</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1360.5742618100001</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.84235460466900003</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>6197.20412863</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>280</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>141942.952854</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>1481594.17652</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
         <v>170</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5263.8341397300001</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>183.63016340600001</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
         <v>241</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>18952.7691959</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>369.317403528</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>4945.0950460399999</v>
       </c>
     </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G22" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>178</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>138.33828790600001</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2.46080370988</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>276.09932416499998</v>
       </c>
     </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
         <v>116</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>25999.9278939</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>29.770542874099998</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>12452607.629000001</v>
       </c>
     </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G24" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
         <v>283</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>22752.292829000002</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>227892.87499899999</v>
       </c>
     </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
         <v>230</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>183363.12229900001</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3146.9273274500001</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>2002477.9615</v>
       </c>
     </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G26" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
         <v>169</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>6002.3468777799999</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>144.970049937</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>52739.9439442</v>
       </c>
     </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
         <v>284</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>4991.5831607800001</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>415941.23164000001</v>
       </c>
     </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
         <v>282</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>20093.885254600002</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>79029.017135100003</v>
       </c>
     </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
         <v>281</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>42846.178083600003</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>304876.63990000001</v>
       </c>
     </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
         <v>295</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>9528.5589245400006</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>297188.50910199998</v>
       </c>
     </row>
-    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
         <v>279</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>44216.406187400004</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>218599.656644</v>
       </c>
     </row>
-    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
         <v>152</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>10869.6593318</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>435.80812446099998</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1167.6481003599999</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
         <v>153</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>29461.172381799999</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>627.26175027800002</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>1299.9119377</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
         <v>72</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>100927.114311</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>2709.5832830099998</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>11066.9916524</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
         <v>117</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>5038.1291357299997</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>7.0043576245900005E-2</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>24220.733712599998</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
         <v>275</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1519.02133751</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>52275.875178000002</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
         <v>168</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>17425.006518099999</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>432.13560127300002</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>7853.3296157100003</v>
       </c>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
         <v>161</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2257809.9707300002</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>80333.111087400001</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>1381160.45964</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
         <v>317</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>923.65963041199996</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>3931575.0691</v>
       </c>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
         <v>318</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>7991.6122691500004</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <v>13652403.0474</v>
       </c>
     </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
         <v>310</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>16932.902374599998</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <v>211890.790404</v>
       </c>
     </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
         <v>76</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>1074.07271578</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>5.81918796257</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>15320.0918955</v>
       </c>
     </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
         <v>164</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>650879.46664700005</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>23131.8121168</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>150133.165343</v>
       </c>
     </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G44" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
         <v>73</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>26416.737029299999</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>736.59336951299997</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>3755.9046343700002</v>
       </c>
     </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G45" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
         <v>23</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G46" t="s">
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
         <v>52</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>2051.98247446</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>4.0662416586100001</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>288116.93234399997</v>
       </c>
     </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G47" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
         <v>121</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>303585.14319199999</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>8047.6522877099997</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>1191489.0757800001</v>
       </c>
     </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
         <v>122</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>110021.26331900001</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>3300.54980656</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>478304.05889300001</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
         <v>124</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>57449.154046900003</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>1124.97317651</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>177487.449012</v>
       </c>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
         <v>123</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>35153.148083499997</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>1306.2770988699999</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>179671.77161200001</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
         <v>125</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>100961.577743</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>2315.8522057599998</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>356025.796264</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G52" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
         <v>191</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>2021.8225789799999</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>55.785152793599998</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>435.19222791599998</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G53" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
         <v>193</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>8914.1155679700005</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>226.128717722</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>579.36261577799996</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G54" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
         <v>175</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>180596.87866700001</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>6389.2106463</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>568974.458705</v>
       </c>
     </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G55" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
         <v>174</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>379369.57355600002</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>9922.0349669000007</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>2521497.0942500001</v>
       </c>
     </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G56" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
         <v>233</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>144811.80506899999</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>4085.88482256</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>84162.089525599993</v>
       </c>
     </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G57" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
         <v>236</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>8699.7341744200003</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>286.43485550499997</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>4263.3274094099997</v>
       </c>
     </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G58" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
         <v>234</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>39860.144992000001</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>1275.3092453700001</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>20476.5500937</v>
       </c>
     </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G59" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
         <v>235</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>42903.139178899997</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>1363.8077638300001</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>21972.161937199999</v>
       </c>
     </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G60" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
         <v>237</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>53348.7867234</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>1160.33295785</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>37450.050085299998</v>
       </c>
     </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G61" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
         <v>179</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>85.076242940200004</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>3.5183089725799999</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G62" t="s">
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
         <v>260</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>2277.3074083800002</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>13.0290310618</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>12183.3423124</v>
       </c>
     </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G63" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
         <v>141</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>47759.957368299998</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>1526.8684529699999</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>3353.7009060999999</v>
       </c>
     </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G64" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
         <v>225</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>6588879.1880400004</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>84489.662183499997</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>28836599.662999999</v>
       </c>
     </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G65" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
         <v>285</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>47097.420551099996</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
         <v>390092.07056600001</v>
       </c>
     </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G66" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
         <v>218</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>1616222.9107900001</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>22621.222947999999</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>5954199.5885699997</v>
       </c>
     </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G67" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
         <v>200</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>1160913.9082599999</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>12793.484428</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>700541.166814</v>
       </c>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G68" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
         <v>202</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>454198.24030300003</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>5329.4375199699998</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>159340.65987100001</v>
       </c>
     </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G69" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
         <v>206</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>30024.663833099999</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>241.05873320200001</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>65207.669397600002</v>
       </c>
     </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G70" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
         <v>271</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>156851.338674</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
       <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
         <v>2481004.7178000002</v>
       </c>
     </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G71" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
         <v>85</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>12816.933738899999</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>176.62217622599999</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>46158.057205600002</v>
       </c>
     </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G72" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
         <v>111</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>7646.5647506900004</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
         <v>82479.589874500001</v>
       </c>
     </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G73" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
         <v>110</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>317.040289836</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>6.3948507913799997</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G74" t="s">
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
         <v>78</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>2474.8612561199998</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>80.640268284399994</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>4982.0853921099997</v>
       </c>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G75" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
         <v>112</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>1184.6592513099999</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>0.25649238297499999</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>7123.9100421499998</v>
       </c>
     </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G76" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
         <v>276</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>196199.655134</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
         <v>1091221.1520199999</v>
       </c>
     </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G77" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
         <v>324</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>68024.754032900004</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
         <v>1735353.1348300001</v>
       </c>
     </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G78" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
         <v>119</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>424943.56342999998</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>11067.909845</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>1496582.2921500001</v>
       </c>
     </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G79" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
         <v>118</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>975116.68851799995</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>21413.140631300001</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>15618407.103800001</v>
       </c>
     </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80">
         <v>2949759.23765</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>37084.322147400002</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>2622724.6253</v>
       </c>
     </row>
-    <row r="81" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G81" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
         <v>2</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>458501.17257499998</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>4909.5615661800002</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>591108.22412599996</v>
       </c>
     </row>
-    <row r="82" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G82" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
         <v>208</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>46031.080189300003</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>518.06365506199995</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>41935.501480799998</v>
       </c>
     </row>
-    <row r="83" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G83" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
         <v>238</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>186894.669716</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>4079.3138233700001</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>1037347.53417</v>
       </c>
     </row>
-    <row r="84" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G84" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
         <v>16</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>1261.09676313</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>16.972116677700001</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>6.8200222846300003</v>
       </c>
     </row>
-    <row r="85" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G85" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
         <v>204</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>21909.968842599999</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>249.98930895300001</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>17453.545274100001</v>
       </c>
     </row>
-    <row r="86" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G86" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
         <v>92</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>220862.03361400001</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>3226.7958119199998</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>12418.1808833</v>
       </c>
     </row>
-    <row r="87" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G87" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
         <v>258</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>123697.588557</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>267.90352092000001</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>335347.10333999997</v>
       </c>
     </row>
-    <row r="88" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G88" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
         <v>221</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>596.84233433700001</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>10.9367514594</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>18.3408515309</v>
       </c>
     </row>
-    <row r="89" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G89" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
         <v>212</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>442280.54612100002</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>11529.085918000001</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>18705.071327400001</v>
       </c>
     </row>
-    <row r="90" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G90" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
         <v>278</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>23622.301947200001</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
       <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
         <v>249241.47640700001</v>
       </c>
     </row>
-    <row r="91" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G91" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
         <v>263</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>6398.7033975300001</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>0.91239818091400005</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>32181.066670600001</v>
       </c>
     </row>
-    <row r="92" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G92" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
         <v>189</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G93" t="s">
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
         <v>320</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>18639.214696700001</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
       <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
         <v>686461.208185</v>
       </c>
     </row>
-    <row r="94" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G94" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
         <v>15</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>25854.627486500001</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>266.96967024100002</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>84788.164711000005</v>
       </c>
     </row>
-    <row r="95" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G95" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
         <v>172</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>6364.8385905599998</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>201.39070901700001</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>817.72554426800002</v>
       </c>
     </row>
-    <row r="96" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G96" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
         <v>195</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>54676.224040699999</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>777.49070613699996</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>388254.659407</v>
       </c>
     </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G97" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
         <v>133</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>518.03415239000003</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>0.19041999690299999</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>5368.7438511600003</v>
       </c>
     </row>
-    <row r="98" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G98" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
         <v>188</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>33314.680353099997</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>447.47455871099999</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>197843.35913699999</v>
       </c>
     </row>
-    <row r="99" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G99" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
         <v>252</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>95820.963734399993</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>996.53714334899996</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>81796.485646300003</v>
       </c>
     </row>
-    <row r="100" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G100" t="s">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
         <v>63</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>14932.548384199999</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>524.086267969</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>438.63513992100002</v>
       </c>
     </row>
-    <row r="101" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G101" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
         <v>211</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>480.81101881400002</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>7.2547248123600001</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>2838.4626842799998</v>
       </c>
     </row>
-    <row r="102" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G102" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
         <v>186</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>2627.5404634800002</v>
       </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
       <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
         <v>52612.959657500003</v>
       </c>
     </row>
-    <row r="103" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G103" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
         <v>95</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>155127.12993200001</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>2396.73226342</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>451135.07857499999</v>
       </c>
     </row>
-    <row r="104" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G104" t="s">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
         <v>223</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>13.273540135599999</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>0.24606068515000001</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>5.6722232893599997E-2</v>
       </c>
     </row>
-    <row r="105" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G105" t="s">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
         <v>220</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>7777.8860345200001</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>205.16772311700001</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>45.902971797799999</v>
       </c>
     </row>
-    <row r="106" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G106" t="s">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
         <v>91</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>309869.34237999999</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>3976.3898156300002</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>1123166.37797</v>
       </c>
     </row>
-    <row r="107" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G107" t="s">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
         <v>297</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>496.34131995000001</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
       <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
         <v>80749.652567900004</v>
       </c>
     </row>
-    <row r="108" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G108" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
         <v>93</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>41508.311653600002</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>580.99062126900003</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>219155.83869599999</v>
       </c>
     </row>
-    <row r="109" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G109" t="s">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
         <v>267</v>
       </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G110" t="s">
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
         <v>185</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>1619331.2622799999</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>22628.4776728</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>6009651.0109099997</v>
       </c>
     </row>
-    <row r="111" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G111" t="s">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
         <v>103</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>39137.951312999998</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>455.36979426200003</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>181603.825858</v>
       </c>
     </row>
-    <row r="112" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G112" t="s">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
         <v>287</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>697.85787443900006</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
       <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
         <v>12111.5701936</v>
       </c>
     </row>
-    <row r="113" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G113" t="s">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
         <v>105</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>16904.5684707</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>197.754905073</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>108285.2582</v>
       </c>
     </row>
-    <row r="114" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G114" t="s">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
         <v>327</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>10755.83755</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
         <v>1912936.5309599999</v>
       </c>
     </row>
-    <row r="115" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G115" t="s">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
         <v>139</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>5903.0728716499998</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>138.37162476399999</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>1449028.0299</v>
       </c>
     </row>
-    <row r="116" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G116" t="s">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
         <v>290</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>2.39754365751</v>
       </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
       <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
         <v>4403269.0452699997</v>
       </c>
     </row>
-    <row r="117" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G117" t="s">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
         <v>246</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>9776.5558892000008</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>332.85468558899998</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>38005.163661799997</v>
       </c>
     </row>
-    <row r="118" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G118" t="s">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
         <v>145</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>9641.6174283300006</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>357.17661166200003</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>200.603019004</v>
       </c>
     </row>
-    <row r="119" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G119" t="s">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="H119" t="s">
         <v>240</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>6120.1243665800002</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>24.047567267400002</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>255778.397153</v>
       </c>
     </row>
-    <row r="120" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G120" t="s">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
         <v>308</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>570.18698499699997</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
       <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
         <v>2155756.45836</v>
       </c>
     </row>
-    <row r="121" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G121" t="s">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="H121" t="s">
         <v>134</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>2892.3283243199999</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>0.80178703764199999</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>934864.24631800002</v>
       </c>
     </row>
-    <row r="122" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G122" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="H122" t="s">
         <v>309</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>1588.47887393</v>
       </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
       <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
         <v>15258.921703800001</v>
       </c>
     </row>
-    <row r="123" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G123" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="H123" t="s">
         <v>53</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>9822.5763700999996</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>10.8776687136</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>734823.75524900004</v>
       </c>
     </row>
-    <row r="124" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G124" t="s">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
         <v>305</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>1768.87948422</v>
       </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
       <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
         <v>57177.589740700001</v>
       </c>
     </row>
-    <row r="125" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G125" t="s">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
         <v>302</v>
       </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G126" t="s">
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="H126" t="s">
         <v>130</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>39385.011458300003</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>21.3265078823</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>3154513.1329899998</v>
       </c>
     </row>
-    <row r="127" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G127" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
         <v>12</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>56799.922106799997</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>686.29214858399996</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>24927.580506599999</v>
       </c>
     </row>
-    <row r="128" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G128" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="H128" t="s">
         <v>136</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>130558.486856</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>1226.0690356800001</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>12411151.8204</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G129" t="s">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="H129" t="s">
         <v>42</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>69533.622467599998</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>693.92363457800002</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>28752.646183500001</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G130" t="s">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="H130" t="s">
         <v>166</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>412503.45444</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>13108.120278599999</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>26637.688923400001</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G131" t="s">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="H131" t="s">
         <v>55</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>18218.0170908</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>384.97145030799999</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>2976914.1442200001</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G132" t="s">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="H132" t="s">
         <v>57</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>13521.723518299999</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>315.378445763</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>2731580.2086399999</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G133" t="s">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
         <v>58</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>191.510162385</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>5.0871262072599999</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>207308.75623</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G134" t="s">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
         <v>228</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>8953.8136729599992</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>159.16499282199999</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>3591.7607969699998</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
         <v>343</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>344</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>2</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>342</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>226</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>542776.77780799998</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>14096.070802300001</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>8955208.6351699997</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G136" t="s">
-        <v>0</v>
-      </c>
-      <c r="H136">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="H136" t="s">
+        <v>0</v>
+      </c>
+      <c r="I136">
         <v>8200.8511406800008</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>145.341814505</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>3571.7561097100001</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G137" t="s">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="H137" t="s">
         <v>156</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>21240.905580999999</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>444.74711037999998</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>1079.3666101700001</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G138" t="s">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="H138" t="s">
         <v>266</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>524.00322866700003</v>
       </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
       <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
         <v>251565.84078200001</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G139" t="s">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
         <v>167</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>51764.687521</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>1857.13182147</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>19859.586840600001</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G140" t="s">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
         <v>286</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>35662.7719641</v>
       </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
       <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
         <v>956050.36865900003</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G141" t="s">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="H141" t="s">
         <v>35</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>26113.3914076</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>462.22549442299999</v>
       </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G142" t="s">
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="H142" t="s">
         <v>244</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>3246.6209968500002</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>67.3520515668</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>2303.1107170800001</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G143" t="s">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
         <v>243</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>24477.930004999998</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>117.549379488</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>505490.78293599997</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G144" t="s">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="H144" t="s">
         <v>81</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>4018019.26449</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>60844.5284933</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>10384226.3222</v>
       </c>
     </row>
-    <row r="145" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G145" t="s">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="H145" t="s">
         <v>181</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>370189.40234899998</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>6267.4940566699997</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>882962.59516599996</v>
       </c>
     </row>
-    <row r="146" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G146" t="s">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="H146" t="s">
         <v>231</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>5828.2926645500002</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>205.06308477600001</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>5064.3090882899996</v>
       </c>
     </row>
-    <row r="147" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G147" t="s">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="H147" t="s">
         <v>127</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>3469.1279406100002</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>87.962703111600007</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>26292.614486900002</v>
       </c>
     </row>
-    <row r="148" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G148" t="s">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="H148" t="s">
         <v>3</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>30791.725577699999</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>435.83488859300002</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>1569.28882946</v>
       </c>
     </row>
-    <row r="149" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G149" t="s">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="H149" t="s">
         <v>115</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>26958.9516215</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>29.770542874099998</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>15283763.6318</v>
       </c>
     </row>
-    <row r="150" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G150" t="s">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="H150" t="s">
         <v>46</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>27240.383933900001</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>11.762396215500001</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>1000288.06829</v>
       </c>
     </row>
-    <row r="151" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G151" t="s">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="H151" t="s">
         <v>47</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>127494.88746699999</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>4.4266681950200004</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>4782662.5438099997</v>
       </c>
     </row>
-    <row r="152" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G152" t="s">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="H152" t="s">
         <v>163</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>1370184.8285600001</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>50810.910557000003</v>
       </c>
-      <c r="J152">
+      <c r="K152">
         <v>635710.97274799994</v>
       </c>
     </row>
-    <row r="153" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G153" t="s">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="H153" t="s">
         <v>165</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>238376.01220600001</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>10023.6918381</v>
       </c>
-      <c r="J153">
+      <c r="K153">
         <v>129437.64702</v>
       </c>
     </row>
-    <row r="154" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G154" t="s">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="H154" t="s">
         <v>151</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>4742.1152904999999</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>127.692151882</v>
       </c>
-      <c r="J154">
+      <c r="K154">
         <v>869.080481061</v>
       </c>
     </row>
-    <row r="155" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G155" t="s">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="H155" t="s">
         <v>323</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>102.852550483</v>
       </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
       <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
         <v>22437.9612892</v>
       </c>
     </row>
-    <row r="156" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G156" t="s">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="H156" t="s">
         <v>70</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>10310.690035699999</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>341.04431326700001</v>
       </c>
-      <c r="J156">
+      <c r="K156">
         <v>770.97487800199997</v>
       </c>
     </row>
-    <row r="157" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G157" t="s">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="H157" t="s">
         <v>36</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>2283.3783681700002</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>41.047632189799998</v>
       </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G158" t="s">
+      <c r="K157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="H158" t="s">
         <v>294</v>
       </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
         <v>8113686.5111800004</v>
       </c>
     </row>
-    <row r="159" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G159" t="s">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="H159" t="s">
         <v>24</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>157017.466827</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>4.0284102378100002</v>
       </c>
-      <c r="J159">
+      <c r="K159">
         <v>2718087.5842499998</v>
       </c>
     </row>
-    <row r="160" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G160" t="s">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="H160" t="s">
         <v>292</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>9.6255485466199993</v>
       </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
       <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
         <v>146.42413086799999</v>
       </c>
     </row>
-    <row r="161" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G161" t="s">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="H161" t="s">
         <v>159</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>98610.569772200004</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>2021.79755368</v>
       </c>
-      <c r="J161">
+      <c r="K161">
         <v>7325.5150358499995</v>
       </c>
     </row>
-    <row r="162" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G162" t="s">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="H162" t="s">
         <v>142</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <v>4959.75579853</v>
       </c>
-      <c r="I162">
+      <c r="J162">
         <v>160.52075990099999</v>
       </c>
-      <c r="J162">
+      <c r="K162">
         <v>709.77934934300004</v>
       </c>
     </row>
-    <row r="163" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G163" t="s">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="H163" t="s">
         <v>65</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <v>22324.745978800001</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>838.73599325099997</v>
       </c>
-      <c r="J163">
+      <c r="K163">
         <v>242.00776273599999</v>
       </c>
     </row>
-    <row r="164" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G164" t="s">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="H164" t="s">
         <v>68</v>
       </c>
-      <c r="H164">
+      <c r="I164">
         <v>1513.2181371300001</v>
       </c>
-      <c r="I164">
+      <c r="J164">
         <v>62.536509790099998</v>
       </c>
-      <c r="J164">
+      <c r="K164">
         <v>38.151275364200004</v>
       </c>
     </row>
-    <row r="165" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G165" t="s">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="H165" t="s">
         <v>66</v>
       </c>
-      <c r="H165">
+      <c r="I165">
         <v>8903.0958899899997</v>
       </c>
-      <c r="I165">
+      <c r="J165">
         <v>301.45556965899999</v>
       </c>
-      <c r="J165">
+      <c r="K165">
         <v>194.48112329400001</v>
       </c>
     </row>
-    <row r="166" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G166" t="s">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="H166" t="s">
         <v>67</v>
       </c>
-      <c r="H166">
+      <c r="I166">
         <v>6384.2384152499999</v>
       </c>
-      <c r="I166">
+      <c r="J166">
         <v>277.83059785099999</v>
       </c>
-      <c r="J166">
+      <c r="K166">
         <v>169.55583971600001</v>
       </c>
     </row>
-    <row r="167" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G167" t="s">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="H167" t="s">
         <v>69</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <v>5524.19353641</v>
       </c>
-      <c r="I167">
+      <c r="J167">
         <v>196.91331595099999</v>
       </c>
-      <c r="J167">
+      <c r="K167">
         <v>123.754280178</v>
       </c>
     </row>
-    <row r="168" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G168" t="s">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="H168" t="s">
         <v>300</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>296388.20036399999</v>
       </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
       <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
         <v>2591898.5898600002</v>
       </c>
     </row>
-    <row r="169" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G169" t="s">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="H169" t="s">
         <v>301</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>204043.94253100001</v>
       </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
       <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
         <v>1851179.7090799999</v>
       </c>
     </row>
-    <row r="170" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G170" t="s">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="H170" t="s">
         <v>7</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <v>1469864.5043599999</v>
       </c>
-      <c r="I170">
+      <c r="J170">
         <v>20136.641518600001</v>
       </c>
-      <c r="J170">
+      <c r="K170">
         <v>64595.163507600002</v>
       </c>
     </row>
-    <row r="171" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G171" t="s">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="H171" t="s">
         <v>272</v>
       </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
       <c r="I171">
         <v>0</v>
       </c>
       <c r="J171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G172" t="s">
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="H172" t="s">
         <v>311</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <v>1457.0786867899999</v>
       </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
       <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
         <v>18377.519857399999</v>
       </c>
     </row>
-    <row r="173" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G173" t="s">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="H173" t="s">
         <v>277</v>
       </c>
-      <c r="H173">
+      <c r="I173">
         <v>172577.353187</v>
       </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
       <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
         <v>852784.24338100001</v>
       </c>
     </row>
-    <row r="174" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G174" t="s">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="H174" t="s">
         <v>22</v>
       </c>
-      <c r="H174">
+      <c r="I174">
         <v>132939.57167599999</v>
       </c>
-      <c r="I174">
+      <c r="J174">
         <v>2146.1401597399999</v>
       </c>
-      <c r="J174">
+      <c r="K174">
         <v>23877.313263399999</v>
       </c>
     </row>
-    <row r="175" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G175" t="s">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="H175" t="s">
         <v>296</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>823.00630871099997</v>
       </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
       <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
         <v>131887.99266300001</v>
       </c>
     </row>
-    <row r="176" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G176" t="s">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="H176" t="s">
         <v>147</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>1672.91303283</v>
       </c>
-      <c r="I176">
+      <c r="J176">
         <v>46.615480651600002</v>
       </c>
-      <c r="J176">
+      <c r="K176">
         <v>136.24245698999999</v>
       </c>
     </row>
-    <row r="177" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G177" t="s">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="H177" t="s">
         <v>34</v>
       </c>
-      <c r="H177">
+      <c r="I177">
         <v>10702.874832</v>
       </c>
-      <c r="I177">
+      <c r="J177">
         <v>197.28898791699999</v>
       </c>
-      <c r="J177">
+      <c r="K177">
         <v>2077.1244185300002</v>
       </c>
     </row>
-    <row r="178" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G178" t="s">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="H178" t="s">
         <v>187</v>
       </c>
-      <c r="H178">
+      <c r="I178">
         <v>20.133221093300001</v>
       </c>
-      <c r="I178">
+      <c r="J178">
         <v>0.35456875315899999</v>
       </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G179" t="s">
+      <c r="K178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="H179" t="s">
         <v>29</v>
       </c>
-      <c r="H179">
+      <c r="I179">
         <v>287659.32929099997</v>
       </c>
-      <c r="I179">
+      <c r="J179">
         <v>5143.4149883500004</v>
       </c>
-      <c r="J179">
+      <c r="K179">
         <v>48901.770484300003</v>
       </c>
     </row>
-    <row r="180" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G180" t="s">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="H180" t="s">
         <v>30</v>
       </c>
-      <c r="H180">
+      <c r="I180">
         <v>105929.31342400001</v>
       </c>
-      <c r="I180">
+      <c r="J180">
         <v>1939.8166778299999</v>
       </c>
-      <c r="J180">
+      <c r="K180">
         <v>12824.1934762</v>
       </c>
     </row>
-    <row r="181" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G181" t="s">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="H181" t="s">
         <v>32</v>
       </c>
-      <c r="H181">
+      <c r="I181">
         <v>51957.7302872</v>
       </c>
-      <c r="I181">
+      <c r="J181">
         <v>918.65042844200002</v>
       </c>
-      <c r="J181">
+      <c r="K181">
         <v>15471.862870999999</v>
       </c>
     </row>
-    <row r="182" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G182" t="s">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="H182" t="s">
         <v>33</v>
       </c>
-      <c r="H182">
+      <c r="I182">
         <v>17462.001924200002</v>
       </c>
-      <c r="I182">
+      <c r="J182">
         <v>280.77375965800002</v>
       </c>
-      <c r="J182">
+      <c r="K182">
         <v>6767.2052633900003</v>
       </c>
     </row>
-    <row r="183" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G183" t="s">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="H183" t="s">
         <v>31</v>
       </c>
-      <c r="H183">
+      <c r="I183">
         <v>30130.9097182</v>
       </c>
-      <c r="I183">
+      <c r="J183">
         <v>536.76905159499995</v>
       </c>
-      <c r="J183">
+      <c r="K183">
         <v>13778.352880300001</v>
       </c>
     </row>
-    <row r="184" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G184" t="s">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="H184" t="s">
         <v>19</v>
       </c>
-      <c r="H184">
+      <c r="I184">
         <v>57276.535598100003</v>
       </c>
-      <c r="I184">
+      <c r="J184">
         <v>686.61487466599999</v>
       </c>
-      <c r="J184">
+      <c r="K184">
         <v>457.64145434699998</v>
       </c>
     </row>
-    <row r="185" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G185" t="s">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="H185" t="s">
         <v>10</v>
       </c>
-      <c r="H185">
+      <c r="I185">
         <v>575559.29357099999</v>
       </c>
-      <c r="I185">
+      <c r="J185">
         <v>7301.7115914200003</v>
       </c>
-      <c r="J185">
+      <c r="K185">
         <v>97965.740933299996</v>
       </c>
     </row>
-    <row r="186" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G186" t="s">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="H186" t="s">
         <v>13</v>
       </c>
-      <c r="H186">
+      <c r="I186">
         <v>221993.704474</v>
       </c>
-      <c r="I186">
+      <c r="J186">
         <v>2861.44482801</v>
       </c>
-      <c r="J186">
+      <c r="K186">
         <v>17952.873648199999</v>
       </c>
     </row>
-    <row r="187" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G187" t="s">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="H187" t="s">
         <v>256</v>
       </c>
-      <c r="H187">
+      <c r="I187">
         <v>720004.52714999998</v>
       </c>
-      <c r="I187">
+      <c r="J187">
         <v>407.34217866</v>
       </c>
-      <c r="J187">
+      <c r="K187">
         <v>5311698.1551000001</v>
       </c>
     </row>
-    <row r="188" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G188" t="s">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="H188" t="s">
         <v>155</v>
       </c>
-      <c r="H188">
+      <c r="I188">
         <v>2406.2644456899998</v>
       </c>
-      <c r="I188">
+      <c r="J188">
         <v>74.744124226500006</v>
       </c>
-      <c r="J188">
+      <c r="K188">
         <v>112.153483912</v>
       </c>
     </row>
-    <row r="189" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G189" t="s">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="H189" t="s">
         <v>268</v>
       </c>
-      <c r="H189">
+      <c r="I189">
         <v>208980.73533200001</v>
       </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
       <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
         <v>4841208.1883199997</v>
       </c>
     </row>
-    <row r="190" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G190" t="s">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="H190" t="s">
         <v>254</v>
       </c>
-      <c r="H190">
+      <c r="I190">
         <v>1689.1605582100001</v>
       </c>
-      <c r="I190">
+      <c r="J190">
         <v>37.343795429899998</v>
       </c>
-      <c r="J190">
+      <c r="K190">
         <v>517.08627521999995</v>
       </c>
     </row>
-    <row r="191" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G191" t="s">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="H191" t="s">
         <v>87</v>
       </c>
-      <c r="H191">
+      <c r="I191">
         <v>552537.48858200002</v>
       </c>
-      <c r="I191">
+      <c r="J191">
         <v>9646.7198265499992</v>
       </c>
-      <c r="J191">
+      <c r="K191">
         <v>138236.57570300001</v>
       </c>
     </row>
-    <row r="192" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G192" t="s">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="H192" t="s">
         <v>86</v>
       </c>
-      <c r="H192">
+      <c r="I192">
         <v>81583.860301499997</v>
       </c>
-      <c r="I192">
+      <c r="J192">
         <v>1302.51917114</v>
       </c>
-      <c r="J192">
+      <c r="K192">
         <v>50879.616740199999</v>
       </c>
     </row>
-    <row r="193" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G193" t="s">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="H193" t="s">
         <v>222</v>
       </c>
-      <c r="H193">
+      <c r="I193">
         <v>142.84665781000001</v>
       </c>
-      <c r="I193">
+      <c r="J193">
         <v>2.6403661723199998</v>
       </c>
-      <c r="J193">
+      <c r="K193">
         <v>1.60711349367</v>
       </c>
     </row>
-    <row r="194" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G194" t="s">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="H194" t="s">
         <v>219</v>
       </c>
-      <c r="H194">
+      <c r="I194">
         <v>83764.531979599997</v>
       </c>
-      <c r="I194">
+      <c r="J194">
         <v>2202.6521684300001</v>
       </c>
-      <c r="J194">
+      <c r="K194">
         <v>1300.59015479</v>
       </c>
     </row>
-    <row r="195" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G195" t="s">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="H195" t="s">
         <v>158</v>
       </c>
-      <c r="H195">
+      <c r="I195">
         <v>5119.6773772500001</v>
       </c>
-      <c r="I195">
+      <c r="J195">
         <v>173.41621648899999</v>
       </c>
-      <c r="J195">
+      <c r="K195">
         <v>200.42020759299999</v>
       </c>
     </row>
-    <row r="196" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G196" t="s">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="H196" t="s">
         <v>253</v>
       </c>
-      <c r="H196">
+      <c r="I196">
         <v>4379.8575549500001</v>
       </c>
-      <c r="I196">
+      <c r="J196">
         <v>64.388826262099997</v>
       </c>
-      <c r="J196">
+      <c r="K196">
         <v>6296.8718286900003</v>
       </c>
     </row>
-    <row r="197" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G197" t="s">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="H197" t="s">
         <v>196</v>
       </c>
-      <c r="H197">
+      <c r="I197">
         <v>433806.26766900002</v>
       </c>
-      <c r="I197">
+      <c r="J197">
         <v>235.097688027</v>
       </c>
-      <c r="J197">
+      <c r="K197">
         <v>3773242.3337699999</v>
       </c>
     </row>
-    <row r="198" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G198" t="s">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="H198" t="s">
         <v>215</v>
       </c>
-      <c r="H198">
+      <c r="I198">
         <v>4126.9748449099998</v>
       </c>
-      <c r="I198">
+      <c r="J198">
         <v>75.751480498500001</v>
       </c>
-      <c r="J198">
+      <c r="K198">
         <v>5451.2901334799999</v>
       </c>
     </row>
-    <row r="199" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G199" t="s">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="H199" t="s">
         <v>143</v>
       </c>
-      <c r="H199">
+      <c r="I199">
         <v>6085.7298441299999</v>
       </c>
-      <c r="I199">
+      <c r="J199">
         <v>161.592319788</v>
       </c>
-      <c r="J199">
+      <c r="K199">
         <v>602.70022818100006</v>
       </c>
     </row>
-    <row r="200" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G200" t="s">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="H200" t="s">
         <v>304</v>
       </c>
-      <c r="H200">
+      <c r="I200">
         <v>92344.257833299998</v>
       </c>
-      <c r="I200">
-        <v>0</v>
-      </c>
       <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
         <v>945326.76706400001</v>
       </c>
     </row>
-    <row r="201" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G201" t="s">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="H201" t="s">
         <v>21</v>
       </c>
-      <c r="H201">
+      <c r="I201">
         <v>335594.51910400001</v>
       </c>
-      <c r="I201">
+      <c r="J201">
         <v>2198.0652371699998</v>
       </c>
-      <c r="J201">
+      <c r="K201">
         <v>16465406.3796</v>
       </c>
     </row>
-    <row r="202" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G202" t="s">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="H202" t="s">
         <v>38</v>
       </c>
-      <c r="H202">
+      <c r="I202">
         <v>2008137.04128</v>
       </c>
-      <c r="I202">
+      <c r="J202">
         <v>22445.3783893</v>
       </c>
-      <c r="J202">
+      <c r="K202">
         <v>413030.18511000002</v>
       </c>
     </row>
-    <row r="203" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G203" t="s">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="H203" t="s">
         <v>40</v>
       </c>
-      <c r="H203">
+      <c r="I203">
         <v>276304.20568299998</v>
       </c>
-      <c r="I203">
+      <c r="J203">
         <v>3120.7780566599999</v>
       </c>
-      <c r="J203">
+      <c r="K203">
         <v>69561.695189000005</v>
       </c>
     </row>
-    <row r="204" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G204" t="s">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="H204" t="s">
         <v>39</v>
       </c>
-      <c r="H204">
+      <c r="I204">
         <v>849565.21893099998</v>
       </c>
-      <c r="I204">
+      <c r="J204">
         <v>9502.8778080499997</v>
       </c>
-      <c r="J204">
+      <c r="K204">
         <v>315236.870047</v>
       </c>
     </row>
-    <row r="205" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G205" t="s">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="H205" t="s">
         <v>41</v>
       </c>
-      <c r="H205">
+      <c r="I205">
         <v>362621.077919</v>
       </c>
-      <c r="I205">
+      <c r="J205">
         <v>3972.5123857600001</v>
       </c>
-      <c r="J205">
+      <c r="K205">
         <v>44130.680511899998</v>
       </c>
     </row>
-    <row r="206" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G206" t="s">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="H206" t="s">
         <v>62</v>
       </c>
-      <c r="H206">
+      <c r="I206">
         <v>692985.41297299997</v>
       </c>
-      <c r="I206">
+      <c r="J206">
         <v>20048.197601299998</v>
       </c>
-      <c r="J206">
+      <c r="K206">
         <v>31932.714579700001</v>
       </c>
     </row>
-    <row r="207" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G207" t="s">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="H207" t="s">
         <v>201</v>
       </c>
-      <c r="H207">
+      <c r="I207">
         <v>159431.42095100001</v>
       </c>
-      <c r="I207">
+      <c r="J207">
         <v>1718.6739316999999</v>
       </c>
-      <c r="J207">
+      <c r="K207">
         <v>45136.216537300003</v>
       </c>
     </row>
-    <row r="208" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G208" t="s">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="H208" t="s">
         <v>249</v>
       </c>
-      <c r="H208">
+      <c r="I208">
         <v>416464.30702499999</v>
       </c>
-      <c r="I208">
+      <c r="J208">
         <v>4314.8070750099996</v>
       </c>
-      <c r="J208">
+      <c r="K208">
         <v>12571058.529999999</v>
       </c>
     </row>
-    <row r="209" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G209" t="s">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="H209" t="s">
         <v>61</v>
       </c>
-      <c r="H209">
+      <c r="I209">
         <v>7953015.3312299997</v>
       </c>
-      <c r="I209">
+      <c r="J209">
         <v>158477.66041700001</v>
       </c>
-      <c r="J209">
+      <c r="K209">
         <v>30348596.441399999</v>
       </c>
     </row>
-    <row r="210" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G210" t="s">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="H210" t="s">
         <v>157</v>
       </c>
-      <c r="H210">
+      <c r="I210">
         <v>21727.5032799</v>
       </c>
-      <c r="I210">
+      <c r="J210">
         <v>555.94985608900004</v>
       </c>
-      <c r="J210">
+      <c r="K210">
         <v>1246.52458194</v>
       </c>
     </row>
-    <row r="211" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G211" t="s">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="H211" t="s">
         <v>148</v>
       </c>
-      <c r="H211">
+      <c r="I211">
         <v>2467.5319009499999</v>
       </c>
-      <c r="I211">
+      <c r="J211">
         <v>85.677519378599996</v>
       </c>
-      <c r="J211">
+      <c r="K211">
         <v>137.17624586400001</v>
       </c>
     </row>
-    <row r="212" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G212" t="s">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="H212" t="s">
         <v>291</v>
       </c>
-      <c r="H212">
+      <c r="I212">
         <v>0.89238899280600004</v>
       </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
       <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
         <v>81.386087482999997</v>
       </c>
     </row>
-    <row r="213" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G213" t="s">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="H213" t="s">
         <v>194</v>
       </c>
-      <c r="H213">
+      <c r="I213">
         <v>2466.6395119600002</v>
       </c>
-      <c r="I213">
+      <c r="J213">
         <v>85.677519378599996</v>
       </c>
-      <c r="J213">
+      <c r="K213">
         <v>115.23997916899999</v>
       </c>
     </row>
-    <row r="214" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G214" t="s">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="H214" t="s">
         <v>102</v>
       </c>
-      <c r="H214">
+      <c r="I214">
         <v>7456.2144051499999</v>
       </c>
-      <c r="I214">
+      <c r="J214">
         <v>86.672054315699995</v>
       </c>
-      <c r="J214">
+      <c r="K214">
         <v>115748.967559</v>
       </c>
     </row>
-    <row r="215" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G215" t="s">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="H215" t="s">
         <v>44</v>
       </c>
-      <c r="H215">
+      <c r="I215">
         <v>219254.55494100001</v>
       </c>
-      <c r="I215">
+      <c r="J215">
         <v>636.36251970399996</v>
       </c>
-      <c r="J215">
+      <c r="K215">
         <v>17774733.931400001</v>
       </c>
     </row>
-    <row r="216" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G216" t="s">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="H216" t="s">
         <v>273</v>
       </c>
-      <c r="H216">
-        <v>0</v>
-      </c>
       <c r="I216">
         <v>0</v>
       </c>
       <c r="J216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G217" t="s">
+      <c r="K216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="H217" t="s">
         <v>259</v>
       </c>
-      <c r="H217">
+      <c r="I217">
         <v>114656.756989</v>
       </c>
-      <c r="I217">
+      <c r="J217">
         <v>195.835846382</v>
       </c>
-      <c r="J217">
+      <c r="K217">
         <v>258338.032037</v>
       </c>
     </row>
-    <row r="218" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G218" t="s">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="H218" t="s">
         <v>316</v>
       </c>
-      <c r="H218">
+      <c r="I218">
         <v>55242.597524299999</v>
       </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
       <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
         <v>18703558.5693</v>
       </c>
     </row>
-    <row r="219" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G219" t="s">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="H219" t="s">
         <v>203</v>
       </c>
-      <c r="H219">
+      <c r="I219">
         <v>1274.7377284199999</v>
       </c>
-      <c r="I219">
+      <c r="J219">
         <v>11.073177494399999</v>
       </c>
-      <c r="J219">
+      <c r="K219">
         <v>17482.992153800002</v>
       </c>
     </row>
-    <row r="220" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G220" t="s">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="H220" t="s">
         <v>299</v>
       </c>
-      <c r="H220">
+      <c r="I220">
         <v>30253.637288499998</v>
       </c>
-      <c r="I220">
-        <v>0</v>
-      </c>
       <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
         <v>504130.80246500002</v>
       </c>
     </row>
-    <row r="221" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G221" t="s">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="H221" t="s">
         <v>217</v>
       </c>
-      <c r="H221">
+      <c r="I221">
         <v>10956.6207313</v>
       </c>
-      <c r="I221">
+      <c r="J221">
         <v>284.762196571</v>
       </c>
-      <c r="J221">
+      <c r="K221">
         <v>5734.9787575700002</v>
       </c>
     </row>
-    <row r="222" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G222" t="s">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="H222" t="s">
         <v>173</v>
       </c>
-      <c r="H222">
+      <c r="I222">
         <v>79773.704416199995</v>
       </c>
-      <c r="I222">
+      <c r="J222">
         <v>2082.0168636200001</v>
       </c>
-      <c r="J222">
+      <c r="K222">
         <v>328029.30439900002</v>
       </c>
     </row>
-    <row r="223" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G223" t="s">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="H223" t="s">
         <v>205</v>
       </c>
-      <c r="H223">
+      <c r="I223">
         <v>21529.442395900001</v>
       </c>
-      <c r="I223">
+      <c r="J223">
         <v>99.049802778</v>
       </c>
-      <c r="J223">
+      <c r="K223">
         <v>140757.65576600001</v>
       </c>
     </row>
-    <row r="224" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G224" t="s">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="H224" t="s">
         <v>232</v>
       </c>
-      <c r="H224">
+      <c r="I224">
         <v>8707.7991275799995</v>
       </c>
-      <c r="I224">
+      <c r="J224">
         <v>153.41137263300001</v>
       </c>
-      <c r="J224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G225" t="s">
+      <c r="K224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="H225" t="s">
         <v>49</v>
       </c>
-      <c r="H225">
+      <c r="I225">
         <v>245697.72797199999</v>
       </c>
-      <c r="I225">
+      <c r="J225">
         <v>2886.0480992799999</v>
       </c>
-      <c r="J225">
+      <c r="K225">
         <v>6472846.81678</v>
       </c>
     </row>
-    <row r="226" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G226" t="s">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="H226" t="s">
         <v>209</v>
       </c>
-      <c r="H226">
+      <c r="I226">
         <v>394345.84873999999</v>
       </c>
-      <c r="I226">
+      <c r="J226">
         <v>4261.5435545999999</v>
       </c>
-      <c r="J226">
+      <c r="K226">
         <v>210904.37624000001</v>
       </c>
     </row>
-    <row r="227" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G227" t="s">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="H227" t="s">
         <v>248</v>
       </c>
-      <c r="H227">
+      <c r="I227">
         <v>20797.343671899998</v>
       </c>
-      <c r="I227">
+      <c r="J227">
         <v>437.09958906000003</v>
       </c>
-      <c r="J227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G228" t="s">
+      <c r="K227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="H228" t="s">
         <v>262</v>
       </c>
-      <c r="H228">
+      <c r="I228">
         <v>4589.6612262099998</v>
       </c>
-      <c r="I228">
+      <c r="J228">
         <v>52.1657838183</v>
       </c>
-      <c r="J228">
+      <c r="K228">
         <v>9372.4437867500001</v>
       </c>
     </row>
-    <row r="229" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G229" t="s">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="H229" t="s">
         <v>98</v>
       </c>
-      <c r="H229">
+      <c r="I229">
         <v>86500.720352400007</v>
       </c>
-      <c r="I229">
+      <c r="J229">
         <v>1376.7776926900001</v>
       </c>
-      <c r="J229">
+      <c r="K229">
         <v>414546.45833499997</v>
       </c>
     </row>
-    <row r="230" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G230" t="s">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="H230" t="s">
         <v>135</v>
       </c>
-      <c r="H230">
+      <c r="I230">
         <v>15934.186161</v>
       </c>
-      <c r="I230">
+      <c r="J230">
         <v>12.863602852</v>
       </c>
-      <c r="J230">
+      <c r="K230">
         <v>447770.87046800001</v>
       </c>
     </row>
-    <row r="231" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G231" t="s">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="H231" t="s">
         <v>140</v>
       </c>
-      <c r="H231">
+      <c r="I231">
         <v>8167.0982869899999</v>
       </c>
-      <c r="I231">
+      <c r="J231">
         <v>144.49685112899999</v>
       </c>
-      <c r="J231">
+      <c r="K231">
         <v>220760.05317</v>
       </c>
     </row>
-    <row r="232" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G232" t="s">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="H232" t="s">
         <v>60</v>
       </c>
-      <c r="H232">
+      <c r="I232">
         <v>27621.973673299999</v>
       </c>
-      <c r="I232">
+      <c r="J232">
         <v>364.16988082799998</v>
       </c>
-      <c r="J232">
+      <c r="K232">
         <v>197844.34349</v>
       </c>
     </row>
-    <row r="233" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G233" t="s">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="H233" t="s">
         <v>6</v>
       </c>
-      <c r="H233">
+      <c r="I233">
         <v>121.43399200899999</v>
       </c>
-      <c r="I233">
+      <c r="J233">
         <v>1.6319235327899999</v>
       </c>
-      <c r="J233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G234" t="s">
+      <c r="K233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="H234" t="s">
         <v>216</v>
       </c>
-      <c r="H234">
+      <c r="I234">
         <v>64506.749733700002</v>
       </c>
-      <c r="I234">
+      <c r="J234">
         <v>1359.0056939799999</v>
       </c>
-      <c r="J234">
+      <c r="K234">
         <v>5203.3782696999997</v>
       </c>
     </row>
-    <row r="235" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G235" t="s">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="H235" t="s">
         <v>37</v>
       </c>
-      <c r="H235">
+      <c r="I235">
         <v>43059.596108700003</v>
       </c>
-      <c r="I235">
+      <c r="J235">
         <v>766.488387536</v>
       </c>
-      <c r="J235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G236" t="s">
+      <c r="K235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="H236" t="s">
         <v>14</v>
       </c>
-      <c r="H236">
+      <c r="I236">
         <v>289419.20777699997</v>
       </c>
-      <c r="I236">
+      <c r="J236">
         <v>3694.4655744800002</v>
       </c>
-      <c r="J236">
+      <c r="K236">
         <v>28041.029923599999</v>
       </c>
     </row>
-    <row r="237" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G237" t="s">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="H237" t="s">
         <v>293</v>
       </c>
-      <c r="H237">
+      <c r="I237">
         <v>32182.808194000001</v>
       </c>
-      <c r="I237">
-        <v>0</v>
-      </c>
       <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
         <v>439499.08607999998</v>
       </c>
     </row>
-    <row r="238" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G238" t="s">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="H238" t="s">
         <v>198</v>
       </c>
-      <c r="H238">
+      <c r="I238">
         <v>87909.506839399997</v>
       </c>
-      <c r="I238">
+      <c r="J238">
         <v>179.459440261</v>
       </c>
-      <c r="J238">
+      <c r="K238">
         <v>923986.495031</v>
       </c>
     </row>
-    <row r="239" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G239" t="s">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="H239" t="s">
         <v>28</v>
       </c>
-      <c r="H239">
+      <c r="I239">
         <v>7621.5152519699996</v>
       </c>
-      <c r="I239">
+      <c r="J239">
         <v>6.5672398266299998</v>
       </c>
-      <c r="J239">
+      <c r="K239">
         <v>261176.937164</v>
       </c>
     </row>
-    <row r="240" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G240" t="s">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="H240" t="s">
         <v>43</v>
       </c>
-      <c r="H240">
+      <c r="I240">
         <v>450112.916279</v>
       </c>
-      <c r="I240">
+      <c r="J240">
         <v>5155.2865042499998</v>
       </c>
-      <c r="J240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G241" t="s">
+      <c r="K240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="H241" t="s">
         <v>160</v>
       </c>
-      <c r="H241">
+      <c r="I241">
         <v>39427.609642000003</v>
       </c>
-      <c r="I241">
+      <c r="J241">
         <v>887.41507240600004</v>
       </c>
-      <c r="J241">
+      <c r="K241">
         <v>2286.7704707299999</v>
       </c>
     </row>
-    <row r="242" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G242" t="s">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="H242" t="s">
         <v>255</v>
       </c>
-      <c r="H242">
+      <c r="I242">
         <v>17594.990607899999</v>
       </c>
-      <c r="I242">
+      <c r="J242">
         <v>130.42141038899999</v>
       </c>
-      <c r="J242">
+      <c r="K242">
         <v>104.263817966</v>
       </c>
     </row>
-    <row r="243" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G243" t="s">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="H243" t="s">
         <v>199</v>
       </c>
-      <c r="H243">
+      <c r="I243">
         <v>1745752.10882</v>
       </c>
-      <c r="I243">
+      <c r="J243">
         <v>13638.7305423</v>
       </c>
-      <c r="J243">
+      <c r="K243">
         <v>24067447.1844</v>
       </c>
     </row>
-    <row r="244" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G244" t="s">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="H244" t="s">
         <v>48</v>
       </c>
-      <c r="H244">
+      <c r="I244">
         <v>2162.03634483</v>
       </c>
-      <c r="I244">
+      <c r="J244">
         <v>51.656090575599997</v>
       </c>
-      <c r="J244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G245" t="s">
+      <c r="K244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="H245" t="s">
         <v>321</v>
       </c>
-      <c r="H245">
+      <c r="I245">
         <v>14397.0703973</v>
       </c>
-      <c r="I245">
-        <v>0</v>
-      </c>
       <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
         <v>493938.914284</v>
       </c>
     </row>
-    <row r="246" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G246" t="s">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="H246" t="s">
         <v>144</v>
       </c>
-      <c r="H246">
+      <c r="I246">
         <v>3382.3718048999999</v>
       </c>
-      <c r="I246">
+      <c r="J246">
         <v>103.72625759899999</v>
       </c>
-      <c r="J246">
+      <c r="K246">
         <v>180.29008742400001</v>
       </c>
     </row>
-    <row r="247" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G247" t="s">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="H247" t="s">
         <v>229</v>
       </c>
-      <c r="H247">
+      <c r="I247">
         <v>418.22737634499998</v>
       </c>
-      <c r="I247">
+      <c r="J247">
         <v>13.7144742684</v>
       </c>
-      <c r="J247">
+      <c r="K247">
         <v>508.75485386700001</v>
       </c>
     </row>
-    <row r="248" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G248" t="s">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="H248" t="s">
         <v>88</v>
       </c>
-      <c r="H248">
+      <c r="I248">
         <v>4296.69474627</v>
       </c>
-      <c r="I248">
+      <c r="J248">
         <v>49.869893011000002</v>
       </c>
-      <c r="J248">
+      <c r="K248">
         <v>24611.390071400001</v>
       </c>
     </row>
-    <row r="249" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G249" t="s">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="H249" t="s">
         <v>315</v>
       </c>
-      <c r="H249">
+      <c r="I249">
         <v>16221.6434869</v>
       </c>
-      <c r="I249">
-        <v>0</v>
-      </c>
       <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
         <v>544055.60395400005</v>
       </c>
     </row>
-    <row r="250" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G250" t="s">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="H250" t="s">
         <v>54</v>
       </c>
-      <c r="H250">
+      <c r="I250">
         <v>6181.1257888299997</v>
       </c>
-      <c r="I250">
+      <c r="J250">
         <v>5.8939840777199999</v>
       </c>
-      <c r="J250">
+      <c r="K250">
         <v>127332.859582</v>
       </c>
     </row>
-    <row r="251" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G251" t="s">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="H251" t="s">
         <v>79</v>
       </c>
-      <c r="H251">
+      <c r="I251">
         <v>6894.8268587800003</v>
       </c>
-      <c r="I251">
+      <c r="J251">
         <v>3.1541604316499998</v>
       </c>
-      <c r="J251">
+      <c r="K251">
         <v>1229665.42576</v>
       </c>
     </row>
-    <row r="252" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G252" t="s">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="H252" t="s">
         <v>89</v>
       </c>
-      <c r="H252">
+      <c r="I252">
         <v>20846.0700321</v>
       </c>
-      <c r="I252">
+      <c r="J252">
         <v>196.23821275</v>
       </c>
-      <c r="J252">
+      <c r="K252">
         <v>137093.57607899999</v>
       </c>
     </row>
-    <row r="253" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G253" t="s">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="H253" t="s">
         <v>106</v>
       </c>
-      <c r="H253">
+      <c r="I253">
         <v>71693.524234500001</v>
       </c>
-      <c r="I253">
+      <c r="J253">
         <v>856.61439636</v>
       </c>
-      <c r="J253">
+      <c r="K253">
         <v>639935.76778500003</v>
       </c>
     </row>
-    <row r="254" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G254" t="s">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="H254" t="s">
         <v>129</v>
       </c>
-      <c r="H254">
+      <c r="I254">
         <v>6934.0454035299999</v>
       </c>
-      <c r="I254">
+      <c r="J254">
         <v>174.18658403500001</v>
       </c>
-      <c r="J254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G255" t="s">
+      <c r="K254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="H255" t="s">
         <v>314</v>
       </c>
-      <c r="H255">
+      <c r="I255">
         <v>8749.6101835299996</v>
       </c>
-      <c r="I255">
-        <v>0</v>
-      </c>
       <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
         <v>97751.212637499993</v>
       </c>
     </row>
-    <row r="256" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G256" t="s">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="H256" t="s">
         <v>9</v>
       </c>
-      <c r="H256">
+      <c r="I256">
         <v>26404.353746500001</v>
       </c>
-      <c r="I256">
+      <c r="J256">
         <v>33.963024700799998</v>
       </c>
-      <c r="J256">
+      <c r="K256">
         <v>714971.21717399999</v>
       </c>
     </row>
-    <row r="257" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G257" t="s">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="H257" t="s">
         <v>149</v>
       </c>
-      <c r="H257">
+      <c r="I257">
         <v>7625.0076522899999</v>
       </c>
-      <c r="I257">
+      <c r="J257">
         <v>236.33542532800001</v>
       </c>
-      <c r="J257">
+      <c r="K257">
         <v>662.62778988499997</v>
       </c>
     </row>
-    <row r="258" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G258" t="s">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="H258" t="s">
         <v>146</v>
       </c>
-      <c r="H258">
+      <c r="I258">
         <v>11721.9144153</v>
       </c>
-      <c r="I258">
+      <c r="J258">
         <v>444.46606376199998</v>
       </c>
-      <c r="J258">
+      <c r="K258">
         <v>249.31782009899999</v>
       </c>
     </row>
-    <row r="259" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G259" t="s">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="H259" t="s">
         <v>247</v>
       </c>
-      <c r="H259">
+      <c r="I259">
         <v>7574.9495622699997</v>
       </c>
-      <c r="I259">
+      <c r="J259">
         <v>220.05390568499999</v>
       </c>
-      <c r="J259">
+      <c r="K259">
         <v>525.39773814</v>
       </c>
     </row>
-    <row r="260" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G260" t="s">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="H260" t="s">
         <v>242</v>
       </c>
-      <c r="H260">
+      <c r="I260">
         <v>26022.082100899999</v>
       </c>
-      <c r="I260">
+      <c r="J260">
         <v>501.18598501100001</v>
       </c>
-      <c r="J260">
+      <c r="K260">
         <v>303.29073349800001</v>
       </c>
     </row>
-    <row r="261" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G261" t="s">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="H261" t="s">
         <v>5</v>
       </c>
-      <c r="H261">
+      <c r="I261">
         <v>3309.7014733300002</v>
       </c>
-      <c r="I261">
+      <c r="J261">
         <v>48.246281122699997</v>
       </c>
-      <c r="J261">
+      <c r="K261">
         <v>230.30751210599999</v>
       </c>
     </row>
-    <row r="262" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G262" t="s">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="H262" t="s">
         <v>251</v>
       </c>
-      <c r="H262">
+      <c r="I262">
         <v>3435.6432372899999</v>
       </c>
-      <c r="I262">
+      <c r="J262">
         <v>183.097510594</v>
       </c>
-      <c r="J262">
+      <c r="K262">
         <v>5812.7990749999999</v>
       </c>
     </row>
-    <row r="263" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G263" t="s">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="H263" t="s">
         <v>84</v>
       </c>
-      <c r="H263">
+      <c r="I263">
         <v>269620.148598</v>
       </c>
-      <c r="I263">
+      <c r="J263">
         <v>4760.8196407799996</v>
       </c>
-      <c r="J263">
+      <c r="K263">
         <v>61184.647765299997</v>
       </c>
     </row>
-    <row r="264" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G264" t="s">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="H264" t="s">
         <v>239</v>
       </c>
-      <c r="H264">
+      <c r="I264">
         <v>65064.121116000002</v>
       </c>
-      <c r="I264">
+      <c r="J264">
         <v>1838.2509082500001</v>
       </c>
-      <c r="J264">
+      <c r="K264">
         <v>265826.04678400001</v>
       </c>
     </row>
-    <row r="265" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G265" t="s">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="H265" t="s">
         <v>319</v>
       </c>
-      <c r="H265">
+      <c r="I265">
         <v>13291.0405307</v>
       </c>
-      <c r="I265">
-        <v>0</v>
-      </c>
       <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
         <v>2063208.7606500001</v>
       </c>
     </row>
-    <row r="266" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G266" t="s">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="H266" t="s">
         <v>171</v>
       </c>
-      <c r="H266">
+      <c r="I266">
         <v>1170.05055556</v>
       </c>
-      <c r="I266">
+      <c r="J266">
         <v>5.7544436674700004</v>
       </c>
-      <c r="J266">
+      <c r="K266">
         <v>196045.807535</v>
       </c>
     </row>
-    <row r="267" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G267" t="s">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="H267" t="s">
         <v>182</v>
       </c>
-      <c r="H267">
+      <c r="I267">
         <v>178124.34371799999</v>
       </c>
-      <c r="I267">
+      <c r="J267">
         <v>3154.3242321299999</v>
       </c>
-      <c r="J267">
+      <c r="K267">
         <v>7972.2345705999996</v>
       </c>
     </row>
-    <row r="268" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G268" t="s">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="H268" t="s">
         <v>184</v>
       </c>
-      <c r="H268">
+      <c r="I268">
         <v>89306.404526300001</v>
       </c>
-      <c r="I268">
+      <c r="J268">
         <v>1453.5734453699999</v>
       </c>
-      <c r="J268">
+      <c r="K268">
         <v>82689.5983041</v>
       </c>
     </row>
-    <row r="269" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G269" t="s">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="H269" t="s">
         <v>183</v>
       </c>
-      <c r="H269">
+      <c r="I269">
         <v>96413.197402899998</v>
       </c>
-      <c r="I269">
+      <c r="J269">
         <v>1659.5963791700001</v>
       </c>
-      <c r="J269">
+      <c r="K269">
         <v>48896.562625500002</v>
       </c>
     </row>
-    <row r="270" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G270" t="s">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="H270" t="s">
         <v>11</v>
       </c>
-      <c r="H270">
+      <c r="I270">
         <v>7346.4592129700004</v>
       </c>
-      <c r="I270">
+      <c r="J270">
         <v>59.509040343700001</v>
       </c>
-      <c r="J270">
+      <c r="K270">
         <v>27044.256854800002</v>
       </c>
     </row>
-    <row r="271" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G271" t="s">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1</v>
+      </c>
+      <c r="H271" t="s">
         <v>176</v>
       </c>
-      <c r="H271">
+      <c r="I271">
         <v>873.48079751199998</v>
       </c>
-      <c r="I271">
+      <c r="J271">
         <v>27.422535744499999</v>
       </c>
-      <c r="J271">
+      <c r="K271">
         <v>1039.47163237</v>
       </c>
     </row>
-    <row r="272" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G272" t="s">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="H272" t="s">
         <v>94</v>
       </c>
-      <c r="H272">
+      <c r="I272">
         <v>26375.578618200001</v>
       </c>
-      <c r="I272">
+      <c r="J272">
         <v>417.37750805799999</v>
       </c>
-      <c r="J272">
+      <c r="K272">
         <v>11253.239335800001</v>
       </c>
     </row>
-    <row r="273" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G273" t="s">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="H273" t="s">
         <v>132</v>
       </c>
-      <c r="H273">
+      <c r="I273">
         <v>485.237542523</v>
       </c>
-      <c r="I273">
+      <c r="J273">
         <v>5.7516199426199996</v>
       </c>
-      <c r="J273">
+      <c r="K273">
         <v>22618.306628900002</v>
       </c>
     </row>
-    <row r="274" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G274" t="s">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="H274" t="s">
         <v>298</v>
       </c>
-      <c r="H274">
+      <c r="I274">
         <v>15761.982949900001</v>
       </c>
-      <c r="I274">
-        <v>0</v>
-      </c>
       <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
         <v>1920145.52562</v>
       </c>
     </row>
-    <row r="275" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G275" t="s">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="H275" t="s">
         <v>75</v>
       </c>
-      <c r="H275">
+      <c r="I275">
         <v>8551.0535198199996</v>
       </c>
-      <c r="I275">
+      <c r="J275">
         <v>455.64638942099998</v>
       </c>
-      <c r="J275">
+      <c r="K275">
         <v>1056.6240312</v>
       </c>
     </row>
-    <row r="276" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G276" t="s">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="H276" t="s">
         <v>45</v>
       </c>
-      <c r="H276">
+      <c r="I276">
         <v>58915.093588800002</v>
       </c>
-      <c r="I276">
+      <c r="J276">
         <v>568.51736471699996</v>
       </c>
-      <c r="J276">
+      <c r="K276">
         <v>468319.12696800003</v>
       </c>
     </row>
-    <row r="277" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G277" t="s">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="H277" t="s">
         <v>331</v>
       </c>
-      <c r="H277">
+      <c r="I277">
         <v>2339.4758044700002</v>
       </c>
-      <c r="I277">
-        <v>0</v>
-      </c>
       <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
         <v>220601.32110299999</v>
       </c>
     </row>
-    <row r="278" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G278" t="s">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="H278" t="s">
         <v>325</v>
       </c>
-      <c r="H278">
+      <c r="I278">
         <v>11371.7470352</v>
       </c>
-      <c r="I278">
-        <v>0</v>
-      </c>
       <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
         <v>131339.04484399999</v>
       </c>
     </row>
-    <row r="279" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G279" t="s">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="H279" t="s">
         <v>104</v>
       </c>
-      <c r="H279">
+      <c r="I279">
         <v>21535.5249678</v>
       </c>
-      <c r="I279">
+      <c r="J279">
         <v>257.61488918800001</v>
       </c>
-      <c r="J279">
+      <c r="K279">
         <v>61206.997464</v>
       </c>
     </row>
-    <row r="280" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G280" t="s">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="H280" t="s">
         <v>77</v>
       </c>
-      <c r="H280">
+      <c r="I280">
         <v>2264.6731437499998</v>
       </c>
-      <c r="I280">
+      <c r="J280">
         <v>65.571120537200002</v>
       </c>
-      <c r="J280">
+      <c r="K280">
         <v>64818.159060600003</v>
       </c>
     </row>
-    <row r="281" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G281" t="s">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="H281" t="s">
         <v>114</v>
       </c>
-      <c r="H281">
+      <c r="I281">
         <v>262.985438375</v>
       </c>
-      <c r="I281">
+      <c r="J281">
         <v>4.9075413125000003</v>
       </c>
-      <c r="J281">
+      <c r="K281">
         <v>0.19054605086199999</v>
       </c>
     </row>
-    <row r="282" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G282" t="s">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="H282" t="s">
         <v>312</v>
       </c>
-      <c r="H282">
+      <c r="I282">
         <v>74450.374849400003</v>
       </c>
-      <c r="I282">
-        <v>0</v>
-      </c>
       <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
         <v>4512895.6957099997</v>
       </c>
     </row>
-    <row r="283" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G283" t="s">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="H283" t="s">
         <v>162</v>
       </c>
-      <c r="H283">
+      <c r="I283">
         <v>68981.206905700004</v>
       </c>
-      <c r="I283">
+      <c r="J283">
         <v>1483.35876128</v>
       </c>
-      <c r="J283">
+      <c r="K283">
         <v>168650.650093</v>
       </c>
     </row>
-    <row r="284" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G284" t="s">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="H284" t="s">
         <v>197</v>
       </c>
-      <c r="H284">
+      <c r="I284">
         <v>17486.043692700001</v>
       </c>
-      <c r="I284">
+      <c r="J284">
         <v>55.638247765700001</v>
       </c>
-      <c r="J284">
+      <c r="K284">
         <v>65423.7686894</v>
       </c>
     </row>
-    <row r="285" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G285" t="s">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="H285" t="s">
         <v>83</v>
       </c>
-      <c r="H285">
+      <c r="I285">
         <v>920855.12596700003</v>
       </c>
-      <c r="I285">
+      <c r="J285">
         <v>15936.5507077</v>
       </c>
-      <c r="J285">
+      <c r="K285">
         <v>321070.28748499998</v>
       </c>
     </row>
-    <row r="286" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G286" t="s">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="H286" t="s">
         <v>326</v>
       </c>
-      <c r="H286">
+      <c r="I286">
         <v>12376.8386264</v>
       </c>
-      <c r="I286">
-        <v>0</v>
-      </c>
       <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
         <v>480435.58345199999</v>
       </c>
     </row>
-    <row r="287" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G287" t="s">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="H287" t="s">
         <v>27</v>
       </c>
-      <c r="H287">
-        <v>0</v>
-      </c>
       <c r="I287">
         <v>0</v>
       </c>
       <c r="J287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G288" t="s">
+      <c r="K287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="H288" t="s">
         <v>270</v>
       </c>
-      <c r="H288">
+      <c r="I288">
         <v>22190.284417800001</v>
       </c>
-      <c r="I288">
-        <v>0</v>
-      </c>
       <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
         <v>35757.323576700001</v>
       </c>
     </row>
-    <row r="289" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G289" t="s">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="H289" t="s">
         <v>108</v>
       </c>
-      <c r="H289">
+      <c r="I289">
         <v>116640.509307</v>
       </c>
-      <c r="I289">
+      <c r="J289">
         <v>2247.8526958299999</v>
       </c>
-      <c r="J289">
+      <c r="K289">
         <v>13432.3166707</v>
       </c>
     </row>
-    <row r="290" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G290" t="s">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="H290" t="s">
         <v>107</v>
       </c>
-      <c r="H290">
+      <c r="I290">
         <v>486829.91165600001</v>
       </c>
-      <c r="I290">
+      <c r="J290">
         <v>8515.3467524999996</v>
       </c>
-      <c r="J290">
+      <c r="K290">
         <v>896394.91183700005</v>
       </c>
     </row>
-    <row r="291" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G291" t="s">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="H291" t="s">
         <v>109</v>
       </c>
-      <c r="H291">
+      <c r="I291">
         <v>11679.5470064</v>
       </c>
-      <c r="I291">
+      <c r="J291">
         <v>227.926474724</v>
       </c>
-      <c r="J291">
+      <c r="K291">
         <v>827.39798565199999</v>
       </c>
     </row>
-    <row r="292" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G292" t="s">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="H292" t="s">
         <v>180</v>
       </c>
-      <c r="H292">
+      <c r="I292">
         <v>104960.96230100001</v>
       </c>
-      <c r="I292">
+      <c r="J292">
         <v>2019.9262211099999</v>
       </c>
-      <c r="J292">
+      <c r="K292">
         <v>12604.918685000001</v>
       </c>
     </row>
-    <row r="293" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G293" t="s">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="H293" t="s">
         <v>333</v>
       </c>
-      <c r="H293">
+      <c r="I293">
         <v>224665.33448600001</v>
       </c>
-      <c r="I293">
-        <v>0</v>
-      </c>
       <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
         <v>6283365.1375599997</v>
       </c>
     </row>
-    <row r="294" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G294" t="s">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1</v>
+      </c>
+      <c r="H294" t="s">
         <v>303</v>
       </c>
-      <c r="H294">
+      <c r="I294">
         <v>6345.4567016700003</v>
       </c>
-      <c r="I294">
-        <v>0</v>
-      </c>
       <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
         <v>743404.19966599997</v>
       </c>
     </row>
-    <row r="295" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G295" t="s">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1</v>
+      </c>
+      <c r="H295" t="s">
         <v>50</v>
       </c>
-      <c r="H295">
+      <c r="I295">
         <v>199857.737207</v>
       </c>
-      <c r="I295">
+      <c r="J295">
         <v>2136.9067681400002</v>
       </c>
-      <c r="J295">
+      <c r="K295">
         <v>3622521.5464900001</v>
       </c>
     </row>
-    <row r="296" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G296" t="s">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1</v>
+      </c>
+      <c r="H296" t="s">
         <v>138</v>
       </c>
-      <c r="H296">
+      <c r="I296">
         <v>62990.042807400001</v>
       </c>
-      <c r="I296">
+      <c r="J296">
         <v>898.66709727399996</v>
       </c>
-      <c r="J296">
+      <c r="K296">
         <v>40081.247842700002</v>
       </c>
     </row>
-    <row r="297" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G297" t="s">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="H297" t="s">
         <v>289</v>
       </c>
-      <c r="H297">
+      <c r="I297">
         <v>21772.7149049</v>
       </c>
-      <c r="I297">
-        <v>0</v>
-      </c>
       <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
         <v>6297533.3972300002</v>
       </c>
     </row>
-    <row r="298" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G298" t="s">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="H298" t="s">
         <v>177</v>
       </c>
-      <c r="H298">
+      <c r="I298">
         <v>231.83889032100001</v>
       </c>
-      <c r="I298">
+      <c r="J298">
         <v>7.7289487936199999</v>
       </c>
-      <c r="J298">
+      <c r="K298">
         <v>254.617454337</v>
       </c>
     </row>
-    <row r="299" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G299" t="s">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="H299" t="s">
         <v>210</v>
       </c>
-      <c r="H299">
+      <c r="I299">
         <v>245475.11078399999</v>
       </c>
-      <c r="I299">
+      <c r="J299">
         <v>155.184737216</v>
       </c>
-      <c r="J299">
+      <c r="K299">
         <v>8789407.1005199999</v>
       </c>
     </row>
-    <row r="300" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G300" t="s">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="H300" t="s">
         <v>64</v>
       </c>
-      <c r="H300">
+      <c r="I300">
         <v>83604.626083499999</v>
       </c>
-      <c r="I300">
+      <c r="J300">
         <v>2723.7761409999998</v>
       </c>
-      <c r="J300">
+      <c r="K300">
         <v>3153.23137924</v>
       </c>
     </row>
-    <row r="301" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G301" t="s">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1</v>
+      </c>
+      <c r="H301" t="s">
         <v>80</v>
       </c>
-      <c r="H301">
+      <c r="I301">
         <v>59455.157762100003</v>
       </c>
-      <c r="I301">
+      <c r="J301">
         <v>690.06137702000001</v>
       </c>
-      <c r="J301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G302" t="s">
+      <c r="K301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="H302" t="s">
         <v>51</v>
       </c>
-      <c r="H302">
+      <c r="I302">
         <v>180781.85775900001</v>
       </c>
-      <c r="I302">
+      <c r="J302">
         <v>2116.0688736900001</v>
       </c>
-      <c r="J302">
+      <c r="K302">
         <v>179000.14559199999</v>
       </c>
     </row>
-    <row r="303" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G303" t="s">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1</v>
+      </c>
+      <c r="H303" t="s">
         <v>269</v>
       </c>
-      <c r="H303">
+      <c r="I303">
         <v>35908.6052948</v>
       </c>
-      <c r="I303">
-        <v>0</v>
-      </c>
       <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
         <v>9939057.9918099996</v>
       </c>
     </row>
-    <row r="304" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G304" t="s">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>1</v>
+      </c>
+      <c r="H304" t="s">
         <v>150</v>
       </c>
-      <c r="H304">
+      <c r="I304">
         <v>3683.2977687799998</v>
       </c>
-      <c r="I304">
+      <c r="J304">
         <v>71.949386607099996</v>
       </c>
-      <c r="J304">
+      <c r="K304">
         <v>297.48637256900003</v>
       </c>
     </row>
-    <row r="305" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G305" t="s">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>1</v>
+      </c>
+      <c r="H305" t="s">
         <v>18</v>
       </c>
-      <c r="H305">
+      <c r="I305">
         <v>67557.534916100005</v>
       </c>
-      <c r="I305">
+      <c r="J305">
         <v>800.24587469100004</v>
       </c>
-      <c r="J305">
+      <c r="K305">
         <v>215.35893106699999</v>
       </c>
     </row>
-    <row r="306" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G306" t="s">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>1</v>
+      </c>
+      <c r="H306" t="s">
         <v>137</v>
       </c>
-      <c r="H306">
+      <c r="I306">
         <v>3853.08048121</v>
       </c>
-      <c r="I306">
+      <c r="J306">
         <v>44.533462508299998</v>
       </c>
-      <c r="J306">
+      <c r="K306">
         <v>2952.29907774</v>
       </c>
     </row>
-    <row r="307" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G307" t="s">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>1</v>
+      </c>
+      <c r="H307" t="s">
         <v>288</v>
       </c>
-      <c r="H307">
+      <c r="I307">
         <v>27870.0799606</v>
       </c>
-      <c r="I307">
-        <v>0</v>
-      </c>
       <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
         <v>1953683.4747599999</v>
       </c>
     </row>
-    <row r="308" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G308" t="s">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1</v>
+      </c>
+      <c r="H308" t="s">
         <v>154</v>
       </c>
-      <c r="H308">
+      <c r="I308">
         <v>6178.3795385699996</v>
       </c>
-      <c r="I308">
+      <c r="J308">
         <v>202.67752878100001</v>
       </c>
-      <c r="J308">
+      <c r="K308">
         <v>769.13074188500002</v>
       </c>
     </row>
-    <row r="309" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G309" t="s">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1</v>
+      </c>
+      <c r="H309" t="s">
         <v>71</v>
       </c>
-      <c r="H309">
+      <c r="I309">
         <v>76982.817548499996</v>
       </c>
-      <c r="I309">
+      <c r="J309">
         <v>2639.4182442599999</v>
       </c>
-      <c r="J309">
+      <c r="K309">
         <v>2281.2992901100001</v>
       </c>
     </row>
-    <row r="310" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G310" t="s">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1</v>
+      </c>
+      <c r="H310" t="s">
         <v>274</v>
       </c>
-      <c r="H310">
+      <c r="I310">
         <v>1636.1384490600001</v>
       </c>
-      <c r="I310">
-        <v>0</v>
-      </c>
       <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
         <v>20518.5747539</v>
       </c>
     </row>
-    <row r="311" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G311" t="s">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>1</v>
+      </c>
+      <c r="H311" t="s">
         <v>82</v>
       </c>
-      <c r="H311">
+      <c r="I311">
         <v>941701.19599899999</v>
       </c>
-      <c r="I311">
+      <c r="J311">
         <v>16132.788920499999</v>
       </c>
-      <c r="J311">
+      <c r="K311">
         <v>458163.86356500001</v>
       </c>
     </row>
-    <row r="312" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G312" t="s">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>1</v>
+      </c>
+      <c r="H312" t="s">
         <v>307</v>
       </c>
-      <c r="H312">
+      <c r="I312">
         <v>450.00782958500002</v>
       </c>
-      <c r="I312">
-        <v>0</v>
-      </c>
       <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
         <v>421022.590172</v>
       </c>
     </row>
-    <row r="313" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G313" t="s">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>1</v>
+      </c>
+      <c r="H313" t="s">
         <v>265</v>
       </c>
-      <c r="H313">
+      <c r="I313">
         <v>435.02049890500001</v>
       </c>
-      <c r="I313">
-        <v>0</v>
-      </c>
       <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
         <v>3165531.4245699998</v>
       </c>
     </row>
-    <row r="314" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G314" t="s">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>1</v>
+      </c>
+      <c r="H314" t="s">
         <v>227</v>
       </c>
-      <c r="H314">
+      <c r="I314">
         <v>533822.96413500002</v>
       </c>
-      <c r="I314">
+      <c r="J314">
         <v>13936.9058095</v>
       </c>
-      <c r="J314">
+      <c r="K314">
         <v>8133738.0756400004</v>
       </c>
     </row>
-    <row r="315" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G315" t="s">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1</v>
+      </c>
+      <c r="H315" t="s">
         <v>322</v>
       </c>
-      <c r="H315">
+      <c r="I315">
         <v>422.93184582599997</v>
       </c>
-      <c r="I315">
-        <v>0</v>
-      </c>
       <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
         <v>25909.021775500001</v>
       </c>
     </row>
-    <row r="316" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G316" t="s">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1</v>
+      </c>
+      <c r="H316" t="s">
         <v>4</v>
       </c>
-      <c r="H316">
+      <c r="I316">
         <v>27360.5901123</v>
       </c>
-      <c r="I316">
+      <c r="J316">
         <v>385.95668393800003</v>
       </c>
-      <c r="J316">
+      <c r="K316">
         <v>1569.28882946</v>
       </c>
     </row>
-    <row r="317" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G317" t="s">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="H317" t="s">
         <v>96</v>
       </c>
-      <c r="H317">
+      <c r="I317">
         <v>39591.178432499997</v>
       </c>
-      <c r="I317">
+      <c r="J317">
         <v>667.14215103499998</v>
       </c>
-      <c r="J317">
+      <c r="K317">
         <v>15298.6461347</v>
       </c>
     </row>
-    <row r="318" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G318" t="s">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>1</v>
+      </c>
+      <c r="H318" t="s">
         <v>90</v>
       </c>
-      <c r="H318">
+      <c r="I318">
         <v>970156.89456100005</v>
       </c>
-      <c r="I318">
+      <c r="J318">
         <v>13567.915147399999</v>
       </c>
-      <c r="J318">
+      <c r="K318">
         <v>3020016.5359100001</v>
       </c>
     </row>
-    <row r="319" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G319" t="s">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>1</v>
+      </c>
+      <c r="H319" t="s">
         <v>97</v>
       </c>
-      <c r="H319">
+      <c r="I319">
         <v>29035.2311477</v>
       </c>
-      <c r="I319">
+      <c r="J319">
         <v>352.812419697</v>
       </c>
-      <c r="J319">
+      <c r="K319">
         <v>21289.974105000001</v>
       </c>
     </row>
-    <row r="320" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G320" t="s">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>1</v>
+      </c>
+      <c r="H320" t="s">
         <v>8</v>
       </c>
-      <c r="H320">
+      <c r="I320">
         <v>32651.6898196</v>
       </c>
-      <c r="I320">
+      <c r="J320">
         <v>41.442582445100001</v>
       </c>
-      <c r="J320">
+      <c r="K320">
         <v>1208644.8194599999</v>
       </c>
     </row>
-    <row r="321" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G321" t="s">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>1</v>
+      </c>
+      <c r="H321" t="s">
         <v>126</v>
       </c>
-      <c r="H321">
+      <c r="I321">
         <v>21632.3396216</v>
       </c>
-      <c r="I321">
+      <c r="J321">
         <v>266.11812206799999</v>
       </c>
-      <c r="J321">
+      <c r="K321">
         <v>488017.87714599998</v>
       </c>
     </row>
-    <row r="322" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G322" t="s">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="H322" t="s">
         <v>207</v>
       </c>
-      <c r="H322">
+      <c r="I322">
         <v>31642.7208852</v>
       </c>
-      <c r="I322">
+      <c r="J322">
         <v>364.59474427700002</v>
       </c>
-      <c r="J322">
+      <c r="K322">
         <v>48730.052366999997</v>
       </c>
     </row>
-    <row r="323" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G323" t="s">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1</v>
+      </c>
+      <c r="H323" t="s">
         <v>128</v>
       </c>
-      <c r="H323">
+      <c r="I323">
         <v>877.60104417800005</v>
       </c>
-      <c r="I323">
+      <c r="J323">
         <v>3.9688349218100001</v>
       </c>
-      <c r="J323">
+      <c r="K323">
         <v>9932.8959085499991</v>
       </c>
     </row>
-    <row r="324" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G324" t="s">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1</v>
+      </c>
+      <c r="H324" t="s">
         <v>332</v>
       </c>
-      <c r="H324">
+      <c r="I324">
         <v>23391.9572611</v>
       </c>
-      <c r="I324">
-        <v>0</v>
-      </c>
       <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
         <v>388004.78066500003</v>
       </c>
     </row>
-    <row r="325" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G325" t="s">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1</v>
+      </c>
+      <c r="H325" t="s">
         <v>74</v>
       </c>
-      <c r="H325">
+      <c r="I325">
         <v>10151.1264273</v>
       </c>
-      <c r="I325">
+      <c r="J325">
         <v>332.87583329400002</v>
       </c>
-      <c r="J325">
+      <c r="K325">
         <v>1190.4385143500001</v>
       </c>
     </row>
-    <row r="326" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G326" t="s">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1</v>
+      </c>
+      <c r="H326" t="s">
         <v>131</v>
       </c>
-      <c r="H326">
+      <c r="I326">
         <v>3296.9010082499999</v>
       </c>
-      <c r="I326">
+      <c r="J326">
         <v>1.7190780531100001</v>
       </c>
-      <c r="J326">
+      <c r="K326">
         <v>207270.939984</v>
       </c>
     </row>
-    <row r="327" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G327" t="s">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1</v>
+      </c>
+      <c r="H327" t="s">
         <v>20</v>
       </c>
-      <c r="H327">
+      <c r="I327">
         <v>22608.3205629</v>
       </c>
-      <c r="I327">
+      <c r="J327">
         <v>319.27283224299998</v>
       </c>
-      <c r="J327">
+      <c r="K327">
         <v>32837.390216100001</v>
       </c>
     </row>
-    <row r="328" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G328" t="s">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1</v>
+      </c>
+      <c r="H328" t="s">
         <v>245</v>
       </c>
-      <c r="H328">
+      <c r="I328">
         <v>4862.17281172</v>
       </c>
-      <c r="I328">
+      <c r="J328">
         <v>171.60234792200001</v>
       </c>
-      <c r="J328">
+      <c r="K328">
         <v>160.57911578900001</v>
       </c>
     </row>
-    <row r="329" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G329" t="s">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1</v>
+      </c>
+      <c r="H329" t="s">
         <v>101</v>
       </c>
-      <c r="H329">
+      <c r="I329">
         <v>8364.8937188100008</v>
       </c>
-      <c r="I329">
+      <c r="J329">
         <v>70.370009991800003</v>
       </c>
-      <c r="J329">
+      <c r="K329">
         <v>57247.046151299997</v>
       </c>
     </row>
-    <row r="330" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G330" t="s">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1</v>
+      </c>
+      <c r="H330" t="s">
         <v>328</v>
       </c>
-      <c r="H330">
+      <c r="I330">
         <v>31184.543493699999</v>
       </c>
-      <c r="I330">
-        <v>0</v>
-      </c>
       <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
         <v>1018593.8787999999</v>
       </c>
     </row>
-    <row r="331" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G331" t="s">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="H331" t="s">
         <v>25</v>
       </c>
-      <c r="H331">
+      <c r="I331">
         <v>166.12815216800001</v>
       </c>
-      <c r="I331">
+      <c r="J331">
         <v>4.0284102378100002</v>
       </c>
-      <c r="J331">
+      <c r="K331">
         <v>7.4259885563900001</v>
       </c>
     </row>
-    <row r="332" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G332" t="s">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1</v>
+      </c>
+      <c r="H332" t="s">
         <v>306</v>
       </c>
-      <c r="H332">
+      <c r="I332">
         <v>3442.15360659</v>
       </c>
-      <c r="I332">
-        <v>0</v>
-      </c>
       <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
         <v>14404825.082599999</v>
       </c>
     </row>
-    <row r="333" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G333" t="s">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1</v>
+      </c>
+      <c r="H333" t="s">
         <v>17</v>
       </c>
-      <c r="H333">
+      <c r="I333">
         <v>181428.38267600001</v>
       </c>
-      <c r="I333">
+      <c r="J333">
         <v>2135.0916069300001</v>
       </c>
-      <c r="J333">
+      <c r="K333">
         <v>24267.698296999999</v>
       </c>
     </row>
-    <row r="334" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G334" t="s">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1</v>
+      </c>
+      <c r="H334" t="s">
         <v>113</v>
       </c>
-      <c r="H334">
-        <v>0</v>
-      </c>
       <c r="I334">
         <v>0</v>
       </c>
       <c r="J334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G335" t="s">
+      <c r="K334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1</v>
+      </c>
+      <c r="H335" t="s">
         <v>213</v>
       </c>
-      <c r="H335">
-        <v>0</v>
-      </c>
       <c r="I335">
         <v>0</v>
       </c>
       <c r="J335">
         <v>0</v>
       </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="L2:M336">
-    <sortCondition ref="L2:L336"/>
+  <sortState ref="M2:N336">
+    <sortCondition ref="M2:M336"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/ihme-gbd.xlsx
+++ b/data/ihme-gbd.xlsx
@@ -1890,8 +1890,8 @@
   <dimension ref="A1:K335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/ihme-gbd.xlsx
+++ b/data/ihme-gbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
   <si>
     <t>HIV/AIDS resulting in other diseases</t>
   </si>
@@ -1040,15 +1040,6 @@
   </si>
   <si>
     <t>thislevel</t>
-  </si>
-  <si>
-    <t>HIV/AIDS &amp; tuberculosis</t>
-  </si>
-  <si>
-    <t>Communicable diseases</t>
-  </si>
-  <si>
-    <t>TEMP</t>
   </si>
   <si>
     <t>cause</t>
@@ -1890,19 +1881,20 @@
   <dimension ref="A1:K335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G137" sqref="G137"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="2" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>337</v>
@@ -1920,10 +1912,10 @@
         <v>341</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>336</v>
@@ -4199,18 +4191,6 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
-      </c>
-      <c r="B135" t="s">
-        <v>343</v>
-      </c>
-      <c r="C135" t="s">
-        <v>344</v>
-      </c>
-      <c r="F135">
-        <v>2</v>
-      </c>
-      <c r="G135" t="s">
-        <v>342</v>
       </c>
       <c r="H135" t="s">
         <v>226</v>

--- a/data/ihme-gbd.xlsx
+++ b/data/ihme-gbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
   <si>
     <t>HIV/AIDS resulting in other diseases</t>
   </si>
@@ -1027,25 +1027,7 @@
     <t>dalys</t>
   </si>
   <si>
-    <t>category1</t>
-  </si>
-  <si>
-    <t>category2</t>
-  </si>
-  <si>
-    <t>category3</t>
-  </si>
-  <si>
-    <t>category4</t>
-  </si>
-  <si>
-    <t>thislevel</t>
-  </si>
-  <si>
     <t>cause</t>
-  </si>
-  <si>
-    <t>short</t>
   </si>
   <si>
     <t>active</t>
@@ -1878,5736 +1860,5716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K335"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>337</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B2" t="s">
         <v>329</v>
       </c>
-      <c r="I2">
+      <c r="C2">
         <v>71538.760351200006</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>2793436.6702200002</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B3" t="s">
         <v>120</v>
       </c>
-      <c r="I3">
+      <c r="C3">
         <v>335.91991891100002</v>
       </c>
-      <c r="J3">
+      <c r="D3">
         <v>6.5741268745700001</v>
       </c>
-      <c r="K3">
+      <c r="E3">
         <v>280.46185164799999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="I4">
+      <c r="C4">
         <v>1299.25991565</v>
       </c>
-      <c r="J4">
+      <c r="D4">
         <v>14.2001515817</v>
       </c>
-      <c r="K4">
+      <c r="E4">
         <v>35470.346914000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="I5">
+      <c r="C5">
         <v>3205.5234945399998</v>
       </c>
-      <c r="J5">
+      <c r="D5">
         <v>50.305726756200002</v>
       </c>
-      <c r="K5">
+      <c r="E5">
         <v>2554.83243752</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="B6" t="s">
         <v>190</v>
       </c>
-      <c r="I6">
+      <c r="C6">
         <v>14612.7412169</v>
       </c>
-      <c r="J6">
+      <c r="D6">
         <v>223.28393227000001</v>
       </c>
-      <c r="K6">
+      <c r="E6">
         <v>808.62363191899999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="B7" t="s">
         <v>192</v>
       </c>
-      <c r="I7">
+      <c r="C7">
         <v>8555.1406746800003</v>
       </c>
-      <c r="J7">
+      <c r="D7">
         <v>157.59405691500001</v>
       </c>
-      <c r="K7">
+      <c r="E7">
         <v>298.95829052900001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="B8" t="s">
         <v>99</v>
       </c>
-      <c r="I8">
+      <c r="C8">
         <v>56447.234338900002</v>
       </c>
-      <c r="J8">
+      <c r="D8">
         <v>1053.12831351</v>
       </c>
-      <c r="K8">
+      <c r="E8">
         <v>10508.8539621</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="B10" t="s">
         <v>313</v>
       </c>
-      <c r="I10">
+      <c r="C10">
         <v>105265.246031</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>2471218.4148499998</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="B11" t="s">
         <v>257</v>
       </c>
-      <c r="I11">
+      <c r="C11">
         <v>22578.174648799999</v>
       </c>
-      <c r="J11">
+      <c r="D11">
         <v>138.52625955900001</v>
       </c>
-      <c r="K11">
+      <c r="E11">
         <v>169526.474972</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
+      <c r="B12" t="s">
         <v>214</v>
       </c>
-      <c r="I12">
+      <c r="C12">
         <v>2341.4109419199999</v>
       </c>
-      <c r="J12">
+      <c r="D12">
         <v>71.621924203800006</v>
       </c>
-      <c r="K12">
+      <c r="E12">
         <v>664.10162930700005</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="B13" t="s">
         <v>224</v>
       </c>
-      <c r="I13">
+      <c r="C13">
         <v>18559913.783799998</v>
       </c>
-      <c r="J13">
+      <c r="D13">
         <v>303811.85109399998</v>
       </c>
-      <c r="K13">
+      <c r="E13">
         <v>32881049.194499999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
+      <c r="B14" t="s">
         <v>330</v>
       </c>
-      <c r="I14">
+      <c r="C14">
         <v>1782.7626544100001</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>54941.9203308</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
+      <c r="B15" t="s">
         <v>250</v>
       </c>
-      <c r="I15">
+      <c r="C15">
         <v>48654.350705500001</v>
       </c>
-      <c r="J15">
+      <c r="D15">
         <v>2903.0183889800001</v>
       </c>
-      <c r="K15">
+      <c r="E15">
         <v>65639.100505800001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
+      <c r="B16" t="s">
         <v>261</v>
       </c>
-      <c r="I16">
+      <c r="C16">
         <v>654.84159577200001</v>
       </c>
-      <c r="J16">
+      <c r="D16">
         <v>6.8728596576800003</v>
       </c>
-      <c r="K16">
+      <c r="E16">
         <v>2276.2798704800002</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="H17" t="s">
+      <c r="B17" t="s">
         <v>100</v>
       </c>
-      <c r="I17">
+      <c r="C17">
         <v>15821.108124</v>
       </c>
-      <c r="J17">
+      <c r="D17">
         <v>157.04206430799999</v>
       </c>
-      <c r="K17">
+      <c r="E17">
         <v>172996.01371</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
+      <c r="B18" t="s">
         <v>264</v>
       </c>
-      <c r="I18">
+      <c r="C18">
         <v>1360.5742618100001</v>
       </c>
-      <c r="J18">
+      <c r="D18">
         <v>0.84235460466900003</v>
       </c>
-      <c r="K18">
+      <c r="E18">
         <v>6197.20412863</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
+      <c r="B19" t="s">
         <v>280</v>
       </c>
-      <c r="I19">
+      <c r="C19">
         <v>141942.952854</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>1481594.17652</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
+      <c r="B20" t="s">
         <v>170</v>
       </c>
-      <c r="I20">
+      <c r="C20">
         <v>5263.8341397300001</v>
       </c>
-      <c r="J20">
+      <c r="D20">
         <v>183.63016340600001</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="H21" t="s">
+      <c r="B21" t="s">
         <v>241</v>
       </c>
-      <c r="I21">
+      <c r="C21">
         <v>18952.7691959</v>
       </c>
-      <c r="J21">
+      <c r="D21">
         <v>369.317403528</v>
       </c>
-      <c r="K21">
+      <c r="E21">
         <v>4945.0950460399999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="H22" t="s">
+      <c r="B22" t="s">
         <v>178</v>
       </c>
-      <c r="I22">
+      <c r="C22">
         <v>138.33828790600001</v>
       </c>
-      <c r="J22">
+      <c r="D22">
         <v>2.46080370988</v>
       </c>
-      <c r="K22">
+      <c r="E22">
         <v>276.09932416499998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
+      <c r="B23" t="s">
         <v>116</v>
       </c>
-      <c r="I23">
+      <c r="C23">
         <v>25999.9278939</v>
       </c>
-      <c r="J23">
+      <c r="D23">
         <v>29.770542874099998</v>
       </c>
-      <c r="K23">
+      <c r="E23">
         <v>12452607.629000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
+      <c r="B24" t="s">
         <v>283</v>
       </c>
-      <c r="I24">
+      <c r="C24">
         <v>22752.292829000002</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>227892.87499899999</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
+      <c r="B25" t="s">
         <v>230</v>
       </c>
-      <c r="I25">
+      <c r="C25">
         <v>183363.12229900001</v>
       </c>
-      <c r="J25">
+      <c r="D25">
         <v>3146.9273274500001</v>
       </c>
-      <c r="K25">
+      <c r="E25">
         <v>2002477.9615</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
+      <c r="B26" t="s">
         <v>169</v>
       </c>
-      <c r="I26">
+      <c r="C26">
         <v>6002.3468777799999</v>
       </c>
-      <c r="J26">
+      <c r="D26">
         <v>144.970049937</v>
       </c>
-      <c r="K26">
+      <c r="E26">
         <v>52739.9439442</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="H27" t="s">
+      <c r="B27" t="s">
         <v>284</v>
       </c>
-      <c r="I27">
+      <c r="C27">
         <v>4991.5831607800001</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>415941.23164000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
+      <c r="B28" t="s">
         <v>282</v>
       </c>
-      <c r="I28">
+      <c r="C28">
         <v>20093.885254600002</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>79029.017135100003</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="H29" t="s">
+      <c r="B29" t="s">
         <v>281</v>
       </c>
-      <c r="I29">
+      <c r="C29">
         <v>42846.178083600003</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>304876.63990000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
+      <c r="B30" t="s">
         <v>295</v>
       </c>
-      <c r="I30">
+      <c r="C30">
         <v>9528.5589245400006</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>297188.50910199998</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="H31" t="s">
+      <c r="B31" t="s">
         <v>279</v>
       </c>
-      <c r="I31">
+      <c r="C31">
         <v>44216.406187400004</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>218599.656644</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="H32" t="s">
+      <c r="B32" t="s">
         <v>152</v>
       </c>
-      <c r="I32">
+      <c r="C32">
         <v>10869.6593318</v>
       </c>
-      <c r="J32">
+      <c r="D32">
         <v>435.80812446099998</v>
       </c>
-      <c r="K32">
+      <c r="E32">
         <v>1167.6481003599999</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="H33" t="s">
+      <c r="B33" t="s">
         <v>153</v>
       </c>
-      <c r="I33">
+      <c r="C33">
         <v>29461.172381799999</v>
       </c>
-      <c r="J33">
+      <c r="D33">
         <v>627.26175027800002</v>
       </c>
-      <c r="K33">
+      <c r="E33">
         <v>1299.9119377</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="H34" t="s">
+      <c r="B34" t="s">
         <v>72</v>
       </c>
-      <c r="I34">
+      <c r="C34">
         <v>100927.114311</v>
       </c>
-      <c r="J34">
+      <c r="D34">
         <v>2709.5832830099998</v>
       </c>
-      <c r="K34">
+      <c r="E34">
         <v>11066.9916524</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
-      <c r="H35" t="s">
+      <c r="B35" t="s">
         <v>117</v>
       </c>
-      <c r="I35">
+      <c r="C35">
         <v>5038.1291357299997</v>
       </c>
-      <c r="J35">
+      <c r="D35">
         <v>7.0043576245900005E-2</v>
       </c>
-      <c r="K35">
+      <c r="E35">
         <v>24220.733712599998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
-      <c r="H36" t="s">
+      <c r="B36" t="s">
         <v>275</v>
       </c>
-      <c r="I36">
+      <c r="C36">
         <v>1519.02133751</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>52275.875178000002</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
-      <c r="H37" t="s">
+      <c r="B37" t="s">
         <v>168</v>
       </c>
-      <c r="I37">
+      <c r="C37">
         <v>17425.006518099999</v>
       </c>
-      <c r="J37">
+      <c r="D37">
         <v>432.13560127300002</v>
       </c>
-      <c r="K37">
+      <c r="E37">
         <v>7853.3296157100003</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="H38" t="s">
+      <c r="B38" t="s">
         <v>161</v>
       </c>
-      <c r="I38">
+      <c r="C38">
         <v>2257809.9707300002</v>
       </c>
-      <c r="J38">
+      <c r="D38">
         <v>80333.111087400001</v>
       </c>
-      <c r="K38">
+      <c r="E38">
         <v>1381160.45964</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="H39" t="s">
+      <c r="B39" t="s">
         <v>317</v>
       </c>
-      <c r="I39">
+      <c r="C39">
         <v>923.65963041199996</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>3931575.0691</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
-      <c r="H40" t="s">
+      <c r="B40" t="s">
         <v>318</v>
       </c>
-      <c r="I40">
+      <c r="C40">
         <v>7991.6122691500004</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
         <v>13652403.0474</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
-      <c r="H41" t="s">
+      <c r="B41" t="s">
         <v>310</v>
       </c>
-      <c r="I41">
+      <c r="C41">
         <v>16932.902374599998</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
         <v>211890.790404</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
-      <c r="H42" t="s">
+      <c r="B42" t="s">
         <v>76</v>
       </c>
-      <c r="I42">
+      <c r="C42">
         <v>1074.07271578</v>
       </c>
-      <c r="J42">
+      <c r="D42">
         <v>5.81918796257</v>
       </c>
-      <c r="K42">
+      <c r="E42">
         <v>15320.0918955</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
-      <c r="H43" t="s">
+      <c r="B43" t="s">
         <v>164</v>
       </c>
-      <c r="I43">
+      <c r="C43">
         <v>650879.46664700005</v>
       </c>
-      <c r="J43">
+      <c r="D43">
         <v>23131.8121168</v>
       </c>
-      <c r="K43">
+      <c r="E43">
         <v>150133.165343</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="H44" t="s">
+      <c r="B44" t="s">
         <v>73</v>
       </c>
-      <c r="I44">
+      <c r="C44">
         <v>26416.737029299999</v>
       </c>
-      <c r="J44">
+      <c r="D44">
         <v>736.59336951299997</v>
       </c>
-      <c r="K44">
+      <c r="E44">
         <v>3755.9046343700002</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
-      <c r="H45" t="s">
+      <c r="B45" t="s">
         <v>23</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
-      <c r="H46" t="s">
+      <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="I46">
+      <c r="C46">
         <v>2051.98247446</v>
       </c>
-      <c r="J46">
+      <c r="D46">
         <v>4.0662416586100001</v>
       </c>
-      <c r="K46">
+      <c r="E46">
         <v>288116.93234399997</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
-      <c r="H47" t="s">
+      <c r="B47" t="s">
         <v>121</v>
       </c>
-      <c r="I47">
+      <c r="C47">
         <v>303585.14319199999</v>
       </c>
-      <c r="J47">
+      <c r="D47">
         <v>8047.6522877099997</v>
       </c>
-      <c r="K47">
+      <c r="E47">
         <v>1191489.0757800001</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
-      <c r="H48" t="s">
+      <c r="B48" t="s">
         <v>122</v>
       </c>
-      <c r="I48">
+      <c r="C48">
         <v>110021.26331900001</v>
       </c>
-      <c r="J48">
+      <c r="D48">
         <v>3300.54980656</v>
       </c>
-      <c r="K48">
+      <c r="E48">
         <v>478304.05889300001</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
-      <c r="H49" t="s">
+      <c r="B49" t="s">
         <v>124</v>
       </c>
-      <c r="I49">
+      <c r="C49">
         <v>57449.154046900003</v>
       </c>
-      <c r="J49">
+      <c r="D49">
         <v>1124.97317651</v>
       </c>
-      <c r="K49">
+      <c r="E49">
         <v>177487.449012</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
-      <c r="H50" t="s">
+      <c r="B50" t="s">
         <v>123</v>
       </c>
-      <c r="I50">
+      <c r="C50">
         <v>35153.148083499997</v>
       </c>
-      <c r="J50">
+      <c r="D50">
         <v>1306.2770988699999</v>
       </c>
-      <c r="K50">
+      <c r="E50">
         <v>179671.77161200001</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="H51" t="s">
+      <c r="B51" t="s">
         <v>125</v>
       </c>
-      <c r="I51">
+      <c r="C51">
         <v>100961.577743</v>
       </c>
-      <c r="J51">
+      <c r="D51">
         <v>2315.8522057599998</v>
       </c>
-      <c r="K51">
+      <c r="E51">
         <v>356025.796264</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
-      <c r="H52" t="s">
+      <c r="B52" t="s">
         <v>191</v>
       </c>
-      <c r="I52">
+      <c r="C52">
         <v>2021.8225789799999</v>
       </c>
-      <c r="J52">
+      <c r="D52">
         <v>55.785152793599998</v>
       </c>
-      <c r="K52">
+      <c r="E52">
         <v>435.19222791599998</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
-      <c r="H53" t="s">
+      <c r="B53" t="s">
         <v>193</v>
       </c>
-      <c r="I53">
+      <c r="C53">
         <v>8914.1155679700005</v>
       </c>
-      <c r="J53">
+      <c r="D53">
         <v>226.128717722</v>
       </c>
-      <c r="K53">
+      <c r="E53">
         <v>579.36261577799996</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
-      <c r="H54" t="s">
+      <c r="B54" t="s">
         <v>175</v>
       </c>
-      <c r="I54">
+      <c r="C54">
         <v>180596.87866700001</v>
       </c>
-      <c r="J54">
+      <c r="D54">
         <v>6389.2106463</v>
       </c>
-      <c r="K54">
+      <c r="E54">
         <v>568974.458705</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
-      <c r="H55" t="s">
+      <c r="B55" t="s">
         <v>174</v>
       </c>
-      <c r="I55">
+      <c r="C55">
         <v>379369.57355600002</v>
       </c>
-      <c r="J55">
+      <c r="D55">
         <v>9922.0349669000007</v>
       </c>
-      <c r="K55">
+      <c r="E55">
         <v>2521497.0942500001</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
-      <c r="H56" t="s">
+      <c r="B56" t="s">
         <v>233</v>
       </c>
-      <c r="I56">
+      <c r="C56">
         <v>144811.80506899999</v>
       </c>
-      <c r="J56">
+      <c r="D56">
         <v>4085.88482256</v>
       </c>
-      <c r="K56">
+      <c r="E56">
         <v>84162.089525599993</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="H57" t="s">
+      <c r="B57" t="s">
         <v>236</v>
       </c>
-      <c r="I57">
+      <c r="C57">
         <v>8699.7341744200003</v>
       </c>
-      <c r="J57">
+      <c r="D57">
         <v>286.43485550499997</v>
       </c>
-      <c r="K57">
+      <c r="E57">
         <v>4263.3274094099997</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
-      <c r="H58" t="s">
+      <c r="B58" t="s">
         <v>234</v>
       </c>
-      <c r="I58">
+      <c r="C58">
         <v>39860.144992000001</v>
       </c>
-      <c r="J58">
+      <c r="D58">
         <v>1275.3092453700001</v>
       </c>
-      <c r="K58">
+      <c r="E58">
         <v>20476.5500937</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="H59" t="s">
+      <c r="B59" t="s">
         <v>235</v>
       </c>
-      <c r="I59">
+      <c r="C59">
         <v>42903.139178899997</v>
       </c>
-      <c r="J59">
+      <c r="D59">
         <v>1363.8077638300001</v>
       </c>
-      <c r="K59">
+      <c r="E59">
         <v>21972.161937199999</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
-      <c r="H60" t="s">
+      <c r="B60" t="s">
         <v>237</v>
       </c>
-      <c r="I60">
+      <c r="C60">
         <v>53348.7867234</v>
       </c>
-      <c r="J60">
+      <c r="D60">
         <v>1160.33295785</v>
       </c>
-      <c r="K60">
+      <c r="E60">
         <v>37450.050085299998</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
-      <c r="H61" t="s">
+      <c r="B61" t="s">
         <v>179</v>
       </c>
-      <c r="I61">
+      <c r="C61">
         <v>85.076242940200004</v>
       </c>
-      <c r="J61">
+      <c r="D61">
         <v>3.5183089725799999</v>
       </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
-      <c r="H62" t="s">
+      <c r="B62" t="s">
         <v>260</v>
       </c>
-      <c r="I62">
+      <c r="C62">
         <v>2277.3074083800002</v>
       </c>
-      <c r="J62">
+      <c r="D62">
         <v>13.0290310618</v>
       </c>
-      <c r="K62">
+      <c r="E62">
         <v>12183.3423124</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
-      <c r="H63" t="s">
+      <c r="B63" t="s">
         <v>141</v>
       </c>
-      <c r="I63">
+      <c r="C63">
         <v>47759.957368299998</v>
       </c>
-      <c r="J63">
+      <c r="D63">
         <v>1526.8684529699999</v>
       </c>
-      <c r="K63">
+      <c r="E63">
         <v>3353.7009060999999</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
-      <c r="H64" t="s">
+      <c r="B64" t="s">
         <v>225</v>
       </c>
-      <c r="I64">
+      <c r="C64">
         <v>6588879.1880400004</v>
       </c>
-      <c r="J64">
+      <c r="D64">
         <v>84489.662183499997</v>
       </c>
-      <c r="K64">
+      <c r="E64">
         <v>28836599.662999999</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
-      <c r="H65" t="s">
+      <c r="B65" t="s">
         <v>285</v>
       </c>
-      <c r="I65">
+      <c r="C65">
         <v>47097.420551099996</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
         <v>390092.07056600001</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
-      <c r="H66" t="s">
+      <c r="B66" t="s">
         <v>218</v>
       </c>
-      <c r="I66">
+      <c r="C66">
         <v>1616222.9107900001</v>
       </c>
-      <c r="J66">
+      <c r="D66">
         <v>22621.222947999999</v>
       </c>
-      <c r="K66">
+      <c r="E66">
         <v>5954199.5885699997</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
-      <c r="H67" t="s">
+      <c r="B67" t="s">
         <v>200</v>
       </c>
-      <c r="I67">
+      <c r="C67">
         <v>1160913.9082599999</v>
       </c>
-      <c r="J67">
+      <c r="D67">
         <v>12793.484428</v>
       </c>
-      <c r="K67">
+      <c r="E67">
         <v>700541.166814</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
-      <c r="H68" t="s">
+      <c r="B68" t="s">
         <v>202</v>
       </c>
-      <c r="I68">
+      <c r="C68">
         <v>454198.24030300003</v>
       </c>
-      <c r="J68">
+      <c r="D68">
         <v>5329.4375199699998</v>
       </c>
-      <c r="K68">
+      <c r="E68">
         <v>159340.65987100001</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
-      <c r="H69" t="s">
+      <c r="B69" t="s">
         <v>206</v>
       </c>
-      <c r="I69">
+      <c r="C69">
         <v>30024.663833099999</v>
       </c>
-      <c r="J69">
+      <c r="D69">
         <v>241.05873320200001</v>
       </c>
-      <c r="K69">
+      <c r="E69">
         <v>65207.669397600002</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
-      <c r="H70" t="s">
+      <c r="B70" t="s">
         <v>271</v>
       </c>
-      <c r="I70">
+      <c r="C70">
         <v>156851.338674</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
         <v>2481004.7178000002</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
-      <c r="H71" t="s">
+      <c r="B71" t="s">
         <v>85</v>
       </c>
-      <c r="I71">
+      <c r="C71">
         <v>12816.933738899999</v>
       </c>
-      <c r="J71">
+      <c r="D71">
         <v>176.62217622599999</v>
       </c>
-      <c r="K71">
+      <c r="E71">
         <v>46158.057205600002</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
-      <c r="H72" t="s">
+      <c r="B72" t="s">
         <v>111</v>
       </c>
-      <c r="I72">
+      <c r="C72">
         <v>7646.5647506900004</v>
       </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
         <v>82479.589874500001</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
-      <c r="H73" t="s">
+      <c r="B73" t="s">
         <v>110</v>
       </c>
-      <c r="I73">
+      <c r="C73">
         <v>317.040289836</v>
       </c>
-      <c r="J73">
+      <c r="D73">
         <v>6.3948507913799997</v>
       </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
-      <c r="H74" t="s">
+      <c r="B74" t="s">
         <v>78</v>
       </c>
-      <c r="I74">
+      <c r="C74">
         <v>2474.8612561199998</v>
       </c>
-      <c r="J74">
+      <c r="D74">
         <v>80.640268284399994</v>
       </c>
-      <c r="K74">
+      <c r="E74">
         <v>4982.0853921099997</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
-      <c r="H75" t="s">
+      <c r="B75" t="s">
         <v>112</v>
       </c>
-      <c r="I75">
+      <c r="C75">
         <v>1184.6592513099999</v>
       </c>
-      <c r="J75">
+      <c r="D75">
         <v>0.25649238297499999</v>
       </c>
-      <c r="K75">
+      <c r="E75">
         <v>7123.9100421499998</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
-      <c r="H76" t="s">
+      <c r="B76" t="s">
         <v>276</v>
       </c>
-      <c r="I76">
+      <c r="C76">
         <v>196199.655134</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
         <v>1091221.1520199999</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
-      <c r="H77" t="s">
+      <c r="B77" t="s">
         <v>324</v>
       </c>
-      <c r="I77">
+      <c r="C77">
         <v>68024.754032900004</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
         <v>1735353.1348300001</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
-      <c r="H78" t="s">
+      <c r="B78" t="s">
         <v>119</v>
       </c>
-      <c r="I78">
+      <c r="C78">
         <v>424943.56342999998</v>
       </c>
-      <c r="J78">
+      <c r="D78">
         <v>11067.909845</v>
       </c>
-      <c r="K78">
+      <c r="E78">
         <v>1496582.2921500001</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
-      <c r="H79" t="s">
+      <c r="B79" t="s">
         <v>118</v>
       </c>
-      <c r="I79">
+      <c r="C79">
         <v>975116.68851799995</v>
       </c>
-      <c r="J79">
+      <c r="D79">
         <v>21413.140631300001</v>
       </c>
-      <c r="K79">
+      <c r="E79">
         <v>15618407.103800001</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
-      <c r="H80" t="s">
-        <v>1</v>
-      </c>
-      <c r="I80">
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80">
         <v>2949759.23765</v>
       </c>
-      <c r="J80">
+      <c r="D80">
         <v>37084.322147400002</v>
       </c>
-      <c r="K80">
+      <c r="E80">
         <v>2622724.6253</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
-      <c r="H81" t="s">
+      <c r="B81" t="s">
         <v>2</v>
       </c>
-      <c r="I81">
+      <c r="C81">
         <v>458501.17257499998</v>
       </c>
-      <c r="J81">
+      <c r="D81">
         <v>4909.5615661800002</v>
       </c>
-      <c r="K81">
+      <c r="E81">
         <v>591108.22412599996</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
-      <c r="H82" t="s">
+      <c r="B82" t="s">
         <v>208</v>
       </c>
-      <c r="I82">
+      <c r="C82">
         <v>46031.080189300003</v>
       </c>
-      <c r="J82">
+      <c r="D82">
         <v>518.06365506199995</v>
       </c>
-      <c r="K82">
+      <c r="E82">
         <v>41935.501480799998</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
-      <c r="H83" t="s">
+      <c r="B83" t="s">
         <v>238</v>
       </c>
-      <c r="I83">
+      <c r="C83">
         <v>186894.669716</v>
       </c>
-      <c r="J83">
+      <c r="D83">
         <v>4079.3138233700001</v>
       </c>
-      <c r="K83">
+      <c r="E83">
         <v>1037347.53417</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
-      <c r="H84" t="s">
+      <c r="B84" t="s">
         <v>16</v>
       </c>
-      <c r="I84">
+      <c r="C84">
         <v>1261.09676313</v>
       </c>
-      <c r="J84">
+      <c r="D84">
         <v>16.972116677700001</v>
       </c>
-      <c r="K84">
+      <c r="E84">
         <v>6.8200222846300003</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
-      <c r="H85" t="s">
+      <c r="B85" t="s">
         <v>204</v>
       </c>
-      <c r="I85">
+      <c r="C85">
         <v>21909.968842599999</v>
       </c>
-      <c r="J85">
+      <c r="D85">
         <v>249.98930895300001</v>
       </c>
-      <c r="K85">
+      <c r="E85">
         <v>17453.545274100001</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
-      <c r="H86" t="s">
+      <c r="B86" t="s">
         <v>92</v>
       </c>
-      <c r="I86">
+      <c r="C86">
         <v>220862.03361400001</v>
       </c>
-      <c r="J86">
+      <c r="D86">
         <v>3226.7958119199998</v>
       </c>
-      <c r="K86">
+      <c r="E86">
         <v>12418.1808833</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
-      <c r="H87" t="s">
+      <c r="B87" t="s">
         <v>258</v>
       </c>
-      <c r="I87">
+      <c r="C87">
         <v>123697.588557</v>
       </c>
-      <c r="J87">
+      <c r="D87">
         <v>267.90352092000001</v>
       </c>
-      <c r="K87">
+      <c r="E87">
         <v>335347.10333999997</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
-      <c r="H88" t="s">
+      <c r="B88" t="s">
         <v>221</v>
       </c>
-      <c r="I88">
+      <c r="C88">
         <v>596.84233433700001</v>
       </c>
-      <c r="J88">
+      <c r="D88">
         <v>10.9367514594</v>
       </c>
-      <c r="K88">
+      <c r="E88">
         <v>18.3408515309</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
-      <c r="H89" t="s">
+      <c r="B89" t="s">
         <v>212</v>
       </c>
-      <c r="I89">
+      <c r="C89">
         <v>442280.54612100002</v>
       </c>
-      <c r="J89">
+      <c r="D89">
         <v>11529.085918000001</v>
       </c>
-      <c r="K89">
+      <c r="E89">
         <v>18705.071327400001</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
-      <c r="H90" t="s">
+      <c r="B90" t="s">
         <v>278</v>
       </c>
-      <c r="I90">
+      <c r="C90">
         <v>23622.301947200001</v>
       </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
         <v>249241.47640700001</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
-      <c r="H91" t="s">
+      <c r="B91" t="s">
         <v>263</v>
       </c>
-      <c r="I91">
+      <c r="C91">
         <v>6398.7033975300001</v>
       </c>
-      <c r="J91">
+      <c r="D91">
         <v>0.91239818091400005</v>
       </c>
-      <c r="K91">
+      <c r="E91">
         <v>32181.066670600001</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
-      <c r="H92" t="s">
+      <c r="B92" t="s">
         <v>189</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
-      <c r="H93" t="s">
+      <c r="B93" t="s">
         <v>320</v>
       </c>
-      <c r="I93">
+      <c r="C93">
         <v>18639.214696700001</v>
       </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
         <v>686461.208185</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
-      <c r="H94" t="s">
+      <c r="B94" t="s">
         <v>15</v>
       </c>
-      <c r="I94">
+      <c r="C94">
         <v>25854.627486500001</v>
       </c>
-      <c r="J94">
+      <c r="D94">
         <v>266.96967024100002</v>
       </c>
-      <c r="K94">
+      <c r="E94">
         <v>84788.164711000005</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
-      <c r="H95" t="s">
+      <c r="B95" t="s">
         <v>172</v>
       </c>
-      <c r="I95">
+      <c r="C95">
         <v>6364.8385905599998</v>
       </c>
-      <c r="J95">
+      <c r="D95">
         <v>201.39070901700001</v>
       </c>
-      <c r="K95">
+      <c r="E95">
         <v>817.72554426800002</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
-      <c r="H96" t="s">
+      <c r="B96" t="s">
         <v>195</v>
       </c>
-      <c r="I96">
+      <c r="C96">
         <v>54676.224040699999</v>
       </c>
-      <c r="J96">
+      <c r="D96">
         <v>777.49070613699996</v>
       </c>
-      <c r="K96">
+      <c r="E96">
         <v>388254.659407</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
-      <c r="H97" t="s">
+      <c r="B97" t="s">
         <v>133</v>
       </c>
-      <c r="I97">
+      <c r="C97">
         <v>518.03415239000003</v>
       </c>
-      <c r="J97">
+      <c r="D97">
         <v>0.19041999690299999</v>
       </c>
-      <c r="K97">
+      <c r="E97">
         <v>5368.7438511600003</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
-      <c r="H98" t="s">
+      <c r="B98" t="s">
         <v>188</v>
       </c>
-      <c r="I98">
+      <c r="C98">
         <v>33314.680353099997</v>
       </c>
-      <c r="J98">
+      <c r="D98">
         <v>447.47455871099999</v>
       </c>
-      <c r="K98">
+      <c r="E98">
         <v>197843.35913699999</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
-      <c r="H99" t="s">
+      <c r="B99" t="s">
         <v>252</v>
       </c>
-      <c r="I99">
+      <c r="C99">
         <v>95820.963734399993</v>
       </c>
-      <c r="J99">
+      <c r="D99">
         <v>996.53714334899996</v>
       </c>
-      <c r="K99">
+      <c r="E99">
         <v>81796.485646300003</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
-      <c r="H100" t="s">
+      <c r="B100" t="s">
         <v>63</v>
       </c>
-      <c r="I100">
+      <c r="C100">
         <v>14932.548384199999</v>
       </c>
-      <c r="J100">
+      <c r="D100">
         <v>524.086267969</v>
       </c>
-      <c r="K100">
+      <c r="E100">
         <v>438.63513992100002</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
-      <c r="H101" t="s">
+      <c r="B101" t="s">
         <v>211</v>
       </c>
-      <c r="I101">
+      <c r="C101">
         <v>480.81101881400002</v>
       </c>
-      <c r="J101">
+      <c r="D101">
         <v>7.2547248123600001</v>
       </c>
-      <c r="K101">
+      <c r="E101">
         <v>2838.4626842799998</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
-      <c r="H102" t="s">
+      <c r="B102" t="s">
         <v>186</v>
       </c>
-      <c r="I102">
+      <c r="C102">
         <v>2627.5404634800002</v>
       </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
         <v>52612.959657500003</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
-      <c r="H103" t="s">
+      <c r="B103" t="s">
         <v>95</v>
       </c>
-      <c r="I103">
+      <c r="C103">
         <v>155127.12993200001</v>
       </c>
-      <c r="J103">
+      <c r="D103">
         <v>2396.73226342</v>
       </c>
-      <c r="K103">
+      <c r="E103">
         <v>451135.07857499999</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
-      <c r="H104" t="s">
+      <c r="B104" t="s">
         <v>223</v>
       </c>
-      <c r="I104">
+      <c r="C104">
         <v>13.273540135599999</v>
       </c>
-      <c r="J104">
+      <c r="D104">
         <v>0.24606068515000001</v>
       </c>
-      <c r="K104">
+      <c r="E104">
         <v>5.6722232893599997E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
-      <c r="H105" t="s">
+      <c r="B105" t="s">
         <v>220</v>
       </c>
-      <c r="I105">
+      <c r="C105">
         <v>7777.8860345200001</v>
       </c>
-      <c r="J105">
+      <c r="D105">
         <v>205.16772311700001</v>
       </c>
-      <c r="K105">
+      <c r="E105">
         <v>45.902971797799999</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
-      <c r="H106" t="s">
+      <c r="B106" t="s">
         <v>91</v>
       </c>
-      <c r="I106">
+      <c r="C106">
         <v>309869.34237999999</v>
       </c>
-      <c r="J106">
+      <c r="D106">
         <v>3976.3898156300002</v>
       </c>
-      <c r="K106">
+      <c r="E106">
         <v>1123166.37797</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
-      <c r="H107" t="s">
+      <c r="B107" t="s">
         <v>297</v>
       </c>
-      <c r="I107">
+      <c r="C107">
         <v>496.34131995000001</v>
       </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
         <v>80749.652567900004</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
-      <c r="H108" t="s">
+      <c r="B108" t="s">
         <v>93</v>
       </c>
-      <c r="I108">
+      <c r="C108">
         <v>41508.311653600002</v>
       </c>
-      <c r="J108">
+      <c r="D108">
         <v>580.99062126900003</v>
       </c>
-      <c r="K108">
+      <c r="E108">
         <v>219155.83869599999</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
-      <c r="H109" t="s">
+      <c r="B109" t="s">
         <v>267</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
-      <c r="H110" t="s">
+      <c r="B110" t="s">
         <v>185</v>
       </c>
-      <c r="I110">
+      <c r="C110">
         <v>1619331.2622799999</v>
       </c>
-      <c r="J110">
+      <c r="D110">
         <v>22628.4776728</v>
       </c>
-      <c r="K110">
+      <c r="E110">
         <v>6009651.0109099997</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
-      <c r="H111" t="s">
+      <c r="B111" t="s">
         <v>103</v>
       </c>
-      <c r="I111">
+      <c r="C111">
         <v>39137.951312999998</v>
       </c>
-      <c r="J111">
+      <c r="D111">
         <v>455.36979426200003</v>
       </c>
-      <c r="K111">
+      <c r="E111">
         <v>181603.825858</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
-      <c r="H112" t="s">
+      <c r="B112" t="s">
         <v>287</v>
       </c>
-      <c r="I112">
+      <c r="C112">
         <v>697.85787443900006</v>
       </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
         <v>12111.5701936</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
-      <c r="H113" t="s">
+      <c r="B113" t="s">
         <v>105</v>
       </c>
-      <c r="I113">
+      <c r="C113">
         <v>16904.5684707</v>
       </c>
-      <c r="J113">
+      <c r="D113">
         <v>197.754905073</v>
       </c>
-      <c r="K113">
+      <c r="E113">
         <v>108285.2582</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
-      <c r="H114" t="s">
+      <c r="B114" t="s">
         <v>327</v>
       </c>
-      <c r="I114">
+      <c r="C114">
         <v>10755.83755</v>
       </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114">
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
         <v>1912936.5309599999</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
-      <c r="H115" t="s">
+      <c r="B115" t="s">
         <v>139</v>
       </c>
-      <c r="I115">
+      <c r="C115">
         <v>5903.0728716499998</v>
       </c>
-      <c r="J115">
+      <c r="D115">
         <v>138.37162476399999</v>
       </c>
-      <c r="K115">
+      <c r="E115">
         <v>1449028.0299</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
-      <c r="H116" t="s">
+      <c r="B116" t="s">
         <v>290</v>
       </c>
-      <c r="I116">
+      <c r="C116">
         <v>2.39754365751</v>
       </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-      <c r="K116">
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
         <v>4403269.0452699997</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
-      <c r="H117" t="s">
+      <c r="B117" t="s">
         <v>246</v>
       </c>
-      <c r="I117">
+      <c r="C117">
         <v>9776.5558892000008</v>
       </c>
-      <c r="J117">
+      <c r="D117">
         <v>332.85468558899998</v>
       </c>
-      <c r="K117">
+      <c r="E117">
         <v>38005.163661799997</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
-      <c r="H118" t="s">
+      <c r="B118" t="s">
         <v>145</v>
       </c>
-      <c r="I118">
+      <c r="C118">
         <v>9641.6174283300006</v>
       </c>
-      <c r="J118">
+      <c r="D118">
         <v>357.17661166200003</v>
       </c>
-      <c r="K118">
+      <c r="E118">
         <v>200.603019004</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
-      <c r="H119" t="s">
+      <c r="B119" t="s">
         <v>240</v>
       </c>
-      <c r="I119">
+      <c r="C119">
         <v>6120.1243665800002</v>
       </c>
-      <c r="J119">
+      <c r="D119">
         <v>24.047567267400002</v>
       </c>
-      <c r="K119">
+      <c r="E119">
         <v>255778.397153</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
-      <c r="H120" t="s">
+      <c r="B120" t="s">
         <v>308</v>
       </c>
-      <c r="I120">
+      <c r="C120">
         <v>570.18698499699997</v>
       </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
         <v>2155756.45836</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
-      <c r="H121" t="s">
+      <c r="B121" t="s">
         <v>134</v>
       </c>
-      <c r="I121">
+      <c r="C121">
         <v>2892.3283243199999</v>
       </c>
-      <c r="J121">
+      <c r="D121">
         <v>0.80178703764199999</v>
       </c>
-      <c r="K121">
+      <c r="E121">
         <v>934864.24631800002</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
-      <c r="H122" t="s">
+      <c r="B122" t="s">
         <v>309</v>
       </c>
-      <c r="I122">
+      <c r="C122">
         <v>1588.47887393</v>
       </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
         <v>15258.921703800001</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
-      <c r="H123" t="s">
+      <c r="B123" t="s">
         <v>53</v>
       </c>
-      <c r="I123">
+      <c r="C123">
         <v>9822.5763700999996</v>
       </c>
-      <c r="J123">
+      <c r="D123">
         <v>10.8776687136</v>
       </c>
-      <c r="K123">
+      <c r="E123">
         <v>734823.75524900004</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
-      <c r="H124" t="s">
+      <c r="B124" t="s">
         <v>305</v>
       </c>
-      <c r="I124">
+      <c r="C124">
         <v>1768.87948422</v>
       </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
         <v>57177.589740700001</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
-      <c r="H125" t="s">
+      <c r="B125" t="s">
         <v>302</v>
       </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
-      <c r="H126" t="s">
+      <c r="B126" t="s">
         <v>130</v>
       </c>
-      <c r="I126">
+      <c r="C126">
         <v>39385.011458300003</v>
       </c>
-      <c r="J126">
+      <c r="D126">
         <v>21.3265078823</v>
       </c>
-      <c r="K126">
+      <c r="E126">
         <v>3154513.1329899998</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
-      <c r="H127" t="s">
+      <c r="B127" t="s">
         <v>12</v>
       </c>
-      <c r="I127">
+      <c r="C127">
         <v>56799.922106799997</v>
       </c>
-      <c r="J127">
+      <c r="D127">
         <v>686.29214858399996</v>
       </c>
-      <c r="K127">
+      <c r="E127">
         <v>24927.580506599999</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
-      <c r="H128" t="s">
+      <c r="B128" t="s">
         <v>136</v>
       </c>
-      <c r="I128">
+      <c r="C128">
         <v>130558.486856</v>
       </c>
-      <c r="J128">
+      <c r="D128">
         <v>1226.0690356800001</v>
       </c>
-      <c r="K128">
+      <c r="E128">
         <v>12411151.8204</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
-      <c r="H129" t="s">
+      <c r="B129" t="s">
         <v>42</v>
       </c>
-      <c r="I129">
+      <c r="C129">
         <v>69533.622467599998</v>
       </c>
-      <c r="J129">
+      <c r="D129">
         <v>693.92363457800002</v>
       </c>
-      <c r="K129">
+      <c r="E129">
         <v>28752.646183500001</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
-      <c r="H130" t="s">
+      <c r="B130" t="s">
         <v>166</v>
       </c>
-      <c r="I130">
+      <c r="C130">
         <v>412503.45444</v>
       </c>
-      <c r="J130">
+      <c r="D130">
         <v>13108.120278599999</v>
       </c>
-      <c r="K130">
+      <c r="E130">
         <v>26637.688923400001</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
-      <c r="H131" t="s">
+      <c r="B131" t="s">
         <v>55</v>
       </c>
-      <c r="I131">
+      <c r="C131">
         <v>18218.0170908</v>
       </c>
-      <c r="J131">
+      <c r="D131">
         <v>384.97145030799999</v>
       </c>
-      <c r="K131">
+      <c r="E131">
         <v>2976914.1442200001</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
-      <c r="H132" t="s">
+      <c r="B132" t="s">
         <v>57</v>
       </c>
-      <c r="I132">
+      <c r="C132">
         <v>13521.723518299999</v>
       </c>
-      <c r="J132">
+      <c r="D132">
         <v>315.378445763</v>
       </c>
-      <c r="K132">
+      <c r="E132">
         <v>2731580.2086399999</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
-      <c r="H133" t="s">
+      <c r="B133" t="s">
         <v>58</v>
       </c>
-      <c r="I133">
+      <c r="C133">
         <v>191.510162385</v>
       </c>
-      <c r="J133">
+      <c r="D133">
         <v>5.0871262072599999</v>
       </c>
-      <c r="K133">
+      <c r="E133">
         <v>207308.75623</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
-      <c r="H134" t="s">
+      <c r="B134" t="s">
         <v>228</v>
       </c>
-      <c r="I134">
+      <c r="C134">
         <v>8953.8136729599992</v>
       </c>
-      <c r="J134">
+      <c r="D134">
         <v>159.16499282199999</v>
       </c>
-      <c r="K134">
+      <c r="E134">
         <v>3591.7607969699998</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
-      <c r="H135" t="s">
+      <c r="B135" t="s">
         <v>226</v>
       </c>
-      <c r="I135">
+      <c r="C135">
         <v>542776.77780799998</v>
       </c>
-      <c r="J135">
+      <c r="D135">
         <v>14096.070802300001</v>
       </c>
-      <c r="K135">
+      <c r="E135">
         <v>8955208.6351699997</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
-      <c r="H136" t="s">
-        <v>0</v>
-      </c>
-      <c r="I136">
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136">
         <v>8200.8511406800008</v>
       </c>
-      <c r="J136">
+      <c r="D136">
         <v>145.341814505</v>
       </c>
-      <c r="K136">
+      <c r="E136">
         <v>3571.7561097100001</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
-      <c r="H137" t="s">
+      <c r="B137" t="s">
         <v>156</v>
       </c>
-      <c r="I137">
+      <c r="C137">
         <v>21240.905580999999</v>
       </c>
-      <c r="J137">
+      <c r="D137">
         <v>444.74711037999998</v>
       </c>
-      <c r="K137">
+      <c r="E137">
         <v>1079.3666101700001</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
-      <c r="H138" t="s">
+      <c r="B138" t="s">
         <v>266</v>
       </c>
-      <c r="I138">
+      <c r="C138">
         <v>524.00322866700003</v>
       </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
         <v>251565.84078200001</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
-      <c r="H139" t="s">
+      <c r="B139" t="s">
         <v>167</v>
       </c>
-      <c r="I139">
+      <c r="C139">
         <v>51764.687521</v>
       </c>
-      <c r="J139">
+      <c r="D139">
         <v>1857.13182147</v>
       </c>
-      <c r="K139">
+      <c r="E139">
         <v>19859.586840600001</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
-      <c r="H140" t="s">
+      <c r="B140" t="s">
         <v>286</v>
       </c>
-      <c r="I140">
+      <c r="C140">
         <v>35662.7719641</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
         <v>956050.36865900003</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
-      <c r="H141" t="s">
+      <c r="B141" t="s">
         <v>35</v>
       </c>
-      <c r="I141">
+      <c r="C141">
         <v>26113.3914076</v>
       </c>
-      <c r="J141">
+      <c r="D141">
         <v>462.22549442299999</v>
       </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
-      <c r="H142" t="s">
+      <c r="B142" t="s">
         <v>244</v>
       </c>
-      <c r="I142">
+      <c r="C142">
         <v>3246.6209968500002</v>
       </c>
-      <c r="J142">
+      <c r="D142">
         <v>67.3520515668</v>
       </c>
-      <c r="K142">
+      <c r="E142">
         <v>2303.1107170800001</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
-      <c r="H143" t="s">
+      <c r="B143" t="s">
         <v>243</v>
       </c>
-      <c r="I143">
+      <c r="C143">
         <v>24477.930004999998</v>
       </c>
-      <c r="J143">
+      <c r="D143">
         <v>117.549379488</v>
       </c>
-      <c r="K143">
+      <c r="E143">
         <v>505490.78293599997</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
-      <c r="H144" t="s">
+      <c r="B144" t="s">
         <v>81</v>
       </c>
-      <c r="I144">
+      <c r="C144">
         <v>4018019.26449</v>
       </c>
-      <c r="J144">
+      <c r="D144">
         <v>60844.5284933</v>
       </c>
-      <c r="K144">
+      <c r="E144">
         <v>10384226.3222</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
-      <c r="H145" t="s">
+      <c r="B145" t="s">
         <v>181</v>
       </c>
-      <c r="I145">
+      <c r="C145">
         <v>370189.40234899998</v>
       </c>
-      <c r="J145">
+      <c r="D145">
         <v>6267.4940566699997</v>
       </c>
-      <c r="K145">
+      <c r="E145">
         <v>882962.59516599996</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
-      <c r="H146" t="s">
+      <c r="B146" t="s">
         <v>231</v>
       </c>
-      <c r="I146">
+      <c r="C146">
         <v>5828.2926645500002</v>
       </c>
-      <c r="J146">
+      <c r="D146">
         <v>205.06308477600001</v>
       </c>
-      <c r="K146">
+      <c r="E146">
         <v>5064.3090882899996</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
-      <c r="H147" t="s">
+      <c r="B147" t="s">
         <v>127</v>
       </c>
-      <c r="I147">
+      <c r="C147">
         <v>3469.1279406100002</v>
       </c>
-      <c r="J147">
+      <c r="D147">
         <v>87.962703111600007</v>
       </c>
-      <c r="K147">
+      <c r="E147">
         <v>26292.614486900002</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
-      <c r="H148" t="s">
+      <c r="B148" t="s">
         <v>3</v>
       </c>
-      <c r="I148">
+      <c r="C148">
         <v>30791.725577699999</v>
       </c>
-      <c r="J148">
+      <c r="D148">
         <v>435.83488859300002</v>
       </c>
-      <c r="K148">
+      <c r="E148">
         <v>1569.28882946</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
-      <c r="H149" t="s">
+      <c r="B149" t="s">
         <v>115</v>
       </c>
-      <c r="I149">
+      <c r="C149">
         <v>26958.9516215</v>
       </c>
-      <c r="J149">
+      <c r="D149">
         <v>29.770542874099998</v>
       </c>
-      <c r="K149">
+      <c r="E149">
         <v>15283763.6318</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
-      <c r="H150" t="s">
+      <c r="B150" t="s">
         <v>46</v>
       </c>
-      <c r="I150">
+      <c r="C150">
         <v>27240.383933900001</v>
       </c>
-      <c r="J150">
+      <c r="D150">
         <v>11.762396215500001</v>
       </c>
-      <c r="K150">
+      <c r="E150">
         <v>1000288.06829</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
-      <c r="H151" t="s">
+      <c r="B151" t="s">
         <v>47</v>
       </c>
-      <c r="I151">
+      <c r="C151">
         <v>127494.88746699999</v>
       </c>
-      <c r="J151">
+      <c r="D151">
         <v>4.4266681950200004</v>
       </c>
-      <c r="K151">
+      <c r="E151">
         <v>4782662.5438099997</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
-      <c r="H152" t="s">
+      <c r="B152" t="s">
         <v>163</v>
       </c>
-      <c r="I152">
+      <c r="C152">
         <v>1370184.8285600001</v>
       </c>
-      <c r="J152">
+      <c r="D152">
         <v>50810.910557000003</v>
       </c>
-      <c r="K152">
+      <c r="E152">
         <v>635710.97274799994</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
-      <c r="H153" t="s">
+      <c r="B153" t="s">
         <v>165</v>
       </c>
-      <c r="I153">
+      <c r="C153">
         <v>238376.01220600001</v>
       </c>
-      <c r="J153">
+      <c r="D153">
         <v>10023.6918381</v>
       </c>
-      <c r="K153">
+      <c r="E153">
         <v>129437.64702</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
-      <c r="H154" t="s">
+      <c r="B154" t="s">
         <v>151</v>
       </c>
-      <c r="I154">
+      <c r="C154">
         <v>4742.1152904999999</v>
       </c>
-      <c r="J154">
+      <c r="D154">
         <v>127.692151882</v>
       </c>
-      <c r="K154">
+      <c r="E154">
         <v>869.080481061</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
-      <c r="H155" t="s">
+      <c r="B155" t="s">
         <v>323</v>
       </c>
-      <c r="I155">
+      <c r="C155">
         <v>102.852550483</v>
       </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
         <v>22437.9612892</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
-      <c r="H156" t="s">
+      <c r="B156" t="s">
         <v>70</v>
       </c>
-      <c r="I156">
+      <c r="C156">
         <v>10310.690035699999</v>
       </c>
-      <c r="J156">
+      <c r="D156">
         <v>341.04431326700001</v>
       </c>
-      <c r="K156">
+      <c r="E156">
         <v>770.97487800199997</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
-      <c r="H157" t="s">
+      <c r="B157" t="s">
         <v>36</v>
       </c>
-      <c r="I157">
+      <c r="C157">
         <v>2283.3783681700002</v>
       </c>
-      <c r="J157">
+      <c r="D157">
         <v>41.047632189799998</v>
       </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
-      <c r="H158" t="s">
+      <c r="B158" t="s">
         <v>294</v>
       </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158">
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
         <v>8113686.5111800004</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
-      <c r="H159" t="s">
+      <c r="B159" t="s">
         <v>24</v>
       </c>
-      <c r="I159">
+      <c r="C159">
         <v>157017.466827</v>
       </c>
-      <c r="J159">
+      <c r="D159">
         <v>4.0284102378100002</v>
       </c>
-      <c r="K159">
+      <c r="E159">
         <v>2718087.5842499998</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
-      <c r="H160" t="s">
+      <c r="B160" t="s">
         <v>292</v>
       </c>
-      <c r="I160">
+      <c r="C160">
         <v>9.6255485466199993</v>
       </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160">
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
         <v>146.42413086799999</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
-      <c r="H161" t="s">
+      <c r="B161" t="s">
         <v>159</v>
       </c>
-      <c r="I161">
+      <c r="C161">
         <v>98610.569772200004</v>
       </c>
-      <c r="J161">
+      <c r="D161">
         <v>2021.79755368</v>
       </c>
-      <c r="K161">
+      <c r="E161">
         <v>7325.5150358499995</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
-      <c r="H162" t="s">
+      <c r="B162" t="s">
         <v>142</v>
       </c>
-      <c r="I162">
+      <c r="C162">
         <v>4959.75579853</v>
       </c>
-      <c r="J162">
+      <c r="D162">
         <v>160.52075990099999</v>
       </c>
-      <c r="K162">
+      <c r="E162">
         <v>709.77934934300004</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
-      <c r="H163" t="s">
+      <c r="B163" t="s">
         <v>65</v>
       </c>
-      <c r="I163">
+      <c r="C163">
         <v>22324.745978800001</v>
       </c>
-      <c r="J163">
+      <c r="D163">
         <v>838.73599325099997</v>
       </c>
-      <c r="K163">
+      <c r="E163">
         <v>242.00776273599999</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
-      <c r="H164" t="s">
+      <c r="B164" t="s">
         <v>68</v>
       </c>
-      <c r="I164">
+      <c r="C164">
         <v>1513.2181371300001</v>
       </c>
-      <c r="J164">
+      <c r="D164">
         <v>62.536509790099998</v>
       </c>
-      <c r="K164">
+      <c r="E164">
         <v>38.151275364200004</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
-      <c r="H165" t="s">
+      <c r="B165" t="s">
         <v>66</v>
       </c>
-      <c r="I165">
+      <c r="C165">
         <v>8903.0958899899997</v>
       </c>
-      <c r="J165">
+      <c r="D165">
         <v>301.45556965899999</v>
       </c>
-      <c r="K165">
+      <c r="E165">
         <v>194.48112329400001</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
-      <c r="H166" t="s">
+      <c r="B166" t="s">
         <v>67</v>
       </c>
-      <c r="I166">
+      <c r="C166">
         <v>6384.2384152499999</v>
       </c>
-      <c r="J166">
+      <c r="D166">
         <v>277.83059785099999</v>
       </c>
-      <c r="K166">
+      <c r="E166">
         <v>169.55583971600001</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
-      <c r="H167" t="s">
+      <c r="B167" t="s">
         <v>69</v>
       </c>
-      <c r="I167">
+      <c r="C167">
         <v>5524.19353641</v>
       </c>
-      <c r="J167">
+      <c r="D167">
         <v>196.91331595099999</v>
       </c>
-      <c r="K167">
+      <c r="E167">
         <v>123.754280178</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
-      <c r="H168" t="s">
+      <c r="B168" t="s">
         <v>300</v>
       </c>
-      <c r="I168">
+      <c r="C168">
         <v>296388.20036399999</v>
       </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
         <v>2591898.5898600002</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
-      <c r="H169" t="s">
+      <c r="B169" t="s">
         <v>301</v>
       </c>
-      <c r="I169">
+      <c r="C169">
         <v>204043.94253100001</v>
       </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
         <v>1851179.7090799999</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
-      <c r="H170" t="s">
+      <c r="B170" t="s">
         <v>7</v>
       </c>
-      <c r="I170">
+      <c r="C170">
         <v>1469864.5043599999</v>
       </c>
-      <c r="J170">
+      <c r="D170">
         <v>20136.641518600001</v>
       </c>
-      <c r="K170">
+      <c r="E170">
         <v>64595.163507600002</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
-      <c r="H171" t="s">
+      <c r="B171" t="s">
         <v>272</v>
       </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
-      <c r="H172" t="s">
+      <c r="B172" t="s">
         <v>311</v>
       </c>
-      <c r="I172">
+      <c r="C172">
         <v>1457.0786867899999</v>
       </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
         <v>18377.519857399999</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
-      <c r="H173" t="s">
+      <c r="B173" t="s">
         <v>277</v>
       </c>
-      <c r="I173">
+      <c r="C173">
         <v>172577.353187</v>
       </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173">
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
         <v>852784.24338100001</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
-      <c r="H174" t="s">
+      <c r="B174" t="s">
         <v>22</v>
       </c>
-      <c r="I174">
+      <c r="C174">
         <v>132939.57167599999</v>
       </c>
-      <c r="J174">
+      <c r="D174">
         <v>2146.1401597399999</v>
       </c>
-      <c r="K174">
+      <c r="E174">
         <v>23877.313263399999</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
-      <c r="H175" t="s">
+      <c r="B175" t="s">
         <v>296</v>
       </c>
-      <c r="I175">
+      <c r="C175">
         <v>823.00630871099997</v>
       </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175">
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
         <v>131887.99266300001</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
-      <c r="H176" t="s">
+      <c r="B176" t="s">
         <v>147</v>
       </c>
-      <c r="I176">
+      <c r="C176">
         <v>1672.91303283</v>
       </c>
-      <c r="J176">
+      <c r="D176">
         <v>46.615480651600002</v>
       </c>
-      <c r="K176">
+      <c r="E176">
         <v>136.24245698999999</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
-      <c r="H177" t="s">
+      <c r="B177" t="s">
         <v>34</v>
       </c>
-      <c r="I177">
+      <c r="C177">
         <v>10702.874832</v>
       </c>
-      <c r="J177">
+      <c r="D177">
         <v>197.28898791699999</v>
       </c>
-      <c r="K177">
+      <c r="E177">
         <v>2077.1244185300002</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
-      <c r="H178" t="s">
+      <c r="B178" t="s">
         <v>187</v>
       </c>
-      <c r="I178">
+      <c r="C178">
         <v>20.133221093300001</v>
       </c>
-      <c r="J178">
+      <c r="D178">
         <v>0.35456875315899999</v>
       </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
-      <c r="H179" t="s">
+      <c r="B179" t="s">
         <v>29</v>
       </c>
-      <c r="I179">
+      <c r="C179">
         <v>287659.32929099997</v>
       </c>
-      <c r="J179">
+      <c r="D179">
         <v>5143.4149883500004</v>
       </c>
-      <c r="K179">
+      <c r="E179">
         <v>48901.770484300003</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
-      <c r="H180" t="s">
+      <c r="B180" t="s">
         <v>30</v>
       </c>
-      <c r="I180">
+      <c r="C180">
         <v>105929.31342400001</v>
       </c>
-      <c r="J180">
+      <c r="D180">
         <v>1939.8166778299999</v>
       </c>
-      <c r="K180">
+      <c r="E180">
         <v>12824.1934762</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
-      <c r="H181" t="s">
+      <c r="B181" t="s">
         <v>32</v>
       </c>
-      <c r="I181">
+      <c r="C181">
         <v>51957.7302872</v>
       </c>
-      <c r="J181">
+      <c r="D181">
         <v>918.65042844200002</v>
       </c>
-      <c r="K181">
+      <c r="E181">
         <v>15471.862870999999</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
-      <c r="H182" t="s">
+      <c r="B182" t="s">
         <v>33</v>
       </c>
-      <c r="I182">
+      <c r="C182">
         <v>17462.001924200002</v>
       </c>
-      <c r="J182">
+      <c r="D182">
         <v>280.77375965800002</v>
       </c>
-      <c r="K182">
+      <c r="E182">
         <v>6767.2052633900003</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
-      <c r="H183" t="s">
+      <c r="B183" t="s">
         <v>31</v>
       </c>
-      <c r="I183">
+      <c r="C183">
         <v>30130.9097182</v>
       </c>
-      <c r="J183">
+      <c r="D183">
         <v>536.76905159499995</v>
       </c>
-      <c r="K183">
+      <c r="E183">
         <v>13778.352880300001</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
-      <c r="H184" t="s">
+      <c r="B184" t="s">
         <v>19</v>
       </c>
-      <c r="I184">
+      <c r="C184">
         <v>57276.535598100003</v>
       </c>
-      <c r="J184">
+      <c r="D184">
         <v>686.61487466599999</v>
       </c>
-      <c r="K184">
+      <c r="E184">
         <v>457.64145434699998</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
-      <c r="H185" t="s">
+      <c r="B185" t="s">
         <v>10</v>
       </c>
-      <c r="I185">
+      <c r="C185">
         <v>575559.29357099999</v>
       </c>
-      <c r="J185">
+      <c r="D185">
         <v>7301.7115914200003</v>
       </c>
-      <c r="K185">
+      <c r="E185">
         <v>97965.740933299996</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
-      <c r="H186" t="s">
+      <c r="B186" t="s">
         <v>13</v>
       </c>
-      <c r="I186">
+      <c r="C186">
         <v>221993.704474</v>
       </c>
-      <c r="J186">
+      <c r="D186">
         <v>2861.44482801</v>
       </c>
-      <c r="K186">
+      <c r="E186">
         <v>17952.873648199999</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
-      <c r="H187" t="s">
+      <c r="B187" t="s">
         <v>256</v>
       </c>
-      <c r="I187">
+      <c r="C187">
         <v>720004.52714999998</v>
       </c>
-      <c r="J187">
+      <c r="D187">
         <v>407.34217866</v>
       </c>
-      <c r="K187">
+      <c r="E187">
         <v>5311698.1551000001</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
-      <c r="H188" t="s">
+      <c r="B188" t="s">
         <v>155</v>
       </c>
-      <c r="I188">
+      <c r="C188">
         <v>2406.2644456899998</v>
       </c>
-      <c r="J188">
+      <c r="D188">
         <v>74.744124226500006</v>
       </c>
-      <c r="K188">
+      <c r="E188">
         <v>112.153483912</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
-      <c r="H189" t="s">
+      <c r="B189" t="s">
         <v>268</v>
       </c>
-      <c r="I189">
+      <c r="C189">
         <v>208980.73533200001</v>
       </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
-      <c r="K189">
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
         <v>4841208.1883199997</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
-      <c r="H190" t="s">
+      <c r="B190" t="s">
         <v>254</v>
       </c>
-      <c r="I190">
+      <c r="C190">
         <v>1689.1605582100001</v>
       </c>
-      <c r="J190">
+      <c r="D190">
         <v>37.343795429899998</v>
       </c>
-      <c r="K190">
+      <c r="E190">
         <v>517.08627521999995</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
-      <c r="H191" t="s">
+      <c r="B191" t="s">
         <v>87</v>
       </c>
-      <c r="I191">
+      <c r="C191">
         <v>552537.48858200002</v>
       </c>
-      <c r="J191">
+      <c r="D191">
         <v>9646.7198265499992</v>
       </c>
-      <c r="K191">
+      <c r="E191">
         <v>138236.57570300001</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
-      <c r="H192" t="s">
+      <c r="B192" t="s">
         <v>86</v>
       </c>
-      <c r="I192">
+      <c r="C192">
         <v>81583.860301499997</v>
       </c>
-      <c r="J192">
+      <c r="D192">
         <v>1302.51917114</v>
       </c>
-      <c r="K192">
+      <c r="E192">
         <v>50879.616740199999</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
-      <c r="H193" t="s">
+      <c r="B193" t="s">
         <v>222</v>
       </c>
-      <c r="I193">
+      <c r="C193">
         <v>142.84665781000001</v>
       </c>
-      <c r="J193">
+      <c r="D193">
         <v>2.6403661723199998</v>
       </c>
-      <c r="K193">
+      <c r="E193">
         <v>1.60711349367</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
-      <c r="H194" t="s">
+      <c r="B194" t="s">
         <v>219</v>
       </c>
-      <c r="I194">
+      <c r="C194">
         <v>83764.531979599997</v>
       </c>
-      <c r="J194">
+      <c r="D194">
         <v>2202.6521684300001</v>
       </c>
-      <c r="K194">
+      <c r="E194">
         <v>1300.59015479</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
-      <c r="H195" t="s">
+      <c r="B195" t="s">
         <v>158</v>
       </c>
-      <c r="I195">
+      <c r="C195">
         <v>5119.6773772500001</v>
       </c>
-      <c r="J195">
+      <c r="D195">
         <v>173.41621648899999</v>
       </c>
-      <c r="K195">
+      <c r="E195">
         <v>200.42020759299999</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
-      <c r="H196" t="s">
+      <c r="B196" t="s">
         <v>253</v>
       </c>
-      <c r="I196">
+      <c r="C196">
         <v>4379.8575549500001</v>
       </c>
-      <c r="J196">
+      <c r="D196">
         <v>64.388826262099997</v>
       </c>
-      <c r="K196">
+      <c r="E196">
         <v>6296.8718286900003</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
-      <c r="H197" t="s">
+      <c r="B197" t="s">
         <v>196</v>
       </c>
-      <c r="I197">
+      <c r="C197">
         <v>433806.26766900002</v>
       </c>
-      <c r="J197">
+      <c r="D197">
         <v>235.097688027</v>
       </c>
-      <c r="K197">
+      <c r="E197">
         <v>3773242.3337699999</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
-      <c r="H198" t="s">
+      <c r="B198" t="s">
         <v>215</v>
       </c>
-      <c r="I198">
+      <c r="C198">
         <v>4126.9748449099998</v>
       </c>
-      <c r="J198">
+      <c r="D198">
         <v>75.751480498500001</v>
       </c>
-      <c r="K198">
+      <c r="E198">
         <v>5451.2901334799999</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
-      <c r="H199" t="s">
+      <c r="B199" t="s">
         <v>143</v>
       </c>
-      <c r="I199">
+      <c r="C199">
         <v>6085.7298441299999</v>
       </c>
-      <c r="J199">
+      <c r="D199">
         <v>161.592319788</v>
       </c>
-      <c r="K199">
+      <c r="E199">
         <v>602.70022818100006</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
-      <c r="H200" t="s">
+      <c r="B200" t="s">
         <v>304</v>
       </c>
-      <c r="I200">
+      <c r="C200">
         <v>92344.257833299998</v>
       </c>
-      <c r="J200">
-        <v>0</v>
-      </c>
-      <c r="K200">
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
         <v>945326.76706400001</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
-      <c r="H201" t="s">
+      <c r="B201" t="s">
         <v>21</v>
       </c>
-      <c r="I201">
+      <c r="C201">
         <v>335594.51910400001</v>
       </c>
-      <c r="J201">
+      <c r="D201">
         <v>2198.0652371699998</v>
       </c>
-      <c r="K201">
+      <c r="E201">
         <v>16465406.3796</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
-      <c r="H202" t="s">
+      <c r="B202" t="s">
         <v>38</v>
       </c>
-      <c r="I202">
+      <c r="C202">
         <v>2008137.04128</v>
       </c>
-      <c r="J202">
+      <c r="D202">
         <v>22445.3783893</v>
       </c>
-      <c r="K202">
+      <c r="E202">
         <v>413030.18511000002</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
-      <c r="H203" t="s">
+      <c r="B203" t="s">
         <v>40</v>
       </c>
-      <c r="I203">
+      <c r="C203">
         <v>276304.20568299998</v>
       </c>
-      <c r="J203">
+      <c r="D203">
         <v>3120.7780566599999</v>
       </c>
-      <c r="K203">
+      <c r="E203">
         <v>69561.695189000005</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
-      <c r="H204" t="s">
+      <c r="B204" t="s">
         <v>39</v>
       </c>
-      <c r="I204">
+      <c r="C204">
         <v>849565.21893099998</v>
       </c>
-      <c r="J204">
+      <c r="D204">
         <v>9502.8778080499997</v>
       </c>
-      <c r="K204">
+      <c r="E204">
         <v>315236.870047</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
-      <c r="H205" t="s">
+      <c r="B205" t="s">
         <v>41</v>
       </c>
-      <c r="I205">
+      <c r="C205">
         <v>362621.077919</v>
       </c>
-      <c r="J205">
+      <c r="D205">
         <v>3972.5123857600001</v>
       </c>
-      <c r="K205">
+      <c r="E205">
         <v>44130.680511899998</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
-      <c r="H206" t="s">
+      <c r="B206" t="s">
         <v>62</v>
       </c>
-      <c r="I206">
+      <c r="C206">
         <v>692985.41297299997</v>
       </c>
-      <c r="J206">
+      <c r="D206">
         <v>20048.197601299998</v>
       </c>
-      <c r="K206">
+      <c r="E206">
         <v>31932.714579700001</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
-      <c r="H207" t="s">
+      <c r="B207" t="s">
         <v>201</v>
       </c>
-      <c r="I207">
+      <c r="C207">
         <v>159431.42095100001</v>
       </c>
-      <c r="J207">
+      <c r="D207">
         <v>1718.6739316999999</v>
       </c>
-      <c r="K207">
+      <c r="E207">
         <v>45136.216537300003</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
-      <c r="H208" t="s">
+      <c r="B208" t="s">
         <v>249</v>
       </c>
-      <c r="I208">
+      <c r="C208">
         <v>416464.30702499999</v>
       </c>
-      <c r="J208">
+      <c r="D208">
         <v>4314.8070750099996</v>
       </c>
-      <c r="K208">
+      <c r="E208">
         <v>12571058.529999999</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
-      <c r="H209" t="s">
+      <c r="B209" t="s">
         <v>61</v>
       </c>
-      <c r="I209">
+      <c r="C209">
         <v>7953015.3312299997</v>
       </c>
-      <c r="J209">
+      <c r="D209">
         <v>158477.66041700001</v>
       </c>
-      <c r="K209">
+      <c r="E209">
         <v>30348596.441399999</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
-      <c r="H210" t="s">
+      <c r="B210" t="s">
         <v>157</v>
       </c>
-      <c r="I210">
+      <c r="C210">
         <v>21727.5032799</v>
       </c>
-      <c r="J210">
+      <c r="D210">
         <v>555.94985608900004</v>
       </c>
-      <c r="K210">
+      <c r="E210">
         <v>1246.52458194</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
-      <c r="H211" t="s">
+      <c r="B211" t="s">
         <v>148</v>
       </c>
-      <c r="I211">
+      <c r="C211">
         <v>2467.5319009499999</v>
       </c>
-      <c r="J211">
+      <c r="D211">
         <v>85.677519378599996</v>
       </c>
-      <c r="K211">
+      <c r="E211">
         <v>137.17624586400001</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
-      <c r="H212" t="s">
+      <c r="B212" t="s">
         <v>291</v>
       </c>
-      <c r="I212">
+      <c r="C212">
         <v>0.89238899280600004</v>
       </c>
-      <c r="J212">
-        <v>0</v>
-      </c>
-      <c r="K212">
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
         <v>81.386087482999997</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
-      <c r="H213" t="s">
+      <c r="B213" t="s">
         <v>194</v>
       </c>
-      <c r="I213">
+      <c r="C213">
         <v>2466.6395119600002</v>
       </c>
-      <c r="J213">
+      <c r="D213">
         <v>85.677519378599996</v>
       </c>
-      <c r="K213">
+      <c r="E213">
         <v>115.23997916899999</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
-      <c r="H214" t="s">
+      <c r="B214" t="s">
         <v>102</v>
       </c>
-      <c r="I214">
+      <c r="C214">
         <v>7456.2144051499999</v>
       </c>
-      <c r="J214">
+      <c r="D214">
         <v>86.672054315699995</v>
       </c>
-      <c r="K214">
+      <c r="E214">
         <v>115748.967559</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
-      <c r="H215" t="s">
+      <c r="B215" t="s">
         <v>44</v>
       </c>
-      <c r="I215">
+      <c r="C215">
         <v>219254.55494100001</v>
       </c>
-      <c r="J215">
+      <c r="D215">
         <v>636.36251970399996</v>
       </c>
-      <c r="K215">
+      <c r="E215">
         <v>17774733.931400001</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
-      <c r="H216" t="s">
+      <c r="B216" t="s">
         <v>273</v>
       </c>
-      <c r="I216">
-        <v>0</v>
-      </c>
-      <c r="J216">
-        <v>0</v>
-      </c>
-      <c r="K216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
-      <c r="H217" t="s">
+      <c r="B217" t="s">
         <v>259</v>
       </c>
-      <c r="I217">
+      <c r="C217">
         <v>114656.756989</v>
       </c>
-      <c r="J217">
+      <c r="D217">
         <v>195.835846382</v>
       </c>
-      <c r="K217">
+      <c r="E217">
         <v>258338.032037</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
-      <c r="H218" t="s">
+      <c r="B218" t="s">
         <v>316</v>
       </c>
-      <c r="I218">
+      <c r="C218">
         <v>55242.597524299999</v>
       </c>
-      <c r="J218">
-        <v>0</v>
-      </c>
-      <c r="K218">
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
         <v>18703558.5693</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
-      <c r="H219" t="s">
+      <c r="B219" t="s">
         <v>203</v>
       </c>
-      <c r="I219">
+      <c r="C219">
         <v>1274.7377284199999</v>
       </c>
-      <c r="J219">
+      <c r="D219">
         <v>11.073177494399999</v>
       </c>
-      <c r="K219">
+      <c r="E219">
         <v>17482.992153800002</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
-      <c r="H220" t="s">
+      <c r="B220" t="s">
         <v>299</v>
       </c>
-      <c r="I220">
+      <c r="C220">
         <v>30253.637288499998</v>
       </c>
-      <c r="J220">
-        <v>0</v>
-      </c>
-      <c r="K220">
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
         <v>504130.80246500002</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
-      <c r="H221" t="s">
+      <c r="B221" t="s">
         <v>217</v>
       </c>
-      <c r="I221">
+      <c r="C221">
         <v>10956.6207313</v>
       </c>
-      <c r="J221">
+      <c r="D221">
         <v>284.762196571</v>
       </c>
-      <c r="K221">
+      <c r="E221">
         <v>5734.9787575700002</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
-      <c r="H222" t="s">
+      <c r="B222" t="s">
         <v>173</v>
       </c>
-      <c r="I222">
+      <c r="C222">
         <v>79773.704416199995</v>
       </c>
-      <c r="J222">
+      <c r="D222">
         <v>2082.0168636200001</v>
       </c>
-      <c r="K222">
+      <c r="E222">
         <v>328029.30439900002</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
-      <c r="H223" t="s">
+      <c r="B223" t="s">
         <v>205</v>
       </c>
-      <c r="I223">
+      <c r="C223">
         <v>21529.442395900001</v>
       </c>
-      <c r="J223">
+      <c r="D223">
         <v>99.049802778</v>
       </c>
-      <c r="K223">
+      <c r="E223">
         <v>140757.65576600001</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
-      <c r="H224" t="s">
+      <c r="B224" t="s">
         <v>232</v>
       </c>
-      <c r="I224">
+      <c r="C224">
         <v>8707.7991275799995</v>
       </c>
-      <c r="J224">
+      <c r="D224">
         <v>153.41137263300001</v>
       </c>
-      <c r="K224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
-      <c r="H225" t="s">
+      <c r="B225" t="s">
         <v>49</v>
       </c>
-      <c r="I225">
+      <c r="C225">
         <v>245697.72797199999</v>
       </c>
-      <c r="J225">
+      <c r="D225">
         <v>2886.0480992799999</v>
       </c>
-      <c r="K225">
+      <c r="E225">
         <v>6472846.81678</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
-      <c r="H226" t="s">
+      <c r="B226" t="s">
         <v>209</v>
       </c>
-      <c r="I226">
+      <c r="C226">
         <v>394345.84873999999</v>
       </c>
-      <c r="J226">
+      <c r="D226">
         <v>4261.5435545999999</v>
       </c>
-      <c r="K226">
+      <c r="E226">
         <v>210904.37624000001</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
-      <c r="H227" t="s">
+      <c r="B227" t="s">
         <v>248</v>
       </c>
-      <c r="I227">
+      <c r="C227">
         <v>20797.343671899998</v>
       </c>
-      <c r="J227">
+      <c r="D227">
         <v>437.09958906000003</v>
       </c>
-      <c r="K227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
-      <c r="H228" t="s">
+      <c r="B228" t="s">
         <v>262</v>
       </c>
-      <c r="I228">
+      <c r="C228">
         <v>4589.6612262099998</v>
       </c>
-      <c r="J228">
+      <c r="D228">
         <v>52.1657838183</v>
       </c>
-      <c r="K228">
+      <c r="E228">
         <v>9372.4437867500001</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
-      <c r="H229" t="s">
+      <c r="B229" t="s">
         <v>98</v>
       </c>
-      <c r="I229">
+      <c r="C229">
         <v>86500.720352400007</v>
       </c>
-      <c r="J229">
+      <c r="D229">
         <v>1376.7776926900001</v>
       </c>
-      <c r="K229">
+      <c r="E229">
         <v>414546.45833499997</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
-      <c r="H230" t="s">
+      <c r="B230" t="s">
         <v>135</v>
       </c>
-      <c r="I230">
+      <c r="C230">
         <v>15934.186161</v>
       </c>
-      <c r="J230">
+      <c r="D230">
         <v>12.863602852</v>
       </c>
-      <c r="K230">
+      <c r="E230">
         <v>447770.87046800001</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
-      <c r="H231" t="s">
+      <c r="B231" t="s">
         <v>140</v>
       </c>
-      <c r="I231">
+      <c r="C231">
         <v>8167.0982869899999</v>
       </c>
-      <c r="J231">
+      <c r="D231">
         <v>144.49685112899999</v>
       </c>
-      <c r="K231">
+      <c r="E231">
         <v>220760.05317</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
-      <c r="H232" t="s">
+      <c r="B232" t="s">
         <v>60</v>
       </c>
-      <c r="I232">
+      <c r="C232">
         <v>27621.973673299999</v>
       </c>
-      <c r="J232">
+      <c r="D232">
         <v>364.16988082799998</v>
       </c>
-      <c r="K232">
+      <c r="E232">
         <v>197844.34349</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
-      <c r="H233" t="s">
+      <c r="B233" t="s">
         <v>6</v>
       </c>
-      <c r="I233">
+      <c r="C233">
         <v>121.43399200899999</v>
       </c>
-      <c r="J233">
+      <c r="D233">
         <v>1.6319235327899999</v>
       </c>
-      <c r="K233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
-      <c r="H234" t="s">
+      <c r="B234" t="s">
         <v>216</v>
       </c>
-      <c r="I234">
+      <c r="C234">
         <v>64506.749733700002</v>
       </c>
-      <c r="J234">
+      <c r="D234">
         <v>1359.0056939799999</v>
       </c>
-      <c r="K234">
+      <c r="E234">
         <v>5203.3782696999997</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
-      <c r="H235" t="s">
+      <c r="B235" t="s">
         <v>37</v>
       </c>
-      <c r="I235">
+      <c r="C235">
         <v>43059.596108700003</v>
       </c>
-      <c r="J235">
+      <c r="D235">
         <v>766.488387536</v>
       </c>
-      <c r="K235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
-      <c r="H236" t="s">
+      <c r="B236" t="s">
         <v>14</v>
       </c>
-      <c r="I236">
+      <c r="C236">
         <v>289419.20777699997</v>
       </c>
-      <c r="J236">
+      <c r="D236">
         <v>3694.4655744800002</v>
       </c>
-      <c r="K236">
+      <c r="E236">
         <v>28041.029923599999</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
-      <c r="H237" t="s">
+      <c r="B237" t="s">
         <v>293</v>
       </c>
-      <c r="I237">
+      <c r="C237">
         <v>32182.808194000001</v>
       </c>
-      <c r="J237">
-        <v>0</v>
-      </c>
-      <c r="K237">
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
         <v>439499.08607999998</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
-      <c r="H238" t="s">
+      <c r="B238" t="s">
         <v>198</v>
       </c>
-      <c r="I238">
+      <c r="C238">
         <v>87909.506839399997</v>
       </c>
-      <c r="J238">
+      <c r="D238">
         <v>179.459440261</v>
       </c>
-      <c r="K238">
+      <c r="E238">
         <v>923986.495031</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
-      <c r="H239" t="s">
+      <c r="B239" t="s">
         <v>28</v>
       </c>
-      <c r="I239">
+      <c r="C239">
         <v>7621.5152519699996</v>
       </c>
-      <c r="J239">
+      <c r="D239">
         <v>6.5672398266299998</v>
       </c>
-      <c r="K239">
+      <c r="E239">
         <v>261176.937164</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
-      <c r="H240" t="s">
+      <c r="B240" t="s">
         <v>43</v>
       </c>
-      <c r="I240">
+      <c r="C240">
         <v>450112.916279</v>
       </c>
-      <c r="J240">
+      <c r="D240">
         <v>5155.2865042499998</v>
       </c>
-      <c r="K240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
-      <c r="H241" t="s">
+      <c r="B241" t="s">
         <v>160</v>
       </c>
-      <c r="I241">
+      <c r="C241">
         <v>39427.609642000003</v>
       </c>
-      <c r="J241">
+      <c r="D241">
         <v>887.41507240600004</v>
       </c>
-      <c r="K241">
+      <c r="E241">
         <v>2286.7704707299999</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
-      <c r="H242" t="s">
+      <c r="B242" t="s">
         <v>255</v>
       </c>
-      <c r="I242">
+      <c r="C242">
         <v>17594.990607899999</v>
       </c>
-      <c r="J242">
+      <c r="D242">
         <v>130.42141038899999</v>
       </c>
-      <c r="K242">
+      <c r="E242">
         <v>104.263817966</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
-      <c r="H243" t="s">
+      <c r="B243" t="s">
         <v>199</v>
       </c>
-      <c r="I243">
+      <c r="C243">
         <v>1745752.10882</v>
       </c>
-      <c r="J243">
+      <c r="D243">
         <v>13638.7305423</v>
       </c>
-      <c r="K243">
+      <c r="E243">
         <v>24067447.1844</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
-      <c r="H244" t="s">
+      <c r="B244" t="s">
         <v>48</v>
       </c>
-      <c r="I244">
+      <c r="C244">
         <v>2162.03634483</v>
       </c>
-      <c r="J244">
+      <c r="D244">
         <v>51.656090575599997</v>
       </c>
-      <c r="K244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
-      <c r="H245" t="s">
+      <c r="B245" t="s">
         <v>321</v>
       </c>
-      <c r="I245">
+      <c r="C245">
         <v>14397.0703973</v>
       </c>
-      <c r="J245">
-        <v>0</v>
-      </c>
-      <c r="K245">
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
         <v>493938.914284</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
-      <c r="H246" t="s">
+      <c r="B246" t="s">
         <v>144</v>
       </c>
-      <c r="I246">
+      <c r="C246">
         <v>3382.3718048999999</v>
       </c>
-      <c r="J246">
+      <c r="D246">
         <v>103.72625759899999</v>
       </c>
-      <c r="K246">
+      <c r="E246">
         <v>180.29008742400001</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
-      <c r="H247" t="s">
+      <c r="B247" t="s">
         <v>229</v>
       </c>
-      <c r="I247">
+      <c r="C247">
         <v>418.22737634499998</v>
       </c>
-      <c r="J247">
+      <c r="D247">
         <v>13.7144742684</v>
       </c>
-      <c r="K247">
+      <c r="E247">
         <v>508.75485386700001</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
-      <c r="H248" t="s">
+      <c r="B248" t="s">
         <v>88</v>
       </c>
-      <c r="I248">
+      <c r="C248">
         <v>4296.69474627</v>
       </c>
-      <c r="J248">
+      <c r="D248">
         <v>49.869893011000002</v>
       </c>
-      <c r="K248">
+      <c r="E248">
         <v>24611.390071400001</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
-      <c r="H249" t="s">
+      <c r="B249" t="s">
         <v>315</v>
       </c>
-      <c r="I249">
+      <c r="C249">
         <v>16221.6434869</v>
       </c>
-      <c r="J249">
-        <v>0</v>
-      </c>
-      <c r="K249">
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
         <v>544055.60395400005</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
-      <c r="H250" t="s">
+      <c r="B250" t="s">
         <v>54</v>
       </c>
-      <c r="I250">
+      <c r="C250">
         <v>6181.1257888299997</v>
       </c>
-      <c r="J250">
+      <c r="D250">
         <v>5.8939840777199999</v>
       </c>
-      <c r="K250">
+      <c r="E250">
         <v>127332.859582</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
-      <c r="H251" t="s">
+      <c r="B251" t="s">
         <v>79</v>
       </c>
-      <c r="I251">
+      <c r="C251">
         <v>6894.8268587800003</v>
       </c>
-      <c r="J251">
+      <c r="D251">
         <v>3.1541604316499998</v>
       </c>
-      <c r="K251">
+      <c r="E251">
         <v>1229665.42576</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
-      <c r="H252" t="s">
+      <c r="B252" t="s">
         <v>89</v>
       </c>
-      <c r="I252">
+      <c r="C252">
         <v>20846.0700321</v>
       </c>
-      <c r="J252">
+      <c r="D252">
         <v>196.23821275</v>
       </c>
-      <c r="K252">
+      <c r="E252">
         <v>137093.57607899999</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
-      <c r="H253" t="s">
+      <c r="B253" t="s">
         <v>106</v>
       </c>
-      <c r="I253">
+      <c r="C253">
         <v>71693.524234500001</v>
       </c>
-      <c r="J253">
+      <c r="D253">
         <v>856.61439636</v>
       </c>
-      <c r="K253">
+      <c r="E253">
         <v>639935.76778500003</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
-      <c r="H254" t="s">
+      <c r="B254" t="s">
         <v>129</v>
       </c>
-      <c r="I254">
+      <c r="C254">
         <v>6934.0454035299999</v>
       </c>
-      <c r="J254">
+      <c r="D254">
         <v>174.18658403500001</v>
       </c>
-      <c r="K254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
-      <c r="H255" t="s">
+      <c r="B255" t="s">
         <v>314</v>
       </c>
-      <c r="I255">
+      <c r="C255">
         <v>8749.6101835299996</v>
       </c>
-      <c r="J255">
-        <v>0</v>
-      </c>
-      <c r="K255">
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
         <v>97751.212637499993</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
-      <c r="H256" t="s">
+      <c r="B256" t="s">
         <v>9</v>
       </c>
-      <c r="I256">
+      <c r="C256">
         <v>26404.353746500001</v>
       </c>
-      <c r="J256">
+      <c r="D256">
         <v>33.963024700799998</v>
       </c>
-      <c r="K256">
+      <c r="E256">
         <v>714971.21717399999</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1</v>
       </c>
-      <c r="H257" t="s">
+      <c r="B257" t="s">
         <v>149</v>
       </c>
-      <c r="I257">
+      <c r="C257">
         <v>7625.0076522899999</v>
       </c>
-      <c r="J257">
+      <c r="D257">
         <v>236.33542532800001</v>
       </c>
-      <c r="K257">
+      <c r="E257">
         <v>662.62778988499997</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1</v>
       </c>
-      <c r="H258" t="s">
+      <c r="B258" t="s">
         <v>146</v>
       </c>
-      <c r="I258">
+      <c r="C258">
         <v>11721.9144153</v>
       </c>
-      <c r="J258">
+      <c r="D258">
         <v>444.46606376199998</v>
       </c>
-      <c r="K258">
+      <c r="E258">
         <v>249.31782009899999</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1</v>
       </c>
-      <c r="H259" t="s">
+      <c r="B259" t="s">
         <v>247</v>
       </c>
-      <c r="I259">
+      <c r="C259">
         <v>7574.9495622699997</v>
       </c>
-      <c r="J259">
+      <c r="D259">
         <v>220.05390568499999</v>
       </c>
-      <c r="K259">
+      <c r="E259">
         <v>525.39773814</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1</v>
       </c>
-      <c r="H260" t="s">
+      <c r="B260" t="s">
         <v>242</v>
       </c>
-      <c r="I260">
+      <c r="C260">
         <v>26022.082100899999</v>
       </c>
-      <c r="J260">
+      <c r="D260">
         <v>501.18598501100001</v>
       </c>
-      <c r="K260">
+      <c r="E260">
         <v>303.29073349800001</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1</v>
       </c>
-      <c r="H261" t="s">
+      <c r="B261" t="s">
         <v>5</v>
       </c>
-      <c r="I261">
+      <c r="C261">
         <v>3309.7014733300002</v>
       </c>
-      <c r="J261">
+      <c r="D261">
         <v>48.246281122699997</v>
       </c>
-      <c r="K261">
+      <c r="E261">
         <v>230.30751210599999</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1</v>
       </c>
-      <c r="H262" t="s">
+      <c r="B262" t="s">
         <v>251</v>
       </c>
-      <c r="I262">
+      <c r="C262">
         <v>3435.6432372899999</v>
       </c>
-      <c r="J262">
+      <c r="D262">
         <v>183.097510594</v>
       </c>
-      <c r="K262">
+      <c r="E262">
         <v>5812.7990749999999</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1</v>
       </c>
-      <c r="H263" t="s">
+      <c r="B263" t="s">
         <v>84</v>
       </c>
-      <c r="I263">
+      <c r="C263">
         <v>269620.148598</v>
       </c>
-      <c r="J263">
+      <c r="D263">
         <v>4760.8196407799996</v>
       </c>
-      <c r="K263">
+      <c r="E263">
         <v>61184.647765299997</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1</v>
       </c>
-      <c r="H264" t="s">
+      <c r="B264" t="s">
         <v>239</v>
       </c>
-      <c r="I264">
+      <c r="C264">
         <v>65064.121116000002</v>
       </c>
-      <c r="J264">
+      <c r="D264">
         <v>1838.2509082500001</v>
       </c>
-      <c r="K264">
+      <c r="E264">
         <v>265826.04678400001</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1</v>
       </c>
-      <c r="H265" t="s">
+      <c r="B265" t="s">
         <v>319</v>
       </c>
-      <c r="I265">
+      <c r="C265">
         <v>13291.0405307</v>
       </c>
-      <c r="J265">
-        <v>0</v>
-      </c>
-      <c r="K265">
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
         <v>2063208.7606500001</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1</v>
       </c>
-      <c r="H266" t="s">
+      <c r="B266" t="s">
         <v>171</v>
       </c>
-      <c r="I266">
+      <c r="C266">
         <v>1170.05055556</v>
       </c>
-      <c r="J266">
+      <c r="D266">
         <v>5.7544436674700004</v>
       </c>
-      <c r="K266">
+      <c r="E266">
         <v>196045.807535</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
-      <c r="H267" t="s">
+      <c r="B267" t="s">
         <v>182</v>
       </c>
-      <c r="I267">
+      <c r="C267">
         <v>178124.34371799999</v>
       </c>
-      <c r="J267">
+      <c r="D267">
         <v>3154.3242321299999</v>
       </c>
-      <c r="K267">
+      <c r="E267">
         <v>7972.2345705999996</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1</v>
       </c>
-      <c r="H268" t="s">
+      <c r="B268" t="s">
         <v>184</v>
       </c>
-      <c r="I268">
+      <c r="C268">
         <v>89306.404526300001</v>
       </c>
-      <c r="J268">
+      <c r="D268">
         <v>1453.5734453699999</v>
       </c>
-      <c r="K268">
+      <c r="E268">
         <v>82689.5983041</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1</v>
       </c>
-      <c r="H269" t="s">
+      <c r="B269" t="s">
         <v>183</v>
       </c>
-      <c r="I269">
+      <c r="C269">
         <v>96413.197402899998</v>
       </c>
-      <c r="J269">
+      <c r="D269">
         <v>1659.5963791700001</v>
       </c>
-      <c r="K269">
+      <c r="E269">
         <v>48896.562625500002</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1</v>
       </c>
-      <c r="H270" t="s">
+      <c r="B270" t="s">
         <v>11</v>
       </c>
-      <c r="I270">
+      <c r="C270">
         <v>7346.4592129700004</v>
       </c>
-      <c r="J270">
+      <c r="D270">
         <v>59.509040343700001</v>
       </c>
-      <c r="K270">
+      <c r="E270">
         <v>27044.256854800002</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1</v>
       </c>
-      <c r="H271" t="s">
+      <c r="B271" t="s">
         <v>176</v>
       </c>
-      <c r="I271">
+      <c r="C271">
         <v>873.48079751199998</v>
       </c>
-      <c r="J271">
+      <c r="D271">
         <v>27.422535744499999</v>
       </c>
-      <c r="K271">
+      <c r="E271">
         <v>1039.47163237</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1</v>
       </c>
-      <c r="H272" t="s">
+      <c r="B272" t="s">
         <v>94</v>
       </c>
-      <c r="I272">
+      <c r="C272">
         <v>26375.578618200001</v>
       </c>
-      <c r="J272">
+      <c r="D272">
         <v>417.37750805799999</v>
       </c>
-      <c r="K272">
+      <c r="E272">
         <v>11253.239335800001</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1</v>
       </c>
-      <c r="H273" t="s">
+      <c r="B273" t="s">
         <v>132</v>
       </c>
-      <c r="I273">
+      <c r="C273">
         <v>485.237542523</v>
       </c>
-      <c r="J273">
+      <c r="D273">
         <v>5.7516199426199996</v>
       </c>
-      <c r="K273">
+      <c r="E273">
         <v>22618.306628900002</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1</v>
       </c>
-      <c r="H274" t="s">
+      <c r="B274" t="s">
         <v>298</v>
       </c>
-      <c r="I274">
+      <c r="C274">
         <v>15761.982949900001</v>
       </c>
-      <c r="J274">
-        <v>0</v>
-      </c>
-      <c r="K274">
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
         <v>1920145.52562</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1</v>
       </c>
-      <c r="H275" t="s">
+      <c r="B275" t="s">
         <v>75</v>
       </c>
-      <c r="I275">
+      <c r="C275">
         <v>8551.0535198199996</v>
       </c>
-      <c r="J275">
+      <c r="D275">
         <v>455.64638942099998</v>
       </c>
-      <c r="K275">
+      <c r="E275">
         <v>1056.6240312</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1</v>
       </c>
-      <c r="H276" t="s">
+      <c r="B276" t="s">
         <v>45</v>
       </c>
-      <c r="I276">
+      <c r="C276">
         <v>58915.093588800002</v>
       </c>
-      <c r="J276">
+      <c r="D276">
         <v>568.51736471699996</v>
       </c>
-      <c r="K276">
+      <c r="E276">
         <v>468319.12696800003</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1</v>
       </c>
-      <c r="H277" t="s">
+      <c r="B277" t="s">
         <v>331</v>
       </c>
-      <c r="I277">
+      <c r="C277">
         <v>2339.4758044700002</v>
       </c>
-      <c r="J277">
-        <v>0</v>
-      </c>
-      <c r="K277">
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
         <v>220601.32110299999</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1</v>
       </c>
-      <c r="H278" t="s">
+      <c r="B278" t="s">
         <v>325</v>
       </c>
-      <c r="I278">
+      <c r="C278">
         <v>11371.7470352</v>
       </c>
-      <c r="J278">
-        <v>0</v>
-      </c>
-      <c r="K278">
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
         <v>131339.04484399999</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1</v>
       </c>
-      <c r="H279" t="s">
+      <c r="B279" t="s">
         <v>104</v>
       </c>
-      <c r="I279">
+      <c r="C279">
         <v>21535.5249678</v>
       </c>
-      <c r="J279">
+      <c r="D279">
         <v>257.61488918800001</v>
       </c>
-      <c r="K279">
+      <c r="E279">
         <v>61206.997464</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1</v>
       </c>
-      <c r="H280" t="s">
+      <c r="B280" t="s">
         <v>77</v>
       </c>
-      <c r="I280">
+      <c r="C280">
         <v>2264.6731437499998</v>
       </c>
-      <c r="J280">
+      <c r="D280">
         <v>65.571120537200002</v>
       </c>
-      <c r="K280">
+      <c r="E280">
         <v>64818.159060600003</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1</v>
       </c>
-      <c r="H281" t="s">
+      <c r="B281" t="s">
         <v>114</v>
       </c>
-      <c r="I281">
+      <c r="C281">
         <v>262.985438375</v>
       </c>
-      <c r="J281">
+      <c r="D281">
         <v>4.9075413125000003</v>
       </c>
-      <c r="K281">
+      <c r="E281">
         <v>0.19054605086199999</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1</v>
       </c>
-      <c r="H282" t="s">
+      <c r="B282" t="s">
         <v>312</v>
       </c>
-      <c r="I282">
+      <c r="C282">
         <v>74450.374849400003</v>
       </c>
-      <c r="J282">
-        <v>0</v>
-      </c>
-      <c r="K282">
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
         <v>4512895.6957099997</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1</v>
       </c>
-      <c r="H283" t="s">
+      <c r="B283" t="s">
         <v>162</v>
       </c>
-      <c r="I283">
+      <c r="C283">
         <v>68981.206905700004</v>
       </c>
-      <c r="J283">
+      <c r="D283">
         <v>1483.35876128</v>
       </c>
-      <c r="K283">
+      <c r="E283">
         <v>168650.650093</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1</v>
       </c>
-      <c r="H284" t="s">
+      <c r="B284" t="s">
         <v>197</v>
       </c>
-      <c r="I284">
+      <c r="C284">
         <v>17486.043692700001</v>
       </c>
-      <c r="J284">
+      <c r="D284">
         <v>55.638247765700001</v>
       </c>
-      <c r="K284">
+      <c r="E284">
         <v>65423.7686894</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1</v>
       </c>
-      <c r="H285" t="s">
+      <c r="B285" t="s">
         <v>83</v>
       </c>
-      <c r="I285">
+      <c r="C285">
         <v>920855.12596700003</v>
       </c>
-      <c r="J285">
+      <c r="D285">
         <v>15936.5507077</v>
       </c>
-      <c r="K285">
+      <c r="E285">
         <v>321070.28748499998</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1</v>
       </c>
-      <c r="H286" t="s">
+      <c r="B286" t="s">
         <v>326</v>
       </c>
-      <c r="I286">
+      <c r="C286">
         <v>12376.8386264</v>
       </c>
-      <c r="J286">
-        <v>0</v>
-      </c>
-      <c r="K286">
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
         <v>480435.58345199999</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1</v>
       </c>
-      <c r="H287" t="s">
+      <c r="B287" t="s">
         <v>27</v>
       </c>
-      <c r="I287">
-        <v>0</v>
-      </c>
-      <c r="J287">
-        <v>0</v>
-      </c>
-      <c r="K287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1</v>
       </c>
-      <c r="H288" t="s">
+      <c r="B288" t="s">
         <v>270</v>
       </c>
-      <c r="I288">
+      <c r="C288">
         <v>22190.284417800001</v>
       </c>
-      <c r="J288">
-        <v>0</v>
-      </c>
-      <c r="K288">
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
         <v>35757.323576700001</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1</v>
       </c>
-      <c r="H289" t="s">
+      <c r="B289" t="s">
         <v>108</v>
       </c>
-      <c r="I289">
+      <c r="C289">
         <v>116640.509307</v>
       </c>
-      <c r="J289">
+      <c r="D289">
         <v>2247.8526958299999</v>
       </c>
-      <c r="K289">
+      <c r="E289">
         <v>13432.3166707</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1</v>
       </c>
-      <c r="H290" t="s">
+      <c r="B290" t="s">
         <v>107</v>
       </c>
-      <c r="I290">
+      <c r="C290">
         <v>486829.91165600001</v>
       </c>
-      <c r="J290">
+      <c r="D290">
         <v>8515.3467524999996</v>
       </c>
-      <c r="K290">
+      <c r="E290">
         <v>896394.91183700005</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1</v>
       </c>
-      <c r="H291" t="s">
+      <c r="B291" t="s">
         <v>109</v>
       </c>
-      <c r="I291">
+      <c r="C291">
         <v>11679.5470064</v>
       </c>
-      <c r="J291">
+      <c r="D291">
         <v>227.926474724</v>
       </c>
-      <c r="K291">
+      <c r="E291">
         <v>827.39798565199999</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1</v>
       </c>
-      <c r="H292" t="s">
+      <c r="B292" t="s">
         <v>180</v>
       </c>
-      <c r="I292">
+      <c r="C292">
         <v>104960.96230100001</v>
       </c>
-      <c r="J292">
+      <c r="D292">
         <v>2019.9262211099999</v>
       </c>
-      <c r="K292">
+      <c r="E292">
         <v>12604.918685000001</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1</v>
       </c>
-      <c r="H293" t="s">
+      <c r="B293" t="s">
         <v>333</v>
       </c>
-      <c r="I293">
+      <c r="C293">
         <v>224665.33448600001</v>
       </c>
-      <c r="J293">
-        <v>0</v>
-      </c>
-      <c r="K293">
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
         <v>6283365.1375599997</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1</v>
       </c>
-      <c r="H294" t="s">
+      <c r="B294" t="s">
         <v>303</v>
       </c>
-      <c r="I294">
+      <c r="C294">
         <v>6345.4567016700003</v>
       </c>
-      <c r="J294">
-        <v>0</v>
-      </c>
-      <c r="K294">
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
         <v>743404.19966599997</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1</v>
       </c>
-      <c r="H295" t="s">
+      <c r="B295" t="s">
         <v>50</v>
       </c>
-      <c r="I295">
+      <c r="C295">
         <v>199857.737207</v>
       </c>
-      <c r="J295">
+      <c r="D295">
         <v>2136.9067681400002</v>
       </c>
-      <c r="K295">
+      <c r="E295">
         <v>3622521.5464900001</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1</v>
       </c>
-      <c r="H296" t="s">
+      <c r="B296" t="s">
         <v>138</v>
       </c>
-      <c r="I296">
+      <c r="C296">
         <v>62990.042807400001</v>
       </c>
-      <c r="J296">
+      <c r="D296">
         <v>898.66709727399996</v>
       </c>
-      <c r="K296">
+      <c r="E296">
         <v>40081.247842700002</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1</v>
       </c>
-      <c r="H297" t="s">
+      <c r="B297" t="s">
         <v>289</v>
       </c>
-      <c r="I297">
+      <c r="C297">
         <v>21772.7149049</v>
       </c>
-      <c r="J297">
-        <v>0</v>
-      </c>
-      <c r="K297">
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
         <v>6297533.3972300002</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1</v>
       </c>
-      <c r="H298" t="s">
+      <c r="B298" t="s">
         <v>177</v>
       </c>
-      <c r="I298">
+      <c r="C298">
         <v>231.83889032100001</v>
       </c>
-      <c r="J298">
+      <c r="D298">
         <v>7.7289487936199999</v>
       </c>
-      <c r="K298">
+      <c r="E298">
         <v>254.617454337</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1</v>
       </c>
-      <c r="H299" t="s">
+      <c r="B299" t="s">
         <v>210</v>
       </c>
-      <c r="I299">
+      <c r="C299">
         <v>245475.11078399999</v>
       </c>
-      <c r="J299">
+      <c r="D299">
         <v>155.184737216</v>
       </c>
-      <c r="K299">
+      <c r="E299">
         <v>8789407.1005199999</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1</v>
       </c>
-      <c r="H300" t="s">
+      <c r="B300" t="s">
         <v>64</v>
       </c>
-      <c r="I300">
+      <c r="C300">
         <v>83604.626083499999</v>
       </c>
-      <c r="J300">
+      <c r="D300">
         <v>2723.7761409999998</v>
       </c>
-      <c r="K300">
+      <c r="E300">
         <v>3153.23137924</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1</v>
       </c>
-      <c r="H301" t="s">
+      <c r="B301" t="s">
         <v>80</v>
       </c>
-      <c r="I301">
+      <c r="C301">
         <v>59455.157762100003</v>
       </c>
-      <c r="J301">
+      <c r="D301">
         <v>690.06137702000001</v>
       </c>
-      <c r="K301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1</v>
       </c>
-      <c r="H302" t="s">
+      <c r="B302" t="s">
         <v>51</v>
       </c>
-      <c r="I302">
+      <c r="C302">
         <v>180781.85775900001</v>
       </c>
-      <c r="J302">
+      <c r="D302">
         <v>2116.0688736900001</v>
       </c>
-      <c r="K302">
+      <c r="E302">
         <v>179000.14559199999</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1</v>
       </c>
-      <c r="H303" t="s">
+      <c r="B303" t="s">
         <v>269</v>
       </c>
-      <c r="I303">
+      <c r="C303">
         <v>35908.6052948</v>
       </c>
-      <c r="J303">
-        <v>0</v>
-      </c>
-      <c r="K303">
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
         <v>9939057.9918099996</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1</v>
       </c>
-      <c r="H304" t="s">
+      <c r="B304" t="s">
         <v>150</v>
       </c>
-      <c r="I304">
+      <c r="C304">
         <v>3683.2977687799998</v>
       </c>
-      <c r="J304">
+      <c r="D304">
         <v>71.949386607099996</v>
       </c>
-      <c r="K304">
+      <c r="E304">
         <v>297.48637256900003</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1</v>
       </c>
-      <c r="H305" t="s">
+      <c r="B305" t="s">
         <v>18</v>
       </c>
-      <c r="I305">
+      <c r="C305">
         <v>67557.534916100005</v>
       </c>
-      <c r="J305">
+      <c r="D305">
         <v>800.24587469100004</v>
       </c>
-      <c r="K305">
+      <c r="E305">
         <v>215.35893106699999</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1</v>
       </c>
-      <c r="H306" t="s">
+      <c r="B306" t="s">
         <v>137</v>
       </c>
-      <c r="I306">
+      <c r="C306">
         <v>3853.08048121</v>
       </c>
-      <c r="J306">
+      <c r="D306">
         <v>44.533462508299998</v>
       </c>
-      <c r="K306">
+      <c r="E306">
         <v>2952.29907774</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1</v>
       </c>
-      <c r="H307" t="s">
+      <c r="B307" t="s">
         <v>288</v>
       </c>
-      <c r="I307">
+      <c r="C307">
         <v>27870.0799606</v>
       </c>
-      <c r="J307">
-        <v>0</v>
-      </c>
-      <c r="K307">
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
         <v>1953683.4747599999</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1</v>
       </c>
-      <c r="H308" t="s">
+      <c r="B308" t="s">
         <v>154</v>
       </c>
-      <c r="I308">
+      <c r="C308">
         <v>6178.3795385699996</v>
       </c>
-      <c r="J308">
+      <c r="D308">
         <v>202.67752878100001</v>
       </c>
-      <c r="K308">
+      <c r="E308">
         <v>769.13074188500002</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1</v>
       </c>
-      <c r="H309" t="s">
+      <c r="B309" t="s">
         <v>71</v>
       </c>
-      <c r="I309">
+      <c r="C309">
         <v>76982.817548499996</v>
       </c>
-      <c r="J309">
+      <c r="D309">
         <v>2639.4182442599999</v>
       </c>
-      <c r="K309">
+      <c r="E309">
         <v>2281.2992901100001</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1</v>
       </c>
-      <c r="H310" t="s">
+      <c r="B310" t="s">
         <v>274</v>
       </c>
-      <c r="I310">
+      <c r="C310">
         <v>1636.1384490600001</v>
       </c>
-      <c r="J310">
-        <v>0</v>
-      </c>
-      <c r="K310">
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
         <v>20518.5747539</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1</v>
       </c>
-      <c r="H311" t="s">
+      <c r="B311" t="s">
         <v>82</v>
       </c>
-      <c r="I311">
+      <c r="C311">
         <v>941701.19599899999</v>
       </c>
-      <c r="J311">
+      <c r="D311">
         <v>16132.788920499999</v>
       </c>
-      <c r="K311">
+      <c r="E311">
         <v>458163.86356500001</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1</v>
       </c>
-      <c r="H312" t="s">
+      <c r="B312" t="s">
         <v>307</v>
       </c>
-      <c r="I312">
+      <c r="C312">
         <v>450.00782958500002</v>
       </c>
-      <c r="J312">
-        <v>0</v>
-      </c>
-      <c r="K312">
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
         <v>421022.590172</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1</v>
       </c>
-      <c r="H313" t="s">
+      <c r="B313" t="s">
         <v>265</v>
       </c>
-      <c r="I313">
+      <c r="C313">
         <v>435.02049890500001</v>
       </c>
-      <c r="J313">
-        <v>0</v>
-      </c>
-      <c r="K313">
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
         <v>3165531.4245699998</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1</v>
       </c>
-      <c r="H314" t="s">
+      <c r="B314" t="s">
         <v>227</v>
       </c>
-      <c r="I314">
+      <c r="C314">
         <v>533822.96413500002</v>
       </c>
-      <c r="J314">
+      <c r="D314">
         <v>13936.9058095</v>
       </c>
-      <c r="K314">
+      <c r="E314">
         <v>8133738.0756400004</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1</v>
       </c>
-      <c r="H315" t="s">
+      <c r="B315" t="s">
         <v>322</v>
       </c>
-      <c r="I315">
+      <c r="C315">
         <v>422.93184582599997</v>
       </c>
-      <c r="J315">
-        <v>0</v>
-      </c>
-      <c r="K315">
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
         <v>25909.021775500001</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1</v>
       </c>
-      <c r="H316" t="s">
+      <c r="B316" t="s">
         <v>4</v>
       </c>
-      <c r="I316">
+      <c r="C316">
         <v>27360.5901123</v>
       </c>
-      <c r="J316">
+      <c r="D316">
         <v>385.95668393800003</v>
       </c>
-      <c r="K316">
+      <c r="E316">
         <v>1569.28882946</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1</v>
       </c>
-      <c r="H317" t="s">
+      <c r="B317" t="s">
         <v>96</v>
       </c>
-      <c r="I317">
+      <c r="C317">
         <v>39591.178432499997</v>
       </c>
-      <c r="J317">
+      <c r="D317">
         <v>667.14215103499998</v>
       </c>
-      <c r="K317">
+      <c r="E317">
         <v>15298.6461347</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1</v>
       </c>
-      <c r="H318" t="s">
+      <c r="B318" t="s">
         <v>90</v>
       </c>
-      <c r="I318">
+      <c r="C318">
         <v>970156.89456100005</v>
       </c>
-      <c r="J318">
+      <c r="D318">
         <v>13567.915147399999</v>
       </c>
-      <c r="K318">
+      <c r="E318">
         <v>3020016.5359100001</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1</v>
       </c>
-      <c r="H319" t="s">
+      <c r="B319" t="s">
         <v>97</v>
       </c>
-      <c r="I319">
+      <c r="C319">
         <v>29035.2311477</v>
       </c>
-      <c r="J319">
+      <c r="D319">
         <v>352.812419697</v>
       </c>
-      <c r="K319">
+      <c r="E319">
         <v>21289.974105000001</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1</v>
       </c>
-      <c r="H320" t="s">
+      <c r="B320" t="s">
         <v>8</v>
       </c>
-      <c r="I320">
+      <c r="C320">
         <v>32651.6898196</v>
       </c>
-      <c r="J320">
+      <c r="D320">
         <v>41.442582445100001</v>
       </c>
-      <c r="K320">
+      <c r="E320">
         <v>1208644.8194599999</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1</v>
       </c>
-      <c r="H321" t="s">
+      <c r="B321" t="s">
         <v>126</v>
       </c>
-      <c r="I321">
+      <c r="C321">
         <v>21632.3396216</v>
       </c>
-      <c r="J321">
+      <c r="D321">
         <v>266.11812206799999</v>
       </c>
-      <c r="K321">
+      <c r="E321">
         <v>488017.87714599998</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1</v>
       </c>
-      <c r="H322" t="s">
+      <c r="B322" t="s">
         <v>207</v>
       </c>
-      <c r="I322">
+      <c r="C322">
         <v>31642.7208852</v>
       </c>
-      <c r="J322">
+      <c r="D322">
         <v>364.59474427700002</v>
       </c>
-      <c r="K322">
+      <c r="E322">
         <v>48730.052366999997</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1</v>
       </c>
-      <c r="H323" t="s">
+      <c r="B323" t="s">
         <v>128</v>
       </c>
-      <c r="I323">
+      <c r="C323">
         <v>877.60104417800005</v>
       </c>
-      <c r="J323">
+      <c r="D323">
         <v>3.9688349218100001</v>
       </c>
-      <c r="K323">
+      <c r="E323">
         <v>9932.8959085499991</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1</v>
       </c>
-      <c r="H324" t="s">
+      <c r="B324" t="s">
         <v>332</v>
       </c>
-      <c r="I324">
+      <c r="C324">
         <v>23391.9572611</v>
       </c>
-      <c r="J324">
-        <v>0</v>
-      </c>
-      <c r="K324">
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
         <v>388004.78066500003</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1</v>
       </c>
-      <c r="H325" t="s">
+      <c r="B325" t="s">
         <v>74</v>
       </c>
-      <c r="I325">
+      <c r="C325">
         <v>10151.1264273</v>
       </c>
-      <c r="J325">
+      <c r="D325">
         <v>332.87583329400002</v>
       </c>
-      <c r="K325">
+      <c r="E325">
         <v>1190.4385143500001</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1</v>
       </c>
-      <c r="H326" t="s">
+      <c r="B326" t="s">
         <v>131</v>
       </c>
-      <c r="I326">
+      <c r="C326">
         <v>3296.9010082499999</v>
       </c>
-      <c r="J326">
+      <c r="D326">
         <v>1.7190780531100001</v>
       </c>
-      <c r="K326">
+      <c r="E326">
         <v>207270.939984</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1</v>
       </c>
-      <c r="H327" t="s">
+      <c r="B327" t="s">
         <v>20</v>
       </c>
-      <c r="I327">
+      <c r="C327">
         <v>22608.3205629</v>
       </c>
-      <c r="J327">
+      <c r="D327">
         <v>319.27283224299998</v>
       </c>
-      <c r="K327">
+      <c r="E327">
         <v>32837.390216100001</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1</v>
       </c>
-      <c r="H328" t="s">
+      <c r="B328" t="s">
         <v>245</v>
       </c>
-      <c r="I328">
+      <c r="C328">
         <v>4862.17281172</v>
       </c>
-      <c r="J328">
+      <c r="D328">
         <v>171.60234792200001</v>
       </c>
-      <c r="K328">
+      <c r="E328">
         <v>160.57911578900001</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1</v>
       </c>
-      <c r="H329" t="s">
+      <c r="B329" t="s">
         <v>101</v>
       </c>
-      <c r="I329">
+      <c r="C329">
         <v>8364.8937188100008</v>
       </c>
-      <c r="J329">
+      <c r="D329">
         <v>70.370009991800003</v>
       </c>
-      <c r="K329">
+      <c r="E329">
         <v>57247.046151299997</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1</v>
       </c>
-      <c r="H330" t="s">
+      <c r="B330" t="s">
         <v>328</v>
       </c>
-      <c r="I330">
+      <c r="C330">
         <v>31184.543493699999</v>
       </c>
-      <c r="J330">
-        <v>0</v>
-      </c>
-      <c r="K330">
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
         <v>1018593.8787999999</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1</v>
       </c>
-      <c r="H331" t="s">
+      <c r="B331" t="s">
         <v>25</v>
       </c>
-      <c r="I331">
+      <c r="C331">
         <v>166.12815216800001</v>
       </c>
-      <c r="J331">
+      <c r="D331">
         <v>4.0284102378100002</v>
       </c>
-      <c r="K331">
+      <c r="E331">
         <v>7.4259885563900001</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1</v>
       </c>
-      <c r="H332" t="s">
+      <c r="B332" t="s">
         <v>306</v>
       </c>
-      <c r="I332">
+      <c r="C332">
         <v>3442.15360659</v>
       </c>
-      <c r="J332">
-        <v>0</v>
-      </c>
-      <c r="K332">
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
         <v>14404825.082599999</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1</v>
       </c>
-      <c r="H333" t="s">
+      <c r="B333" t="s">
         <v>17</v>
       </c>
-      <c r="I333">
+      <c r="C333">
         <v>181428.38267600001</v>
       </c>
-      <c r="J333">
+      <c r="D333">
         <v>2135.0916069300001</v>
       </c>
-      <c r="K333">
+      <c r="E333">
         <v>24267.698296999999</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1</v>
       </c>
-      <c r="H334" t="s">
+      <c r="B334" t="s">
         <v>113</v>
       </c>
-      <c r="I334">
-        <v>0</v>
-      </c>
-      <c r="J334">
-        <v>0</v>
-      </c>
-      <c r="K334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1</v>
       </c>
-      <c r="H335" t="s">
+      <c r="B335" t="s">
         <v>213</v>
       </c>
-      <c r="I335">
-        <v>0</v>
-      </c>
-      <c r="J335">
-        <v>0</v>
-      </c>
-      <c r="K335">
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="M2:N336">
-    <sortCondition ref="M2:M336"/>
+  <sortState ref="G2:H336">
+    <sortCondition ref="G2:G336"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
